--- a/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
+++ b/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\PopulationGIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFE5FF7-D83B-4917-B434-18198CF101D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83A89D8-838B-4D0F-AA9E-18B5AB112A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="769" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PoblacionSISBEN" sheetId="10" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="PoblacionGISChart" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
   <si>
     <t>Fuente</t>
   </si>
@@ -104,9 +105,6 @@
     <t>PRural</t>
   </si>
   <si>
-    <t>Datos censales SISBEN con distribución geográfica</t>
-  </si>
-  <si>
     <t>PorcUrb</t>
   </si>
   <si>
@@ -142,14 +140,20 @@
   <si>
     <t xml:space="preserve">Disminuye, lo que indica que a pesar de que la población urbana ha aumentado, su crecimiento no ha sido tan alto como el de los centros poblados en zonas rurales. </t>
   </si>
+  <si>
+    <t>Ejemplo</t>
+  </si>
+  <si>
+    <t>Σ</t>
+  </si>
+  <si>
+    <t>Análisis de distribución geográfica a partir de datos censales SISBEN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -400,9 +404,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -415,9 +416,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -439,6 +437,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -465,17 +475,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -573,10 +586,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21852129078401761"/>
+          <c:x val="0.23490546588982456"/>
           <c:y val="0.12610672083529312"/>
-          <c:w val="0.74425386337558908"/>
-          <c:h val="0.75046819461430858"/>
+          <c:w val="0.72786968826978204"/>
+          <c:h val="0.73987071069619903"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -741,7 +754,7 @@
             <c:numRef>
               <c:f>PoblacionSISBEN!$G$4:$G$5</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0.83533231566959854</c:v>
@@ -918,7 +931,7 @@
             <c:numRef>
               <c:f>PoblacionSISBEN!$H$4:$H$5</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0.16466768433040149</c:v>
@@ -994,8 +1007,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="8.6515153039806322E-2"/>
-              <c:y val="0.91576168511676581"/>
+              <c:x val="0.10289932814561326"/>
+              <c:y val="0.9122291904773957"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1039,7 +1052,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1128,7 +1141,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1272,15 +1285,26 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:strRef>
-          <c:f>#REF!</c:f>
-          <c:strCache>
-            <c:ptCount val="1"/>
-            <c:pt idx="0">
-              <c:v>#REF!</c:v>
-            </c:pt>
-          </c:strCache>
-        </c:strRef>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Población  total y proyectada</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
       </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1638,6 +1662,528 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PoblacionDANE!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PUrbana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-1173-492D-AAB1-C9939508A352}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$H$2:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>7108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11480</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26710.524322535777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37051.039794918295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53457.878100317947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59930.65781629947</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67311.841666011314</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81809.547282699365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99584.053650648901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98324.35384528726</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105414.418224208</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112515.05517569328</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119592.05720676787</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>126615.61816183449</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>133551.63583352396</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>140369.53541480729</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>147037.31008139811</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>153521.69646776322</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159792.62520428977</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>165816.25729762414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1173-492D-AAB1-C9939508A352}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PoblacionDANE!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PRural</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-1173-492D-AAB1-C9939508A352}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$I$2:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1064.475677464246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2784.960205081738</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6744.121899682109</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9764.3421837005899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11611.158333988749</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18228.452717300719</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29383.946349351212</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29593.646154712853</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34931.581775792118</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40867.944824306855</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47433.942793232272</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54662.381838165675</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62584.364166476204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71232.464585192894</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80638.689918602075</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90834.303532236998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>101852.37479571048</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>113723.74270237613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1173-492D-AAB1-C9939508A352}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1758,6 +2304,7 @@
         <c:axId val="663400832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1880,8 +2427,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.837951387606352E-2"/>
           <c:y val="9.84273849352469E-2"/>
-          <c:w val="7.3021512565183994E-2"/>
-          <c:h val="4.7994344465164852E-2"/>
+          <c:w val="0.11463503425708151"/>
+          <c:h val="0.12624839842771657"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3068,7 +3615,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{86C66609-86C6-4B72-9620-31705379CED0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="96" workbookViewId="0" zoomToFit="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -3415,8 +3962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FE7104-CE26-4403-B32C-577E86FFA577}">
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
@@ -3428,221 +3975,263 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.6">
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B4" s="28">
+      <c r="B4" s="18">
         <v>2000</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="19">
         <v>41271</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="19">
         <v>34475</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="19">
         <v>6480</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="19">
         <v>316</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="30">
         <f>D4/C4</f>
         <v>0.83533231566959854</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="30">
         <f>(E4+F4)/C4</f>
         <v>0.16466768433040149</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <f>H4+G4</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B5" s="30">
+      <c r="B5" s="20">
         <v>2018</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="21">
         <v>96476</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="21">
         <v>74495</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="21">
         <v>7081</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="21">
         <v>14900</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="31">
         <f>D5/C5</f>
         <v>0.77216095194659817</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="31">
         <f>(E5+F5)/C5</f>
         <v>0.22783904805340188</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <f>H5+G5</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.6">
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>19</v>
+      <c r="F8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="4" cm="1">
         <f t="array" ref="C9">INDEX(LINEST(G4:G5,B4:B5^{1},TRUE,TRUE),1,1)</f>
         <v>-3.5095202068333537E-3</v>
       </c>
-      <c r="D9" s="18" cm="1">
+      <c r="D9" s="16" cm="1">
         <f t="array" ref="D9">INDEX(LINEST(H4:H5,B4:B5^{1},TRUE,TRUE),1,1)</f>
         <v>3.5095202068333542E-3</v>
       </c>
+      <c r="F9" s="18">
+        <v>2024</v>
+      </c>
+      <c r="G9" s="30">
+        <f>$C$9*F9+$C$10</f>
+        <v>0.75110383070559905</v>
+      </c>
+      <c r="H9" s="30">
+        <f>$D$9*F9+$D$10</f>
+        <v>0.24889616929440184</v>
+      </c>
+      <c r="I9" s="6">
+        <f>H9+G9</f>
+        <v>1.0000000000000009</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9" cm="1">
+      <c r="C10" s="8" cm="1">
         <f t="array" ref="C10">INDEX(LINEST(G4:G5,B4:B5^{1},TRUE,TRUE),1,2)</f>
         <v>7.8543727293363066</v>
       </c>
-      <c r="D10" s="19" cm="1">
+      <c r="D10" s="17" cm="1">
         <f t="array" ref="D10">INDEX(LINEST(H4:H5,B4:B5^{1},TRUE,TRUE),1,2)</f>
         <v>-6.8543727293363066</v>
+      </c>
+      <c r="F10" s="20">
+        <v>2069</v>
+      </c>
+      <c r="G10" s="31">
+        <f>$C$9*F10+$C$10</f>
+        <v>0.59317542139809731</v>
+      </c>
+      <c r="H10" s="31">
+        <f>$D$9*F10+$D$10</f>
+        <v>0.40682457860190357</v>
+      </c>
+      <c r="I10" s="9">
+        <f>H10+G10</f>
+        <v>1.0000000000000009</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.6">
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="C13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
+      <c r="B14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B15" s="25"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B16" s="26"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
+      <c r="B17" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B18" s="25"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B19" s="27"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3658,11 +4247,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3DC757-E655-4AB9-91FA-E1AE22FE7E6A}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -3670,11 +4259,13 @@
     <col min="1" max="1" width="14.19921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.73046875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="10.73046875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.19921875" style="1"/>
+    <col min="4" max="7" width="10.73046875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3688,13 +4279,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3707,8 +4307,28 @@
       <c r="D2" s="1">
         <v>7108</v>
       </c>
+      <c r="E2" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C2+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C2+PoblacionSISBEN!$C$10)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C2+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C2+PoblacionSISBEN!$D$10)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="33">
+        <f>E2+F2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="34">
+        <f>D2*E2</f>
+        <v>7108</v>
+      </c>
+      <c r="I2" s="34">
+        <f>D2*F2</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3721,8 +4341,28 @@
       <c r="D3" s="1">
         <v>11480</v>
       </c>
+      <c r="E3" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C3+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C3+PoblacionSISBEN!$C$10)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C3+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C3+PoblacionSISBEN!$D$10)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="33">
+        <f t="shared" ref="G3:G23" si="0">E3+F3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="34">
+        <f t="shared" ref="H3:H23" si="1">D3*E3</f>
+        <v>11480</v>
+      </c>
+      <c r="I3" s="34">
+        <f t="shared" ref="I3:I23" si="2">D3*F3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3735,8 +4375,28 @@
       <c r="D4" s="1">
         <v>12273</v>
       </c>
+      <c r="E4" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C4+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C4+PoblacionSISBEN!$C$10)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C4+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C4+PoblacionSISBEN!$D$10)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="34">
+        <f t="shared" si="1"/>
+        <v>12273</v>
+      </c>
+      <c r="I4" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3749,8 +4409,28 @@
       <c r="D5" s="1">
         <v>20628</v>
       </c>
+      <c r="E5" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C5+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C5+PoblacionSISBEN!$C$10)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C5+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C5+PoblacionSISBEN!$D$10)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="34">
+        <f t="shared" si="1"/>
+        <v>20628</v>
+      </c>
+      <c r="I5" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3763,8 +4443,28 @@
       <c r="D6" s="1">
         <v>27775</v>
       </c>
+      <c r="E6" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C6+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C6+PoblacionSISBEN!$C$10)</f>
+        <v>0.96167504311559959</v>
+      </c>
+      <c r="F6" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C6+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C6+PoblacionSISBEN!$D$10)</f>
+        <v>3.8324956884401296E-2</v>
+      </c>
+      <c r="G6" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="H6" s="34">
+        <f t="shared" si="1"/>
+        <v>26710.524322535777</v>
+      </c>
+      <c r="I6" s="34">
+        <f t="shared" si="2"/>
+        <v>1064.475677464246</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -3777,8 +4477,28 @@
       <c r="D7" s="1">
         <v>39836</v>
       </c>
+      <c r="E7" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C7+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C7+PoblacionSISBEN!$C$10)</f>
+        <v>0.93008936125409925</v>
+      </c>
+      <c r="F7" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C7+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C7+PoblacionSISBEN!$D$10)</f>
+        <v>6.9910638745901643E-2</v>
+      </c>
+      <c r="G7" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="H7" s="34">
+        <f t="shared" si="1"/>
+        <v>37051.039794918295</v>
+      </c>
+      <c r="I7" s="34">
+        <f t="shared" si="2"/>
+        <v>2784.960205081738</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -3791,8 +4511,28 @@
       <c r="D8" s="1">
         <v>60202</v>
       </c>
+      <c r="E8" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C8+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C8+PoblacionSISBEN!$C$10)</f>
+        <v>0.88797511877209967</v>
+      </c>
+      <c r="F8" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C8+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C8+PoblacionSISBEN!$D$10)</f>
+        <v>0.11202488122790122</v>
+      </c>
+      <c r="G8" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="H8" s="34">
+        <f t="shared" si="1"/>
+        <v>53457.878100317947</v>
+      </c>
+      <c r="I8" s="34">
+        <f t="shared" si="2"/>
+        <v>6744.121899682109</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3805,8 +4545,28 @@
       <c r="D9" s="1">
         <v>69695</v>
       </c>
+      <c r="E9" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C9+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C9+PoblacionSISBEN!$C$10)</f>
+        <v>0.85989895711743269</v>
+      </c>
+      <c r="F9" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C9+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C9+PoblacionSISBEN!$D$10)</f>
+        <v>0.14010104288256819</v>
+      </c>
+      <c r="G9" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="H9" s="34">
+        <f t="shared" si="1"/>
+        <v>59930.65781629947</v>
+      </c>
+      <c r="I9" s="34">
+        <f t="shared" si="2"/>
+        <v>9764.3421837005899</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3819,8 +4579,28 @@
       <c r="D10" s="1">
         <v>78923</v>
       </c>
+      <c r="E10" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C10+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C10+PoblacionSISBEN!$C$10)</f>
+        <v>0.85287991670376595</v>
+      </c>
+      <c r="F10" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C10+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C10+PoblacionSISBEN!$D$10)</f>
+        <v>0.14712008329623494</v>
+      </c>
+      <c r="G10" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="H10" s="34">
+        <f t="shared" si="1"/>
+        <v>67311.841666011314</v>
+      </c>
+      <c r="I10" s="34">
+        <f t="shared" si="2"/>
+        <v>11611.158333988749</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -3833,8 +4613,28 @@
       <c r="D11" s="1">
         <v>100038</v>
       </c>
+      <c r="E11" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C11+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C11+PoblacionSISBEN!$C$10)</f>
+        <v>0.81778471463543223</v>
+      </c>
+      <c r="F11" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C11+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C11+PoblacionSISBEN!$D$10)</f>
+        <v>0.18221528536456866</v>
+      </c>
+      <c r="G11" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="H11" s="34">
+        <f t="shared" si="1"/>
+        <v>81809.547282699365</v>
+      </c>
+      <c r="I11" s="34">
+        <f t="shared" si="2"/>
+        <v>18228.452717300719</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -3847,8 +4647,28 @@
       <c r="D12" s="1">
         <v>128968</v>
       </c>
+      <c r="E12" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C12+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C12+PoblacionSISBEN!$C$10)</f>
+        <v>0.7721609519465984</v>
+      </c>
+      <c r="F12" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C12+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C12+PoblacionSISBEN!$D$10)</f>
+        <v>0.22783904805340249</v>
+      </c>
+      <c r="G12" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="H12" s="34">
+        <f t="shared" si="1"/>
+        <v>99584.053650648901</v>
+      </c>
+      <c r="I12" s="34">
+        <f t="shared" si="2"/>
+        <v>29383.946349351212</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -3861,8 +4681,28 @@
       <c r="D13" s="1">
         <v>127918</v>
       </c>
+      <c r="E13" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C13+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C13+PoblacionSISBEN!$C$10)</f>
+        <v>0.76865143173976502</v>
+      </c>
+      <c r="F13" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C13+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C13+PoblacionSISBEN!$D$10)</f>
+        <v>0.23134856826023587</v>
+      </c>
+      <c r="G13" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="H13" s="34">
+        <f t="shared" si="1"/>
+        <v>98324.35384528726</v>
+      </c>
+      <c r="I13" s="34">
+        <f t="shared" si="2"/>
+        <v>29593.646154712853</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -3875,8 +4715,28 @@
       <c r="D14" s="1">
         <v>140346</v>
       </c>
+      <c r="E14" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C14+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C14+PoblacionSISBEN!$C$10)</f>
+        <v>0.75110383070559905</v>
+      </c>
+      <c r="F14" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C14+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C14+PoblacionSISBEN!$D$10)</f>
+        <v>0.24889616929440184</v>
+      </c>
+      <c r="G14" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="H14" s="34">
+        <f t="shared" si="1"/>
+        <v>105414.418224208</v>
+      </c>
+      <c r="I14" s="34">
+        <f t="shared" si="2"/>
+        <v>34931.581775792118</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -3889,8 +4749,28 @@
       <c r="D15" s="1">
         <v>153383</v>
       </c>
+      <c r="E15" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C15+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C15+PoblacionSISBEN!$C$10)</f>
+        <v>0.73355622967143219</v>
+      </c>
+      <c r="F15" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C15+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C15+PoblacionSISBEN!$D$10)</f>
+        <v>0.2664437703285687</v>
+      </c>
+      <c r="G15" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="H15" s="34">
+        <f t="shared" si="1"/>
+        <v>112515.05517569328</v>
+      </c>
+      <c r="I15" s="34">
+        <f t="shared" si="2"/>
+        <v>40867.944824306855</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -3903,8 +4783,28 @@
       <c r="D16" s="1">
         <v>167026</v>
       </c>
+      <c r="E16" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C16+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C16+PoblacionSISBEN!$C$10)</f>
+        <v>0.71600862863726533</v>
+      </c>
+      <c r="F16" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C16+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C16+PoblacionSISBEN!$D$10)</f>
+        <v>0.28399137136273556</v>
+      </c>
+      <c r="G16" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="H16" s="34">
+        <f t="shared" si="1"/>
+        <v>119592.05720676787</v>
+      </c>
+      <c r="I16" s="34">
+        <f t="shared" si="2"/>
+        <v>47433.942793232272</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -3917,8 +4817,28 @@
       <c r="D17" s="1">
         <v>181278</v>
       </c>
+      <c r="E17" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C17+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C17+PoblacionSISBEN!$C$10)</f>
+        <v>0.69846102760309847</v>
+      </c>
+      <c r="F17" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C17+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C17+PoblacionSISBEN!$D$10)</f>
+        <v>0.30153897239690242</v>
+      </c>
+      <c r="G17" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="H17" s="34">
+        <f t="shared" si="1"/>
+        <v>126615.61816183449</v>
+      </c>
+      <c r="I17" s="34">
+        <f t="shared" si="2"/>
+        <v>54662.381838165675</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -3931,8 +4851,28 @@
       <c r="D18" s="1">
         <v>196136</v>
       </c>
+      <c r="E18" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C18+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C18+PoblacionSISBEN!$C$10)</f>
+        <v>0.68091342656893161</v>
+      </c>
+      <c r="F18" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C18+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C18+PoblacionSISBEN!$D$10)</f>
+        <v>0.31908657343106928</v>
+      </c>
+      <c r="G18" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="H18" s="34">
+        <f t="shared" si="1"/>
+        <v>133551.63583352396</v>
+      </c>
+      <c r="I18" s="34">
+        <f t="shared" si="2"/>
+        <v>62584.364166476204</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -3945,8 +4885,28 @@
       <c r="D19" s="1">
         <v>211602</v>
       </c>
+      <c r="E19" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C19+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C19+PoblacionSISBEN!$C$10)</f>
+        <v>0.66336582553476475</v>
+      </c>
+      <c r="F19" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C19+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C19+PoblacionSISBEN!$D$10)</f>
+        <v>0.33663417446523614</v>
+      </c>
+      <c r="G19" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="H19" s="34">
+        <f t="shared" si="1"/>
+        <v>140369.53541480729</v>
+      </c>
+      <c r="I19" s="34">
+        <f t="shared" si="2"/>
+        <v>71232.464585192894</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -3959,8 +4919,28 @@
       <c r="D20" s="1">
         <v>227676</v>
       </c>
+      <c r="E20" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C20+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C20+PoblacionSISBEN!$C$10)</f>
+        <v>0.64581822450059789</v>
+      </c>
+      <c r="F20" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C20+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C20+PoblacionSISBEN!$D$10)</f>
+        <v>0.354181775499403</v>
+      </c>
+      <c r="G20" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="H20" s="34">
+        <f t="shared" si="1"/>
+        <v>147037.31008139811</v>
+      </c>
+      <c r="I20" s="34">
+        <f t="shared" si="2"/>
+        <v>80638.689918602075</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -3973,8 +4953,28 @@
       <c r="D21" s="1">
         <v>244356</v>
       </c>
+      <c r="E21" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C21+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C21+PoblacionSISBEN!$C$10)</f>
+        <v>0.62827062346643103</v>
+      </c>
+      <c r="F21" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C21+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C21+PoblacionSISBEN!$D$10)</f>
+        <v>0.37172937653356986</v>
+      </c>
+      <c r="G21" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="H21" s="34">
+        <f t="shared" si="1"/>
+        <v>153521.69646776322</v>
+      </c>
+      <c r="I21" s="34">
+        <f t="shared" si="2"/>
+        <v>90834.303532236998</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -3987,8 +4987,28 @@
       <c r="D22" s="1">
         <v>261645</v>
       </c>
+      <c r="E22" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C22+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C22+PoblacionSISBEN!$C$10)</f>
+        <v>0.61072302243226417</v>
+      </c>
+      <c r="F22" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C22+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C22+PoblacionSISBEN!$D$10)</f>
+        <v>0.38927697756773672</v>
+      </c>
+      <c r="G22" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="H22" s="34">
+        <f t="shared" si="1"/>
+        <v>159792.62520428977</v>
+      </c>
+      <c r="I22" s="34">
+        <f t="shared" si="2"/>
+        <v>101852.37479571048</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -4000,6 +5020,26 @@
       </c>
       <c r="D23" s="1">
         <v>279540</v>
+      </c>
+      <c r="E23" s="32">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C23+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C23+PoblacionSISBEN!$C$10)</f>
+        <v>0.59317542139809731</v>
+      </c>
+      <c r="F23" s="32">
+        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C23+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C23+PoblacionSISBEN!$D$10)</f>
+        <v>0.40682457860190357</v>
+      </c>
+      <c r="G23" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="H23" s="34">
+        <f t="shared" si="1"/>
+        <v>165816.25729762414</v>
+      </c>
+      <c r="I23" s="34">
+        <f t="shared" si="2"/>
+        <v>113723.74270237613</v>
       </c>
     </row>
   </sheetData>

--- a/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
+++ b/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\PopulationGIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83A89D8-838B-4D0F-AA9E-18B5AB112A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890DEE01-4E4C-4617-9633-5F9BA34E6C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="769" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="769" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PoblacionSISBEN" sheetId="10" r:id="rId1"/>
-    <sheet name="PoblacionDANE" sheetId="6" r:id="rId2"/>
-    <sheet name="PoblacionGISChart" sheetId="9" r:id="rId3"/>
+    <sheet name="TipoSuelo" sheetId="11" r:id="rId2"/>
+    <sheet name="PoblacionDANE" sheetId="6" r:id="rId3"/>
+    <sheet name="DensidadGISChart" sheetId="12" r:id="rId4"/>
+    <sheet name="PoblacionGISChart" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,6 +37,134 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7DBB7662-5E92-4F88-874E-C697DB91CB55}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Población total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{C4B0D29D-3A5D-4F24-A721-A2E561845AA5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Porcentaje urbano</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{28668795-8F94-4A02-B516-1F590D6429F3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Población urbana</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{0A60AD00-62FD-43D7-B58F-0AF908A53283}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Población rural</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{CDE42DCF-29F9-40FF-BC55-C4625D85D6AA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Área urbana proyectada linealmente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{5FC28843-A7DE-47EA-BB40-A4CEE76DEDA1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Área rural proyectada linealmente.
+Utilizando la regresión, al menos se debe dejar 1 ha para suelo urbano.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{57E91A39-6AE6-4ADF-83DD-6D7247F42E63}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Densidad total en habitantes / hectárea</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{F1E8A7FD-5B5C-4812-B2D6-2CBD71A92030}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Densidad urbana en habitantes / hectárea</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{2DD09233-94AA-4DD1-96AF-1EFE2862457A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Densidad rural en habitantes / hectárea</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
@@ -61,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
   <si>
     <t>Fuente</t>
   </si>
@@ -149,12 +278,60 @@
   <si>
     <t>Análisis de distribución geográfica a partir de datos censales SISBEN</t>
   </si>
+  <si>
+    <t>Formulación POT usando MOT</t>
+  </si>
+  <si>
+    <t>Diagnóstico POT usando IGAC</t>
+  </si>
+  <si>
+    <t>DANE 2020</t>
+  </si>
+  <si>
+    <t>Urbano (ha)</t>
+  </si>
+  <si>
+    <t>Rural (ha)</t>
+  </si>
+  <si>
+    <t>Total (ha)</t>
+  </si>
+  <si>
+    <t>Fuente geográfica</t>
+  </si>
+  <si>
+    <t>Proyección de áreas por tipo de suelo</t>
+  </si>
+  <si>
+    <t>Áreas por tipo de suelo</t>
+  </si>
+  <si>
+    <t>DensUrb</t>
+  </si>
+  <si>
+    <t>DensRur</t>
+  </si>
+  <si>
+    <t>DensTotal</t>
+  </si>
+  <si>
+    <t>AreaUrbPL</t>
+  </si>
+  <si>
+    <t>AreaRurPL</t>
+  </si>
+  <si>
+    <t>Ejemplo con tendencia lineal no compensada</t>
+  </si>
+  <si>
+    <t>Area total a distribuir (ha):</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +357,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -394,7 +582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -406,13 +594,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -451,6 +633,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -475,20 +698,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1290,6 +1517,1108 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1300"/>
+              <a:t>Tendencia</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1300" baseline="0"/>
+              <a:t> de á</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1300"/>
+              <a:t>rea</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1300" baseline="0"/>
+              <a:t> en suelo rural</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="1300"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13945740740740742"/>
+          <c:y val="1.058251118732827E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23490546588982456"/>
+          <c:y val="0.12610672083529312"/>
+          <c:w val="0.72786968826978204"/>
+          <c:h val="0.73987071069619903"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TipoSuelo!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rural (ha)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.3632716049382712E-2"/>
+                  <c:y val="2.2702231414732956E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TipoSuelo!$C$4:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TipoSuelo!$E$4:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18726.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18586.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18457.490000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0F58-456E-8B72-4818E7499AE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="912975983"/>
+        <c:axId val="912962543"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="912975983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Año</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.10289932814561326"/>
+              <c:y val="0.9122291904773957"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="912962543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="912962543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="18200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Área (ha)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="912975983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25896683151245253"/>
+          <c:y val="0.69604914447054023"/>
+          <c:w val="0.49536912066892341"/>
+          <c:h val="0.14218927617404023"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Tendencia de área</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1300" baseline="0"/>
+              <a:t> en suelo urbano</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="1300"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11398672839506173"/>
+          <c:y val="1.0580717455503364E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23490546588982456"/>
+          <c:y val="0.12610672083529312"/>
+          <c:w val="0.72786968826978204"/>
+          <c:h val="0.73987071069619903"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TipoSuelo!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Urbano (ha)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14490241869127338"/>
+                  <c:y val="-3.8799864151938437E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TipoSuelo!$C$4:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TipoSuelo!$D$4:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>795.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>935.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0287-4F6E-B876-3C954B8F76BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="912975983"/>
+        <c:axId val="912962543"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="912975983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Año</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.10289932814561326"/>
+              <c:y val="0.9122291904773957"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="912962543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="912962543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="650"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Área (ha)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="912975983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35691512345679011"/>
+          <c:y val="0.67345729142210542"/>
+          <c:w val="0.58609567901234572"/>
+          <c:h val="0.15925949548394405"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
@@ -1301,7 +2630,1241 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Población  total y proyectada</a:t>
+              <a:t>Densidad total y proyectada</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38726912908256605"/>
+          <c:y val="1.4152134329703022E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.094480305121253E-2"/>
+          <c:y val="8.7516772934320683E-2"/>
+          <c:w val="0.88538511457614932"/>
+          <c:h val="0.82141780004772114"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PoblacionDANE!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DensTotal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.07665285419992E-3"/>
+                  <c:y val="-4.0404040404040553E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-3D9E-48C4-B4F4-7810C1F45191}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$J$2:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.36484923021329407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58926127783463933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62996547585927942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0588224424366672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4256735184544518</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0447571658380395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0901313108188986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5774011113837272</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.051068626353941</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.134888476656938</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6198474285520703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5659515799696333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2038731096672723</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.8730542315427252</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.5733409574571837</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.3048872755494543</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.067539197680732</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.861399382610221</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.686467830337921</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.542641882104627</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.430075526049146</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.348614774032672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3D9E-48C4-B4F4-7810C1F45191}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PoblacionDANE!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DensUrb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3602076195009477E-3"/>
+                  <c:y val="-5.4252445717012647E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-7CC4-4F49-9B7B-1EB09C5315F8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4203389015700068E-2"/>
+                  <c:y val="-5.3818181818181966E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-7CC4-4F49-9B7B-1EB09C5315F8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$K$2:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>7108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11480</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26710.524322535777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37051.039794918295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>367.72064906401482</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>171.77385267199924</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>168.37562089567578</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125.05902729845596</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101.11270496214216</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.319889396976592</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92.670463994036567</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>88.964621979020393</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85.919104136585645</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>83.348419603327102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.121793848455937</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.14795840704025</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77.359322634223886</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75.704634423561302</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>74.146223681273128</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>72.653166399617703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3D9E-48C4-B4F4-7810C1F45191}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PoblacionDANE!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DensRur</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.11497928129988E-3"/>
+                  <c:y val="-8.0808080808080808E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-7CC4-4F49-9B7B-1EB09C5315F8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$L$2:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.464168084957681E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14295761746980931</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34877417272968836</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51033697073568718</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60847958125114521</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96816419645642193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5885671549218519</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6021074499205195</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9041990769989954</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2433586604530014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6220932270708506</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0430698120149247</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5089359959726703</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0224985861803235</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5866133108988514</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2041765484263589</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8782739580148107</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.6119528017713955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3D9E-48C4-B4F4-7810C1F45191}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="663400352"/>
+        <c:axId val="663400832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="663400352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1985"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Año</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663400832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="663400832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Densidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> (hab/ha)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663400352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.84220447001979604"/>
+          <c:y val="0.10246782788515074"/>
+          <c:w val="0.11463503425708151"/>
+          <c:h val="0.12624839842771657"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Población total y proyectada</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1667,7 +4230,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionDANE!$H$1</c:f>
+              <c:f>PoblacionDANE!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1843,7 +4406,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$H$2:$H$23</c:f>
+              <c:f>PoblacionDANE!$F$2:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1928,7 +4491,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionDANE!$I$1</c:f>
+              <c:f>PoblacionDANE!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2104,7 +4667,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$I$2:$I$23</c:f>
+              <c:f>PoblacionDANE!$G$2:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -2121,58 +4684,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1064.475677464246</c:v>
+                  <c:v>1064.4756774642228</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2784.960205081738</c:v>
+                  <c:v>2784.9602050817048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6744.121899682109</c:v>
+                  <c:v>6744.1218996820535</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9764.3421837005899</c:v>
+                  <c:v>9764.3421837005299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11611.158333988749</c:v>
+                  <c:v>11611.158333988686</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18228.452717300719</c:v>
+                  <c:v>18228.452717300635</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29383.946349351212</c:v>
+                  <c:v>29383.946349351099</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29593.646154712853</c:v>
+                  <c:v>29593.64615471274</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34931.581775792118</c:v>
+                  <c:v>34931.581775792001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40867.944824306855</c:v>
+                  <c:v>40867.944824306716</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47433.942793232272</c:v>
+                  <c:v>47433.942793232127</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>54662.381838165675</c:v>
+                  <c:v>54662.381838165515</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>62584.364166476204</c:v>
+                  <c:v>62584.364166476036</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>71232.464585192894</c:v>
+                  <c:v>71232.464585192705</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80638.689918602075</c:v>
+                  <c:v>80638.689918601885</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>90834.303532236998</c:v>
+                  <c:v>90834.30353223678</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>101852.37479571048</c:v>
+                  <c:v>101852.37479571023</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>113723.74270237613</c:v>
+                  <c:v>113723.74270237586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2579,6 +5142,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3611,11 +6294,1571 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{23D4B084-DC95-47A9-A43B-C1238B6B668E}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{86C66609-86C6-4B72-9620-31705379CED0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -3666,9 +7909,123 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>310328</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>320110</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>69112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC0DB075-3FD1-428D-83AD-B4F10201AA98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104203</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279638</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63521</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B193815-26F1-47A3-B831-423ADC00702D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="12223750" cy="6280547"/>
+    <xdr:ext cx="12231221" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E566824-DE6C-25D2-526F-D635EC7FDE1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="12231221" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3962,8 +8319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FE7104-CE26-4403-B32C-577E86FFA577}">
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
@@ -3979,85 +8336,85 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B4" s="18">
+      <c r="B4" s="16">
         <v>2000</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <v>41271</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <v>34475</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <v>6480</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="17">
         <v>316</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="20">
         <f>D4/C4</f>
         <v>0.83533231566959854</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="20">
         <f>(E4+F4)/C4</f>
         <v>0.16466768433040149</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f>H4+G4</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <v>2018</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <v>96476</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <v>74495</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <v>7081</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>14900</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="21">
         <f>D5/C5</f>
         <v>0.77216095194659817</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="21">
         <f>(E5+F5)/C5</f>
         <v>0.22783904805340188</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <f>H5+G5</f>
         <v>1</v>
       </c>
@@ -4068,80 +8425,80 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="4" cm="1">
         <f t="array" ref="C9">INDEX(LINEST(G4:G5,B4:B5^{1},TRUE,TRUE),1,1)</f>
         <v>-3.5095202068333537E-3</v>
       </c>
-      <c r="D9" s="16" cm="1">
+      <c r="D9" s="14" cm="1">
         <f t="array" ref="D9">INDEX(LINEST(H4:H5,B4:B5^{1},TRUE,TRUE),1,1)</f>
         <v>3.5095202068333542E-3</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <v>2024</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="20">
         <f>$C$9*F9+$C$10</f>
         <v>0.75110383070559905</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="20">
         <f>$D$9*F9+$D$10</f>
         <v>0.24889616929440184</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <f>H9+G9</f>
         <v>1.0000000000000009</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="8" cm="1">
+      <c r="C10" s="6" cm="1">
         <f t="array" ref="C10">INDEX(LINEST(G4:G5,B4:B5^{1},TRUE,TRUE),1,2)</f>
         <v>7.8543727293363066</v>
       </c>
-      <c r="D10" s="17" cm="1">
+      <c r="D10" s="15" cm="1">
         <f t="array" ref="D10">INDEX(LINEST(H4:H5,B4:B5^{1},TRUE,TRUE),1,2)</f>
         <v>-6.8543727293363066</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="18">
         <v>2069</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="21">
         <f>$C$9*F10+$C$10</f>
         <v>0.59317542139809731</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="21">
         <f>$D$9*F10+$D$10</f>
         <v>0.40682457860190357</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <f>H10+G10</f>
         <v>1.0000000000000009</v>
       </c>
@@ -4152,86 +8509,86 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B15" s="27"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B16" s="28"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B18" s="27"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B19" s="29"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4246,12 +8603,238 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3DC757-E655-4AB9-91FA-E1AE22FE7E6A}">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4862CA-2502-49B9-BDCE-723F6597F78F}">
+  <dimension ref="B2:F21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="2.59765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.53125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.86328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.9296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2010</v>
+      </c>
+      <c r="D4" s="17">
+        <v>795.52</v>
+      </c>
+      <c r="E4" s="17">
+        <v>18726.86</v>
+      </c>
+      <c r="F4" s="14">
+        <f>E4+D4</f>
+        <v>19522.38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="17">
+        <v>2013</v>
+      </c>
+      <c r="D5" s="17">
+        <v>935.49</v>
+      </c>
+      <c r="E5" s="17">
+        <v>18586.900000000001</v>
+      </c>
+      <c r="F5" s="14">
+        <f>E5+D5</f>
+        <v>19522.390000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B6" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="19">
+        <v>2020</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1024.53</v>
+      </c>
+      <c r="E6" s="19">
+        <v>18457.490000000002</v>
+      </c>
+      <c r="F6" s="15">
+        <f>E6+D6</f>
+        <v>19482.02</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B11" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="46" cm="1">
+        <f t="array" ref="C11">INDEX(LINEST(D4:D6,C4:C6^{1},TRUE,TRUE),1,1)</f>
+        <v>21.09677215189873</v>
+      </c>
+      <c r="D11" s="47" cm="1">
+        <f t="array" ref="D11">INDEX(LINEST(E4:E6,C4:C6^{1},TRUE,TRUE),1,1)</f>
+        <v>-25.439556962025225</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="48" cm="1">
+        <f t="array" ref="C12">INDEX(LINEST(D4:D6,C4:C6^{1},TRUE,TRUE),1,2)</f>
+        <v>-41577.418037974669</v>
+      </c>
+      <c r="D12" s="49" cm="1">
+        <f t="array" ref="D12">INDEX(LINEST(E4:E6,C4:C6^{1},TRUE,TRUE),1,2)</f>
+        <v>69834.164240506143</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B16" s="18">
+        <v>1900</v>
+      </c>
+      <c r="C16" s="29">
+        <f>$C$11*B16+$C$12</f>
+        <v>-1493.5509493670834</v>
+      </c>
+      <c r="D16" s="29">
+        <f>E6-C16</f>
+        <v>19951.040949367085</v>
+      </c>
+      <c r="E16" s="30">
+        <f>C16+D16</f>
+        <v>18457.490000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="43">
+        <v>19482.02</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B19:F21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3DC757-E655-4AB9-91FA-E1AE22FE7E6A}">
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -4259,13 +8842,19 @@
     <col min="1" max="1" width="14.19921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.73046875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.73046875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.19921875" style="1"/>
+    <col min="4" max="5" width="10.73046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.73046875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4282,19 +8871,28 @@
         <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4307,28 +8905,40 @@
       <c r="D2" s="1">
         <v>7108</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C2+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C2+PoblacionSISBEN!$C$10)</f>
         <v>1</v>
       </c>
-      <c r="F2" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C2+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C2+PoblacionSISBEN!$D$10)</f>
+      <c r="F2" s="23">
+        <f t="shared" ref="F2:F23" si="0">D2*E2</f>
+        <v>7108</v>
+      </c>
+      <c r="G2" s="23">
+        <f t="shared" ref="G2:G23" si="1">D2-F2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="33">
-        <f>E2+F2</f>
+      <c r="H2" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I2</f>
         <v>1</v>
       </c>
-      <c r="H2" s="34">
-        <f>D2*E2</f>
+      <c r="I2" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C2+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C2+TipoSuelo!$D$12)</f>
+        <v>19481.02</v>
+      </c>
+      <c r="J2" s="31">
+        <f t="shared" ref="J2:J23" si="2">D2/(H2+I2)</f>
+        <v>0.36484923021329407</v>
+      </c>
+      <c r="K2" s="31">
+        <f>F2/H2</f>
         <v>7108</v>
       </c>
-      <c r="I2" s="34">
-        <f>D2*F2</f>
+      <c r="L2" s="31">
+        <f>G2/I2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4341,28 +8951,40 @@
       <c r="D3" s="1">
         <v>11480</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C3+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C3+PoblacionSISBEN!$C$10)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C3+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C3+PoblacionSISBEN!$D$10)</f>
+      <c r="F3" s="23">
+        <f t="shared" si="0"/>
+        <v>11480</v>
+      </c>
+      <c r="G3" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G3" s="33">
-        <f t="shared" ref="G3:G23" si="0">E3+F3</f>
+      <c r="H3" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I3</f>
         <v>1</v>
       </c>
-      <c r="H3" s="34">
-        <f t="shared" ref="H3:H23" si="1">D3*E3</f>
+      <c r="I3" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C3+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C3+TipoSuelo!$D$12)</f>
+        <v>19481.02</v>
+      </c>
+      <c r="J3" s="31">
+        <f t="shared" si="2"/>
+        <v>0.58926127783463933</v>
+      </c>
+      <c r="K3" s="31">
+        <f t="shared" ref="K3:K23" si="3">F3/H3</f>
         <v>11480</v>
       </c>
-      <c r="I3" s="34">
-        <f t="shared" ref="I3:I23" si="2">D3*F3</f>
+      <c r="L3" s="31">
+        <f t="shared" ref="L3:L23" si="4">G3/I3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -4375,28 +8997,40 @@
       <c r="D4" s="1">
         <v>12273</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C4+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C4+PoblacionSISBEN!$C$10)</f>
         <v>1</v>
       </c>
-      <c r="F4" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C4+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C4+PoblacionSISBEN!$D$10)</f>
+      <c r="F4" s="23">
+        <f t="shared" si="0"/>
+        <v>12273</v>
+      </c>
+      <c r="G4" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G4" s="33">
-        <f t="shared" si="0"/>
+      <c r="H4" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I4</f>
         <v>1</v>
       </c>
-      <c r="H4" s="34">
-        <f t="shared" si="1"/>
+      <c r="I4" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C4+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C4+TipoSuelo!$D$12)</f>
+        <v>19481.02</v>
+      </c>
+      <c r="J4" s="31">
+        <f t="shared" si="2"/>
+        <v>0.62996547585927942</v>
+      </c>
+      <c r="K4" s="31">
+        <f t="shared" si="3"/>
         <v>12273</v>
       </c>
-      <c r="I4" s="34">
-        <f t="shared" si="2"/>
+      <c r="L4" s="31">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4409,28 +9043,40 @@
       <c r="D5" s="1">
         <v>20628</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C5+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C5+PoblacionSISBEN!$C$10)</f>
         <v>1</v>
       </c>
-      <c r="F5" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C5+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C5+PoblacionSISBEN!$D$10)</f>
+      <c r="F5" s="23">
+        <f t="shared" si="0"/>
+        <v>20628</v>
+      </c>
+      <c r="G5" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G5" s="33">
-        <f t="shared" si="0"/>
+      <c r="H5" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I5</f>
         <v>1</v>
       </c>
-      <c r="H5" s="34">
-        <f t="shared" si="1"/>
+      <c r="I5" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C5+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C5+TipoSuelo!$D$12)</f>
+        <v>19481.02</v>
+      </c>
+      <c r="J5" s="31">
+        <f t="shared" si="2"/>
+        <v>1.0588224424366672</v>
+      </c>
+      <c r="K5" s="31">
+        <f t="shared" si="3"/>
         <v>20628</v>
       </c>
-      <c r="I5" s="34">
-        <f t="shared" si="2"/>
+      <c r="L5" s="31">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -4443,28 +9089,40 @@
       <c r="D6" s="1">
         <v>27775</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C6+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C6+PoblacionSISBEN!$C$10)</f>
         <v>0.96167504311559959</v>
       </c>
-      <c r="F6" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C6+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C6+PoblacionSISBEN!$D$10)</f>
-        <v>3.8324956884401296E-2</v>
-      </c>
-      <c r="G6" s="33">
+      <c r="F6" s="23">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009</v>
-      </c>
-      <c r="H6" s="34">
+        <v>26710.524322535777</v>
+      </c>
+      <c r="G6" s="23">
         <f t="shared" si="1"/>
+        <v>1064.4756774642228</v>
+      </c>
+      <c r="H6" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I6</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C6+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C6+TipoSuelo!$D$12)</f>
+        <v>19481.02</v>
+      </c>
+      <c r="J6" s="31">
+        <f t="shared" si="2"/>
+        <v>1.4256735184544518</v>
+      </c>
+      <c r="K6" s="31">
+        <f t="shared" si="3"/>
         <v>26710.524322535777</v>
       </c>
-      <c r="I6" s="34">
-        <f t="shared" si="2"/>
-        <v>1064.475677464246</v>
+      <c r="L6" s="31">
+        <f t="shared" si="4"/>
+        <v>5.464168084957681E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -4477,28 +9135,40 @@
       <c r="D7" s="1">
         <v>39836</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C7+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C7+PoblacionSISBEN!$C$10)</f>
         <v>0.93008936125409925</v>
       </c>
-      <c r="F7" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C7+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C7+PoblacionSISBEN!$D$10)</f>
-        <v>6.9910638745901643E-2</v>
-      </c>
-      <c r="G7" s="33">
+      <c r="F7" s="23">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009</v>
-      </c>
-      <c r="H7" s="34">
+        <v>37051.039794918295</v>
+      </c>
+      <c r="G7" s="23">
         <f t="shared" si="1"/>
+        <v>2784.9602050817048</v>
+      </c>
+      <c r="H7" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I7</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C7+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C7+TipoSuelo!$D$12)</f>
+        <v>19481.02</v>
+      </c>
+      <c r="J7" s="31">
+        <f t="shared" si="2"/>
+        <v>2.0447571658380395</v>
+      </c>
+      <c r="K7" s="31">
+        <f t="shared" si="3"/>
         <v>37051.039794918295</v>
       </c>
-      <c r="I7" s="34">
-        <f t="shared" si="2"/>
-        <v>2784.960205081738</v>
+      <c r="L7" s="31">
+        <f t="shared" si="4"/>
+        <v>0.14295761746980931</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -4511,28 +9181,40 @@
       <c r="D8" s="1">
         <v>60202</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C8+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C8+PoblacionSISBEN!$C$10)</f>
         <v>0.88797511877209967</v>
       </c>
-      <c r="F8" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C8+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C8+PoblacionSISBEN!$D$10)</f>
-        <v>0.11202488122790122</v>
-      </c>
-      <c r="G8" s="33">
+      <c r="F8" s="23">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009</v>
-      </c>
-      <c r="H8" s="34">
+        <v>53457.878100317947</v>
+      </c>
+      <c r="G8" s="23">
         <f t="shared" si="1"/>
-        <v>53457.878100317947</v>
-      </c>
-      <c r="I8" s="34">
+        <v>6744.1218996820535</v>
+      </c>
+      <c r="H8" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I8</f>
+        <v>145.37632911392939</v>
+      </c>
+      <c r="I8" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C8+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C8+TipoSuelo!$D$12)</f>
+        <v>19336.643670886071</v>
+      </c>
+      <c r="J8" s="31">
         <f t="shared" si="2"/>
-        <v>6744.121899682109</v>
+        <v>3.0901313108188986</v>
+      </c>
+      <c r="K8" s="31">
+        <f t="shared" si="3"/>
+        <v>367.72064906401482</v>
+      </c>
+      <c r="L8" s="31">
+        <f t="shared" si="4"/>
+        <v>0.34877417272968836</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4545,28 +9227,40 @@
       <c r="D9" s="1">
         <v>69695</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C9+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C9+PoblacionSISBEN!$C$10)</f>
         <v>0.85989895711743269</v>
       </c>
-      <c r="F9" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C9+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C9+PoblacionSISBEN!$D$10)</f>
-        <v>0.14010104288256819</v>
-      </c>
-      <c r="G9" s="33">
+      <c r="F9" s="23">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009</v>
-      </c>
-      <c r="H9" s="34">
+        <v>59930.65781629947</v>
+      </c>
+      <c r="G9" s="23">
         <f t="shared" si="1"/>
-        <v>59930.65781629947</v>
-      </c>
-      <c r="I9" s="34">
+        <v>9764.3421837005299</v>
+      </c>
+      <c r="H9" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I9</f>
+        <v>348.89278481013389</v>
+      </c>
+      <c r="I9" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C9+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C9+TipoSuelo!$D$12)</f>
+        <v>19133.127215189867</v>
+      </c>
+      <c r="J9" s="31">
         <f t="shared" si="2"/>
-        <v>9764.3421837005899</v>
+        <v>3.5774011113837272</v>
+      </c>
+      <c r="K9" s="31">
+        <f t="shared" si="3"/>
+        <v>171.77385267199924</v>
+      </c>
+      <c r="L9" s="31">
+        <f t="shared" si="4"/>
+        <v>0.51033697073568718</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4579,28 +9273,40 @@
       <c r="D10" s="1">
         <v>78923</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C10+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C10+PoblacionSISBEN!$C$10)</f>
         <v>0.85287991670376595</v>
       </c>
-      <c r="F10" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C10+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C10+PoblacionSISBEN!$D$10)</f>
-        <v>0.14712008329623494</v>
-      </c>
-      <c r="G10" s="33">
+      <c r="F10" s="23">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009</v>
-      </c>
-      <c r="H10" s="34">
+        <v>67311.841666011314</v>
+      </c>
+      <c r="G10" s="23">
         <f t="shared" si="1"/>
-        <v>67311.841666011314</v>
-      </c>
-      <c r="I10" s="34">
+        <v>11611.158333988686</v>
+      </c>
+      <c r="H10" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I10</f>
+        <v>399.7718987341832</v>
+      </c>
+      <c r="I10" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C10+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C10+TipoSuelo!$D$12)</f>
+        <v>19082.248101265817</v>
+      </c>
+      <c r="J10" s="31">
         <f t="shared" si="2"/>
-        <v>11611.158333988749</v>
+        <v>4.051068626353941</v>
+      </c>
+      <c r="K10" s="31">
+        <f t="shared" si="3"/>
+        <v>168.37562089567578</v>
+      </c>
+      <c r="L10" s="31">
+        <f t="shared" si="4"/>
+        <v>0.60847958125114521</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4613,28 +9319,40 @@
       <c r="D11" s="1">
         <v>100038</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C11+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C11+PoblacionSISBEN!$C$10)</f>
         <v>0.81778471463543223</v>
       </c>
-      <c r="F11" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C11+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C11+PoblacionSISBEN!$D$10)</f>
-        <v>0.18221528536456866</v>
-      </c>
-      <c r="G11" s="33">
+      <c r="F11" s="23">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009</v>
-      </c>
-      <c r="H11" s="34">
+        <v>81809.547282699365</v>
+      </c>
+      <c r="G11" s="23">
         <f t="shared" si="1"/>
-        <v>81809.547282699365</v>
-      </c>
-      <c r="I11" s="34">
+        <v>18228.452717300635</v>
+      </c>
+      <c r="H11" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I11</f>
+        <v>654.16746835443701</v>
+      </c>
+      <c r="I11" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C11+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C11+TipoSuelo!$D$12)</f>
+        <v>18827.852531645563</v>
+      </c>
+      <c r="J11" s="31">
         <f t="shared" si="2"/>
-        <v>18228.452717300719</v>
+        <v>5.134888476656938</v>
+      </c>
+      <c r="K11" s="31">
+        <f t="shared" si="3"/>
+        <v>125.05902729845596</v>
+      </c>
+      <c r="L11" s="31">
+        <f t="shared" si="4"/>
+        <v>0.96816419645642193</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -4647,28 +9365,40 @@
       <c r="D12" s="1">
         <v>128968</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C12+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C12+PoblacionSISBEN!$C$10)</f>
         <v>0.7721609519465984</v>
       </c>
-      <c r="F12" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C12+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C12+PoblacionSISBEN!$D$10)</f>
-        <v>0.22783904805340249</v>
-      </c>
-      <c r="G12" s="33">
+      <c r="F12" s="23">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009</v>
-      </c>
-      <c r="H12" s="34">
+        <v>99584.053650648901</v>
+      </c>
+      <c r="G12" s="23">
         <f t="shared" si="1"/>
-        <v>99584.053650648901</v>
-      </c>
-      <c r="I12" s="34">
+        <v>29383.946349351099</v>
+      </c>
+      <c r="H12" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I12</f>
+        <v>984.88170886076477</v>
+      </c>
+      <c r="I12" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C12+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C12+TipoSuelo!$D$12)</f>
+        <v>18497.138291139236</v>
+      </c>
+      <c r="J12" s="31">
         <f t="shared" si="2"/>
-        <v>29383.946349351212</v>
+        <v>6.6198474285520703</v>
+      </c>
+      <c r="K12" s="31">
+        <f t="shared" si="3"/>
+        <v>101.11270496214216</v>
+      </c>
+      <c r="L12" s="31">
+        <f t="shared" si="4"/>
+        <v>1.5885671549218519</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -4681,28 +9411,40 @@
       <c r="D13" s="1">
         <v>127918</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C13+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C13+PoblacionSISBEN!$C$10)</f>
         <v>0.76865143173976502</v>
       </c>
-      <c r="F13" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C13+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C13+PoblacionSISBEN!$D$10)</f>
-        <v>0.23134856826023587</v>
-      </c>
-      <c r="G13" s="33">
+      <c r="F13" s="23">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009</v>
-      </c>
-      <c r="H13" s="34">
+        <v>98324.35384528726</v>
+      </c>
+      <c r="G13" s="23">
         <f t="shared" si="1"/>
-        <v>98324.35384528726</v>
-      </c>
-      <c r="I13" s="34">
+        <v>29593.64615471274</v>
+      </c>
+      <c r="H13" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I13</f>
+        <v>1010.3212658227894</v>
+      </c>
+      <c r="I13" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C13+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C13+TipoSuelo!$D$12)</f>
+        <v>18471.698734177211</v>
+      </c>
+      <c r="J13" s="31">
         <f t="shared" si="2"/>
-        <v>29593.646154712853</v>
+        <v>6.5659515799696333</v>
+      </c>
+      <c r="K13" s="31">
+        <f t="shared" si="3"/>
+        <v>97.319889396976592</v>
+      </c>
+      <c r="L13" s="31">
+        <f t="shared" si="4"/>
+        <v>1.6021074499205195</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -4715,28 +9457,40 @@
       <c r="D14" s="1">
         <v>140346</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C14+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C14+PoblacionSISBEN!$C$10)</f>
         <v>0.75110383070559905</v>
       </c>
-      <c r="F14" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C14+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C14+PoblacionSISBEN!$D$10)</f>
-        <v>0.24889616929440184</v>
-      </c>
-      <c r="G14" s="33">
+      <c r="F14" s="23">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009</v>
-      </c>
-      <c r="H14" s="34">
+        <v>105414.418224208</v>
+      </c>
+      <c r="G14" s="23">
         <f t="shared" si="1"/>
-        <v>105414.418224208</v>
-      </c>
-      <c r="I14" s="34">
+        <v>34931.581775792001</v>
+      </c>
+      <c r="H14" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I14</f>
+        <v>1137.5190506329127</v>
+      </c>
+      <c r="I14" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C14+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C14+TipoSuelo!$D$12)</f>
+        <v>18344.500949367088</v>
+      </c>
+      <c r="J14" s="31">
         <f t="shared" si="2"/>
-        <v>34931.581775792118</v>
+        <v>7.2038731096672723</v>
+      </c>
+      <c r="K14" s="31">
+        <f t="shared" si="3"/>
+        <v>92.670463994036567</v>
+      </c>
+      <c r="L14" s="31">
+        <f t="shared" si="4"/>
+        <v>1.9041990769989954</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -4749,28 +9503,40 @@
       <c r="D15" s="1">
         <v>153383</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C15+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C15+PoblacionSISBEN!$C$10)</f>
         <v>0.73355622967143219</v>
       </c>
-      <c r="F15" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C15+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C15+PoblacionSISBEN!$D$10)</f>
-        <v>0.2664437703285687</v>
-      </c>
-      <c r="G15" s="33">
+      <c r="F15" s="23">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009</v>
-      </c>
-      <c r="H15" s="34">
+        <v>112515.05517569328</v>
+      </c>
+      <c r="G15" s="23">
         <f t="shared" si="1"/>
-        <v>112515.05517569328</v>
-      </c>
-      <c r="I15" s="34">
+        <v>40867.944824306716</v>
+      </c>
+      <c r="H15" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I15</f>
+        <v>1264.7168354430432</v>
+      </c>
+      <c r="I15" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C15+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C15+TipoSuelo!$D$12)</f>
+        <v>18217.303164556957</v>
+      </c>
+      <c r="J15" s="31">
         <f t="shared" si="2"/>
-        <v>40867.944824306855</v>
+        <v>7.8730542315427252</v>
+      </c>
+      <c r="K15" s="31">
+        <f t="shared" si="3"/>
+        <v>88.964621979020393</v>
+      </c>
+      <c r="L15" s="31">
+        <f t="shared" si="4"/>
+        <v>2.2433586604530014</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -4783,28 +9549,40 @@
       <c r="D16" s="1">
         <v>167026</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C16+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C16+PoblacionSISBEN!$C$10)</f>
         <v>0.71600862863726533</v>
       </c>
-      <c r="F16" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C16+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C16+PoblacionSISBEN!$D$10)</f>
-        <v>0.28399137136273556</v>
-      </c>
-      <c r="G16" s="33">
+      <c r="F16" s="23">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009</v>
-      </c>
-      <c r="H16" s="34">
+        <v>119592.05720676787</v>
+      </c>
+      <c r="G16" s="23">
         <f t="shared" si="1"/>
-        <v>119592.05720676787</v>
-      </c>
-      <c r="I16" s="34">
+        <v>47433.942793232127</v>
+      </c>
+      <c r="H16" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I16</f>
+        <v>1391.9146202531665</v>
+      </c>
+      <c r="I16" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C16+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C16+TipoSuelo!$D$12)</f>
+        <v>18090.105379746834</v>
+      </c>
+      <c r="J16" s="31">
         <f t="shared" si="2"/>
-        <v>47433.942793232272</v>
+        <v>8.5733409574571837</v>
+      </c>
+      <c r="K16" s="31">
+        <f t="shared" si="3"/>
+        <v>85.919104136585645</v>
+      </c>
+      <c r="L16" s="31">
+        <f t="shared" si="4"/>
+        <v>2.6220932270708506</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -4817,28 +9595,40 @@
       <c r="D17" s="1">
         <v>181278</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C17+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C17+PoblacionSISBEN!$C$10)</f>
         <v>0.69846102760309847</v>
       </c>
-      <c r="F17" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C17+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C17+PoblacionSISBEN!$D$10)</f>
-        <v>0.30153897239690242</v>
-      </c>
-      <c r="G17" s="33">
+      <c r="F17" s="23">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009</v>
-      </c>
-      <c r="H17" s="34">
+        <v>126615.61816183449</v>
+      </c>
+      <c r="G17" s="23">
         <f t="shared" si="1"/>
-        <v>126615.61816183449</v>
-      </c>
-      <c r="I17" s="34">
+        <v>54662.381838165515</v>
+      </c>
+      <c r="H17" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I17</f>
+        <v>1519.1124050632898</v>
+      </c>
+      <c r="I17" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C17+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C17+TipoSuelo!$D$12)</f>
+        <v>17962.907594936711</v>
+      </c>
+      <c r="J17" s="31">
         <f t="shared" si="2"/>
-        <v>54662.381838165675</v>
+        <v>9.3048872755494543</v>
+      </c>
+      <c r="K17" s="31">
+        <f t="shared" si="3"/>
+        <v>83.348419603327102</v>
+      </c>
+      <c r="L17" s="31">
+        <f t="shared" si="4"/>
+        <v>3.0430698120149247</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -4851,28 +9641,40 @@
       <c r="D18" s="1">
         <v>196136</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C18+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C18+PoblacionSISBEN!$C$10)</f>
         <v>0.68091342656893161</v>
       </c>
-      <c r="F18" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C18+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C18+PoblacionSISBEN!$D$10)</f>
-        <v>0.31908657343106928</v>
-      </c>
-      <c r="G18" s="33">
+      <c r="F18" s="23">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009</v>
-      </c>
-      <c r="H18" s="34">
+        <v>133551.63583352396</v>
+      </c>
+      <c r="G18" s="23">
         <f t="shared" si="1"/>
-        <v>133551.63583352396</v>
-      </c>
-      <c r="I18" s="34">
+        <v>62584.364166476036</v>
+      </c>
+      <c r="H18" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I18</f>
+        <v>1646.3101898734203</v>
+      </c>
+      <c r="I18" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C18+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C18+TipoSuelo!$D$12)</f>
+        <v>17835.70981012658</v>
+      </c>
+      <c r="J18" s="31">
         <f t="shared" si="2"/>
-        <v>62584.364166476204</v>
+        <v>10.067539197680732</v>
+      </c>
+      <c r="K18" s="31">
+        <f t="shared" si="3"/>
+        <v>81.121793848455937</v>
+      </c>
+      <c r="L18" s="31">
+        <f t="shared" si="4"/>
+        <v>3.5089359959726703</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -4885,28 +9687,40 @@
       <c r="D19" s="1">
         <v>211602</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C19+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C19+PoblacionSISBEN!$C$10)</f>
         <v>0.66336582553476475</v>
       </c>
-      <c r="F19" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C19+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C19+PoblacionSISBEN!$D$10)</f>
-        <v>0.33663417446523614</v>
-      </c>
-      <c r="G19" s="33">
+      <c r="F19" s="23">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009</v>
-      </c>
-      <c r="H19" s="34">
+        <v>140369.53541480729</v>
+      </c>
+      <c r="G19" s="23">
         <f t="shared" si="1"/>
-        <v>140369.53541480729</v>
-      </c>
-      <c r="I19" s="34">
+        <v>71232.464585192705</v>
+      </c>
+      <c r="H19" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I19</f>
+        <v>1773.5079746835436</v>
+      </c>
+      <c r="I19" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C19+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C19+TipoSuelo!$D$12)</f>
+        <v>17708.512025316457</v>
+      </c>
+      <c r="J19" s="31">
         <f t="shared" si="2"/>
-        <v>71232.464585192894</v>
+        <v>10.861399382610221</v>
+      </c>
+      <c r="K19" s="31">
+        <f t="shared" si="3"/>
+        <v>79.14795840704025</v>
+      </c>
+      <c r="L19" s="31">
+        <f t="shared" si="4"/>
+        <v>4.0224985861803235</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -4919,28 +9733,40 @@
       <c r="D20" s="1">
         <v>227676</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C20+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C20+PoblacionSISBEN!$C$10)</f>
         <v>0.64581822450059789</v>
       </c>
-      <c r="F20" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C20+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C20+PoblacionSISBEN!$D$10)</f>
-        <v>0.354181775499403</v>
-      </c>
-      <c r="G20" s="33">
+      <c r="F20" s="23">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009</v>
-      </c>
-      <c r="H20" s="34">
+        <v>147037.31008139811</v>
+      </c>
+      <c r="G20" s="23">
         <f t="shared" si="1"/>
-        <v>147037.31008139811</v>
-      </c>
-      <c r="I20" s="34">
+        <v>80638.689918601885</v>
+      </c>
+      <c r="H20" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I20</f>
+        <v>1900.7057594936668</v>
+      </c>
+      <c r="I20" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C20+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C20+TipoSuelo!$D$12)</f>
+        <v>17581.314240506334</v>
+      </c>
+      <c r="J20" s="31">
         <f t="shared" si="2"/>
-        <v>80638.689918602075</v>
+        <v>11.686467830337921</v>
+      </c>
+      <c r="K20" s="31">
+        <f t="shared" si="3"/>
+        <v>77.359322634223886</v>
+      </c>
+      <c r="L20" s="31">
+        <f t="shared" si="4"/>
+        <v>4.5866133108988514</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -4953,28 +9779,40 @@
       <c r="D21" s="1">
         <v>244356</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C21+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C21+PoblacionSISBEN!$C$10)</f>
         <v>0.62827062346643103</v>
       </c>
-      <c r="F21" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C21+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C21+PoblacionSISBEN!$D$10)</f>
-        <v>0.37172937653356986</v>
-      </c>
-      <c r="G21" s="33">
+      <c r="F21" s="23">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009</v>
-      </c>
-      <c r="H21" s="34">
+        <v>153521.69646776322</v>
+      </c>
+      <c r="G21" s="23">
         <f t="shared" si="1"/>
-        <v>153521.69646776322</v>
-      </c>
-      <c r="I21" s="34">
+        <v>90834.30353223678</v>
+      </c>
+      <c r="H21" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I21</f>
+        <v>2027.9035443037974</v>
+      </c>
+      <c r="I21" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C21+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C21+TipoSuelo!$D$12)</f>
+        <v>17454.116455696203</v>
+      </c>
+      <c r="J21" s="31">
         <f t="shared" si="2"/>
-        <v>90834.303532236998</v>
+        <v>12.542641882104627</v>
+      </c>
+      <c r="K21" s="31">
+        <f t="shared" si="3"/>
+        <v>75.704634423561302</v>
+      </c>
+      <c r="L21" s="31">
+        <f t="shared" si="4"/>
+        <v>5.2041765484263589</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -4987,28 +9825,40 @@
       <c r="D22" s="1">
         <v>261645</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C22+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C22+PoblacionSISBEN!$C$10)</f>
         <v>0.61072302243226417</v>
       </c>
-      <c r="F22" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C22+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C22+PoblacionSISBEN!$D$10)</f>
-        <v>0.38927697756773672</v>
-      </c>
-      <c r="G22" s="33">
+      <c r="F22" s="23">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009</v>
-      </c>
-      <c r="H22" s="34">
+        <v>159792.62520428977</v>
+      </c>
+      <c r="G22" s="23">
         <f t="shared" si="1"/>
-        <v>159792.62520428977</v>
-      </c>
-      <c r="I22" s="34">
+        <v>101852.37479571023</v>
+      </c>
+      <c r="H22" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I22</f>
+        <v>2155.1013291139207</v>
+      </c>
+      <c r="I22" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C22+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C22+TipoSuelo!$D$12)</f>
+        <v>17326.91867088608</v>
+      </c>
+      <c r="J22" s="31">
         <f t="shared" si="2"/>
-        <v>101852.37479571048</v>
+        <v>13.430075526049146</v>
+      </c>
+      <c r="K22" s="31">
+        <f t="shared" si="3"/>
+        <v>74.146223681273128</v>
+      </c>
+      <c r="L22" s="31">
+        <f t="shared" si="4"/>
+        <v>5.8782739580148107</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -5021,28 +9871,41 @@
       <c r="D23" s="1">
         <v>279540</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="22">
         <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C23+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C23+PoblacionSISBEN!$C$10)</f>
         <v>0.59317542139809731</v>
       </c>
-      <c r="F23" s="32">
-        <f>IF((PoblacionSISBEN!$D$9*PoblacionDANE!C23+PoblacionSISBEN!$D$10)&lt;=0,0,PoblacionSISBEN!$D$9*PoblacionDANE!C23+PoblacionSISBEN!$D$10)</f>
-        <v>0.40682457860190357</v>
-      </c>
-      <c r="G23" s="33">
+      <c r="F23" s="23">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009</v>
-      </c>
-      <c r="H23" s="34">
+        <v>165816.25729762414</v>
+      </c>
+      <c r="G23" s="23">
         <f t="shared" si="1"/>
-        <v>165816.25729762414</v>
-      </c>
-      <c r="I23" s="34">
+        <v>113723.74270237586</v>
+      </c>
+      <c r="H23" s="31">
+        <f>TipoSuelo!$C$18-PoblacionDANE!I23</f>
+        <v>2282.2991139240512</v>
+      </c>
+      <c r="I23" s="31">
+        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C23+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C23+TipoSuelo!$D$12)</f>
+        <v>17199.720886075949</v>
+      </c>
+      <c r="J23" s="31">
         <f t="shared" si="2"/>
-        <v>113723.74270237613</v>
+        <v>14.348614774032672</v>
+      </c>
+      <c r="K23" s="31">
+        <f t="shared" si="3"/>
+        <v>72.653166399617703</v>
+      </c>
+      <c r="L23" s="31">
+        <f t="shared" si="4"/>
+        <v>6.6119528017713955</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
+++ b/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\PopulationGIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890DEE01-4E4C-4617-9633-5F9BA34E6C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF77E6EA-82B0-463A-90D0-755AA36189C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="769" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="769" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PoblacionSISBEN" sheetId="10" r:id="rId1"/>
     <sheet name="TipoSuelo" sheetId="11" r:id="rId2"/>
     <sheet name="PoblacionDANE" sheetId="6" r:id="rId3"/>
-    <sheet name="DensidadGISChart" sheetId="12" r:id="rId4"/>
-    <sheet name="PoblacionGISChart" sheetId="9" r:id="rId5"/>
+    <sheet name="PoblacionGISChart" sheetId="9" r:id="rId4"/>
+    <sheet name="DensidadGISChart" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>Fuente</t>
   </si>
@@ -276,9 +276,6 @@
     <t>Σ</t>
   </si>
   <si>
-    <t>Análisis de distribución geográfica a partir de datos censales SISBEN</t>
-  </si>
-  <si>
     <t>Formulación POT usando MOT</t>
   </si>
   <si>
@@ -303,9 +300,6 @@
     <t>Proyección de áreas por tipo de suelo</t>
   </si>
   <si>
-    <t>Áreas por tipo de suelo</t>
-  </si>
-  <si>
     <t>DensUrb</t>
   </si>
   <si>
@@ -321,16 +315,43 @@
     <t>AreaRurPL</t>
   </si>
   <si>
-    <t>Ejemplo con tendencia lineal no compensada</t>
+    <t>Análisis de distribución geográfica poblacional a partir de datos censales SISBEN</t>
   </si>
   <si>
-    <t>Area total a distribuir (ha):</t>
+    <t>Ejemplo con tendencia lineal</t>
+  </si>
+  <si>
+    <t>Análisis de distribución del tipo de suelo</t>
+  </si>
+  <si>
+    <t>Espacio público efectivo por habitante (m²)</t>
+  </si>
+  <si>
+    <t>EPE</t>
+  </si>
+  <si>
+    <t>EPEUrbHa</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Area municipal total a distribuir (ha)</t>
+  </si>
+  <si>
+    <t>Parámetros generales</t>
+  </si>
+  <si>
+    <t>Análisis de densidad, espacio público efectivo y demanda de servicios públicos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -577,12 +598,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -665,15 +738,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -698,23 +762,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1601,7 +1687,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>TipoSuelo!$E$3</c:f>
+              <c:f>TipoSuelo!$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1683,7 +1769,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>TipoSuelo!$C$4:$C$6</c:f>
+              <c:f>TipoSuelo!$C$10:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1701,7 +1787,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>TipoSuelo!$E$4:$E$6</c:f>
+              <c:f>TipoSuelo!$E$10:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2148,7 +2234,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>TipoSuelo!$D$3</c:f>
+              <c:f>TipoSuelo!$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2230,7 +2316,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>TipoSuelo!$C$4:$C$6</c:f>
+              <c:f>TipoSuelo!$C$10:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2248,7 +2334,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>TipoSuelo!$D$4:$D$6</c:f>
+              <c:f>TipoSuelo!$D$10:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2630,6 +2716,1236 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Población total y proyectada</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.094480305121253E-2"/>
+          <c:y val="8.7516772934320683E-2"/>
+          <c:w val="0.88538511457614932"/>
+          <c:h val="0.83757935109742632"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PoblacionDANE!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PTotal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd type="none" w="sm" len="sm"/>
+              <a:tailEnd type="none" w="sm" len="sm"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3294996228152521E-2"/>
+                  <c:y val="-5.6327963816780575E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-5856-43A4-86B4-4B0E8EF8794C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9522160737825908E-2"/>
+                  <c:y val="-5.7553869954478677E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-5856-43A4-86B4-4B0E8EF8794C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1219274724928159E-2"/>
+                  <c:y val="-6.5398874740517865E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-5856-43A4-86B4-4B0E8EF8794C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$D$2:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>7108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11480</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69695</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78923</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100038</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>128968</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>127918</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140346</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>153383</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>167026</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>181278</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>196136</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>211602</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>227676</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>244356</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>261645</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>279540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-5856-43A4-86B4-4B0E8EF8794C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PoblacionDANE!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PUrbana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-1173-492D-AAB1-C9939508A352}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$F$2:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>7108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11480</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26710.524322535777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37051.039794918295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53457.878100317947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59930.65781629947</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67311.841666011314</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81809.547282699365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99584.053650648901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98324.35384528726</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105414.418224208</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112515.05517569328</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119592.05720676787</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>126615.61816183449</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>133551.63583352396</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>140369.53541480729</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>147037.31008139811</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>153521.69646776322</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159792.62520428977</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>165816.25729762414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1173-492D-AAB1-C9939508A352}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PoblacionDANE!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PRural</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-1173-492D-AAB1-C9939508A352}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$G$2:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1064.4756774642228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2784.9602050817048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6744.1218996820535</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9764.3421837005299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11611.158333988686</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18228.452717300635</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29383.946349351099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29593.64615471274</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34931.581775792001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40867.944824306716</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47433.942793232127</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54662.381838165515</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62584.364166476036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71232.464585192705</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80638.689918601885</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90834.30353223678</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>101852.37479571023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>113723.74270237586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1173-492D-AAB1-C9939508A352}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="663400352"/>
+        <c:axId val="663400832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="663400352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1900"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Año</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663400832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="663400832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Población</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663400352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.837951387606352E-2"/>
+          <c:y val="9.84273849352469E-2"/>
+          <c:w val="0.11463503425708151"/>
+          <c:h val="0.12624839842771657"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Densidad total y proyectada</a:t>
             </a:r>
           </a:p>
@@ -3832,1236 +5148,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Población total y proyectada</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.094480305121253E-2"/>
-          <c:y val="8.7516772934320683E-2"/>
-          <c:w val="0.88538511457614932"/>
-          <c:h val="0.83757935109742632"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>PoblacionDANE!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PTotal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="15875" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-              <a:headEnd type="none" w="sm" len="sm"/>
-              <a:tailEnd type="none" w="sm" len="sm"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.3294996228152521E-2"/>
-                  <c:y val="-5.6327963816780575E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-5856-43A4-86B4-4B0E8EF8794C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.9522160737825908E-2"/>
-                  <c:y val="-5.7553869954478677E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-5856-43A4-86B4-4B0E8EF8794C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.1219274724928159E-2"/>
-                  <c:y val="-6.5398874740517865E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-5856-43A4-86B4-4B0E8EF8794C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1905</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1928</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1938</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1951</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1964</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1973</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2059</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2064</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2069</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>PoblacionDANE!$D$2:$D$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>7108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11480</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12273</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20628</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27775</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>39836</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60202</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>69695</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>78923</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100038</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>128968</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>127918</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>140346</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>153383</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>167026</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>181278</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>196136</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>211602</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>227676</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>244356</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>261645</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>279540</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-5856-43A4-86B4-4B0E8EF8794C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>PoblacionDANE!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PUrbana</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-1173-492D-AAB1-C9939508A352}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1905</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1928</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1938</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1951</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1964</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1973</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2059</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2064</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2069</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>PoblacionDANE!$F$2:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>7108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11480</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12273</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20628</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26710.524322535777</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37051.039794918295</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>53457.878100317947</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>59930.65781629947</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>67311.841666011314</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>81809.547282699365</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>99584.053650648901</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>98324.35384528726</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>105414.418224208</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112515.05517569328</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>119592.05720676787</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>126615.61816183449</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>133551.63583352396</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>140369.53541480729</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>147037.31008139811</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>153521.69646776322</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>159792.62520428977</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>165816.25729762414</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1173-492D-AAB1-C9939508A352}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>PoblacionDANE!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PRural</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1173-492D-AAB1-C9939508A352}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1905</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1928</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1938</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1951</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1964</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1973</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2059</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2064</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2069</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>PoblacionDANE!$G$2:$G$23</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1064.4756774642228</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2784.9602050817048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6744.1218996820535</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9764.3421837005299</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11611.158333988686</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18228.452717300635</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29383.946349351099</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29593.64615471274</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>34931.581775792001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>40867.944824306716</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>47433.942793232127</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>54662.381838165515</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>62584.364166476036</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>71232.464585192705</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>80638.689918601885</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>90834.30353223678</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>101852.37479571023</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>113723.74270237586</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1173-492D-AAB1-C9939508A352}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="663400352"/>
-        <c:axId val="663400832"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="663400352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="1900"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>Año</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="663400832"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="663400832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="-1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>Población</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="663400352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.837951387606352E-2"/>
-          <c:y val="9.84273849352469E-2"/>
-          <c:w val="0.11463503425708151"/>
-          <c:h val="0.12624839842771657"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1400">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7843,7 +7929,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{23D4B084-DC95-47A9-A43B-C1238B6B668E}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{86C66609-86C6-4B72-9620-31705379CED0}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0"/>
@@ -7855,10 +7941,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{86C66609-86C6-4B72-9620-31705379CED0}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{23D4B084-DC95-47A9-A43B-C1238B6B668E}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -7913,13 +7999,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>310328</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>320110</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>320111</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>69112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7951,13 +8037,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>104203</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>279638</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>63521</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7998,7 +8084,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E566824-DE6C-25D2-526F-D635EC7FDE1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D4F964-2B94-23E4-A3A2-70F68F0212E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8031,7 +8117,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D4F964-2B94-23E4-A3A2-70F68F0212E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E566824-DE6C-25D2-526F-D635EC7FDE1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8320,7 +8406,7 @@
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
@@ -8332,7 +8418,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.6">
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.6">
@@ -8523,72 +8609,72 @@
       <c r="I13" s="13"/>
     </row>
     <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B15" s="40"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B16" s="41"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B18" s="40"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B19" s="42"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8604,18 +8690,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4862CA-2502-49B9-BDCE-723F6597F78F}">
-  <dimension ref="B2:F21"/>
+  <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="2.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.46484375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.53125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.265625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.86328125" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.9296875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.53125" style="3" bestFit="1" customWidth="1"/>
@@ -8625,201 +8712,212 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B4" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="17">
-        <v>2010</v>
-      </c>
-      <c r="D4" s="17">
-        <v>795.52</v>
-      </c>
-      <c r="E4" s="17">
-        <v>18726.86</v>
-      </c>
-      <c r="F4" s="14">
-        <f>E4+D4</f>
-        <v>19522.38</v>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="17">
-        <v>2013</v>
-      </c>
-      <c r="D5" s="17">
-        <v>935.49</v>
-      </c>
-      <c r="E5" s="17">
-        <v>18586.900000000001</v>
-      </c>
-      <c r="F5" s="14">
-        <f>E5+D5</f>
-        <v>19522.390000000003</v>
+      <c r="B5" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="47">
+        <v>19482.02</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B6" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="19">
-        <v>2020</v>
-      </c>
-      <c r="D6" s="19">
-        <v>1024.53</v>
-      </c>
-      <c r="E6" s="19">
-        <v>18457.490000000002</v>
-      </c>
-      <c r="F6" s="15">
-        <f>E6+D6</f>
-        <v>19482.02</v>
+      <c r="B6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="49">
+        <v>15</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B9" s="3" t="s">
-        <v>19</v>
+      <c r="B9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>18</v>
+      <c r="B10" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2010</v>
+      </c>
+      <c r="D10" s="17">
+        <v>795.52</v>
+      </c>
+      <c r="E10" s="17">
+        <v>18726.86</v>
+      </c>
+      <c r="F10" s="14">
+        <f>E10+D10</f>
+        <v>19522.38</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B11" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="46" cm="1">
-        <f t="array" ref="C11">INDEX(LINEST(D4:D6,C4:C6^{1},TRUE,TRUE),1,1)</f>
-        <v>21.09677215189873</v>
-      </c>
-      <c r="D11" s="47" cm="1">
-        <f t="array" ref="D11">INDEX(LINEST(E4:E6,C4:C6^{1},TRUE,TRUE),1,1)</f>
-        <v>-25.439556962025225</v>
+        <v>28</v>
+      </c>
+      <c r="C11" s="17">
+        <v>2013</v>
+      </c>
+      <c r="D11" s="17">
+        <v>935.49</v>
+      </c>
+      <c r="E11" s="17">
+        <v>18586.900000000001</v>
+      </c>
+      <c r="F11" s="14">
+        <f>E11+D11</f>
+        <v>19522.390000000003</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B12" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="48" cm="1">
-        <f t="array" ref="C12">INDEX(LINEST(D4:D6,C4:C6^{1},TRUE,TRUE),1,2)</f>
-        <v>-41577.418037974669</v>
-      </c>
-      <c r="D12" s="49" cm="1">
-        <f t="array" ref="D12">INDEX(LINEST(E4:E6,C4:C6^{1},TRUE,TRUE),1,2)</f>
-        <v>69834.164240506143</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="19">
+        <v>2020</v>
+      </c>
+      <c r="D12" s="19">
+        <v>1024.53</v>
+      </c>
+      <c r="E12" s="19">
+        <v>18457.490000000002</v>
+      </c>
+      <c r="F12" s="15">
+        <f>E12+D12</f>
+        <v>19482.02</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>27</v>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B16" s="18">
-        <v>1900</v>
-      </c>
-      <c r="C16" s="29">
-        <f>$C$11*B16+$C$12</f>
-        <v>-1493.5509493670834</v>
-      </c>
-      <c r="D16" s="29">
-        <f>E6-C16</f>
-        <v>19951.040949367085</v>
-      </c>
-      <c r="E16" s="30">
-        <f>C16+D16</f>
-        <v>18457.490000000002</v>
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
+      <c r="B17" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="42" cm="1">
+        <f t="array" ref="C17">INDEX(LINEST(D10:D12,C10:C12^{1},TRUE,TRUE),1,1)</f>
+        <v>21.09677215189873</v>
+      </c>
+      <c r="D17" s="43" cm="1">
+        <f t="array" ref="D17">INDEX(LINEST(E10:E12,C10:C12^{1},TRUE,TRUE),1,1)</f>
+        <v>-25.439556962025225</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="43">
-        <v>19482.02</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
+      <c r="B18" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="44" cm="1">
+        <f t="array" ref="C18">INDEX(LINEST(D10:D12,C10:C12^{1},TRUE,TRUE),1,2)</f>
+        <v>-41577.418037974669</v>
+      </c>
+      <c r="D18" s="45" cm="1">
+        <f t="array" ref="D18">INDEX(LINEST(E10:E12,C10:C12^{1},TRUE,TRUE),1,2)</f>
+        <v>69834.164240506143</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
+      <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
+      <c r="B21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B22" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C22" s="29">
+        <f>$C$17*B22+$C$18</f>
+        <v>1038.0617088607687</v>
+      </c>
+      <c r="D22" s="29">
+        <f>D5-C22</f>
+        <v>18443.958291139232</v>
+      </c>
+      <c r="E22" s="30">
+        <f>C22+D22</f>
+        <v>19482.02</v>
+      </c>
+      <c r="F22" s="46"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="F24" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B19:F21"/>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8828,13 +8926,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3DC757-E655-4AB9-91FA-E1AE22FE7E6A}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -8849,12 +8947,11 @@
     <col min="9" max="10" width="11.73046875" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.265625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.19921875" style="1"/>
+    <col min="13" max="13" width="10.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8877,22 +8974,25 @@
         <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -8918,15 +9018,15 @@
         <v>0</v>
       </c>
       <c r="H2" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I2</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I2</f>
         <v>1</v>
       </c>
       <c r="I2" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C2+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C2+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C2+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C2+TipoSuelo!$D$18)</f>
         <v>19481.02</v>
       </c>
       <c r="J2" s="31">
-        <f t="shared" ref="J2:J23" si="2">D2/(H2+I2)</f>
+        <f>D2/(H2+I2)</f>
         <v>0.36484923021329407</v>
       </c>
       <c r="K2" s="31">
@@ -8937,8 +9037,12 @@
         <f>G2/I2</f>
         <v>0</v>
       </c>
+      <c r="M2" s="23">
+        <f>F2*TipoSuelo!$D$6/10000</f>
+        <v>10.662000000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -8964,27 +9068,31 @@
         <v>0</v>
       </c>
       <c r="H3" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I3</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I3</f>
         <v>1</v>
       </c>
       <c r="I3" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C3+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C3+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C3+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C3+TipoSuelo!$D$18)</f>
         <v>19481.02</v>
       </c>
       <c r="J3" s="31">
-        <f t="shared" si="2"/>
+        <f>D3/(H3+I3)</f>
         <v>0.58926127783463933</v>
       </c>
       <c r="K3" s="31">
-        <f t="shared" ref="K3:K23" si="3">F3/H3</f>
+        <f>F3/H3</f>
         <v>11480</v>
       </c>
       <c r="L3" s="31">
-        <f t="shared" ref="L3:L23" si="4">G3/I3</f>
+        <f>G3/I3</f>
         <v>0</v>
       </c>
+      <c r="M3" s="23">
+        <f>F3*TipoSuelo!$D$6/10000</f>
+        <v>17.22</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -9010,27 +9118,31 @@
         <v>0</v>
       </c>
       <c r="H4" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I4</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I4</f>
         <v>1</v>
       </c>
       <c r="I4" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C4+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C4+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C4+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C4+TipoSuelo!$D$18)</f>
         <v>19481.02</v>
       </c>
       <c r="J4" s="31">
-        <f t="shared" si="2"/>
+        <f>D4/(H4+I4)</f>
         <v>0.62996547585927942</v>
       </c>
       <c r="K4" s="31">
-        <f t="shared" si="3"/>
+        <f>F4/H4</f>
         <v>12273</v>
       </c>
       <c r="L4" s="31">
-        <f t="shared" si="4"/>
+        <f>G4/I4</f>
         <v>0</v>
       </c>
+      <c r="M4" s="23">
+        <f>F4*TipoSuelo!$D$6/10000</f>
+        <v>18.409500000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -9056,27 +9168,31 @@
         <v>0</v>
       </c>
       <c r="H5" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I5</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I5</f>
         <v>1</v>
       </c>
       <c r="I5" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C5+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C5+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C5+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C5+TipoSuelo!$D$18)</f>
         <v>19481.02</v>
       </c>
       <c r="J5" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J5:J23" si="2">D5/(H5+I5)</f>
         <v>1.0588224424366672</v>
       </c>
       <c r="K5" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K5:K23" si="3">F5/H5</f>
         <v>20628</v>
       </c>
       <c r="L5" s="31">
-        <f t="shared" si="4"/>
+        <f>G5/I5</f>
         <v>0</v>
       </c>
+      <c r="M5" s="23">
+        <f>F5*TipoSuelo!$D$6/10000</f>
+        <v>30.942</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -9102,11 +9218,11 @@
         <v>1064.4756774642228</v>
       </c>
       <c r="H6" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I6</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I6</f>
         <v>1</v>
       </c>
       <c r="I6" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C6+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C6+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C6+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C6+TipoSuelo!$D$18)</f>
         <v>19481.02</v>
       </c>
       <c r="J6" s="31">
@@ -9118,11 +9234,15 @@
         <v>26710.524322535777</v>
       </c>
       <c r="L6" s="31">
-        <f t="shared" si="4"/>
+        <f>G6/I6</f>
         <v>5.464168084957681E-2</v>
       </c>
+      <c r="M6" s="23">
+        <f>F6*TipoSuelo!$D$6/10000</f>
+        <v>40.065786483803663</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -9148,11 +9268,11 @@
         <v>2784.9602050817048</v>
       </c>
       <c r="H7" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I7</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I7</f>
         <v>1</v>
       </c>
       <c r="I7" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C7+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C7+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C7+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C7+TipoSuelo!$D$18)</f>
         <v>19481.02</v>
       </c>
       <c r="J7" s="31">
@@ -9164,11 +9284,15 @@
         <v>37051.039794918295</v>
       </c>
       <c r="L7" s="31">
-        <f t="shared" si="4"/>
+        <f>G7/I7</f>
         <v>0.14295761746980931</v>
       </c>
+      <c r="M7" s="23">
+        <f>F7*TipoSuelo!$D$6/10000</f>
+        <v>55.576559692377444</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -9194,11 +9318,11 @@
         <v>6744.1218996820535</v>
       </c>
       <c r="H8" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I8</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I8</f>
         <v>145.37632911392939</v>
       </c>
       <c r="I8" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C8+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C8+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C8+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C8+TipoSuelo!$D$18)</f>
         <v>19336.643670886071</v>
       </c>
       <c r="J8" s="31">
@@ -9210,11 +9334,15 @@
         <v>367.72064906401482</v>
       </c>
       <c r="L8" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="L8:L23" si="4">G8/I8</f>
         <v>0.34877417272968836</v>
       </c>
+      <c r="M8" s="23">
+        <f>F8*TipoSuelo!$D$6/10000</f>
+        <v>80.186817150476926</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -9240,11 +9368,11 @@
         <v>9764.3421837005299</v>
       </c>
       <c r="H9" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I9</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I9</f>
         <v>348.89278481013389</v>
       </c>
       <c r="I9" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C9+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C9+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C9+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C9+TipoSuelo!$D$18)</f>
         <v>19133.127215189867</v>
       </c>
       <c r="J9" s="31">
@@ -9259,8 +9387,12 @@
         <f t="shared" si="4"/>
         <v>0.51033697073568718</v>
       </c>
+      <c r="M9" s="23">
+        <f>F9*TipoSuelo!$D$6/10000</f>
+        <v>89.895986724449202</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -9286,11 +9418,11 @@
         <v>11611.158333988686</v>
       </c>
       <c r="H10" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I10</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I10</f>
         <v>399.7718987341832</v>
       </c>
       <c r="I10" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C10+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C10+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C10+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C10+TipoSuelo!$D$18)</f>
         <v>19082.248101265817</v>
       </c>
       <c r="J10" s="31">
@@ -9305,8 +9437,12 @@
         <f t="shared" si="4"/>
         <v>0.60847958125114521</v>
       </c>
+      <c r="M10" s="23">
+        <f>F10*TipoSuelo!$D$6/10000</f>
+        <v>100.96776249901697</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -9332,11 +9468,11 @@
         <v>18228.452717300635</v>
       </c>
       <c r="H11" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I11</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I11</f>
         <v>654.16746835443701</v>
       </c>
       <c r="I11" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C11+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C11+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C11+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C11+TipoSuelo!$D$18)</f>
         <v>18827.852531645563</v>
       </c>
       <c r="J11" s="31">
@@ -9351,8 +9487,12 @@
         <f t="shared" si="4"/>
         <v>0.96816419645642193</v>
       </c>
+      <c r="M11" s="23">
+        <f>F11*TipoSuelo!$D$6/10000</f>
+        <v>122.71432092404906</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -9378,11 +9518,11 @@
         <v>29383.946349351099</v>
       </c>
       <c r="H12" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I12</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I12</f>
         <v>984.88170886076477</v>
       </c>
       <c r="I12" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C12+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C12+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C12+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C12+TipoSuelo!$D$18)</f>
         <v>18497.138291139236</v>
       </c>
       <c r="J12" s="31">
@@ -9397,8 +9537,12 @@
         <f t="shared" si="4"/>
         <v>1.5885671549218519</v>
       </c>
+      <c r="M12" s="23">
+        <f>F12*TipoSuelo!$D$6/10000</f>
+        <v>149.37608047597337</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -9424,11 +9568,11 @@
         <v>29593.64615471274</v>
       </c>
       <c r="H13" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I13</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I13</f>
         <v>1010.3212658227894</v>
       </c>
       <c r="I13" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C13+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C13+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C13+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C13+TipoSuelo!$D$18)</f>
         <v>18471.698734177211</v>
       </c>
       <c r="J13" s="31">
@@ -9443,8 +9587,12 @@
         <f t="shared" si="4"/>
         <v>1.6021074499205195</v>
       </c>
+      <c r="M13" s="23">
+        <f>F13*TipoSuelo!$D$6/10000</f>
+        <v>147.48653076793087</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -9470,11 +9618,11 @@
         <v>34931.581775792001</v>
       </c>
       <c r="H14" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I14</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I14</f>
         <v>1137.5190506329127</v>
       </c>
       <c r="I14" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C14+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C14+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C14+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C14+TipoSuelo!$D$18)</f>
         <v>18344.500949367088</v>
       </c>
       <c r="J14" s="31">
@@ -9489,8 +9637,12 @@
         <f t="shared" si="4"/>
         <v>1.9041990769989954</v>
       </c>
+      <c r="M14" s="23">
+        <f>F14*TipoSuelo!$D$6/10000</f>
+        <v>158.121627336312</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -9516,11 +9668,11 @@
         <v>40867.944824306716</v>
       </c>
       <c r="H15" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I15</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I15</f>
         <v>1264.7168354430432</v>
       </c>
       <c r="I15" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C15+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C15+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C15+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C15+TipoSuelo!$D$18)</f>
         <v>18217.303164556957</v>
       </c>
       <c r="J15" s="31">
@@ -9535,8 +9687,12 @@
         <f t="shared" si="4"/>
         <v>2.2433586604530014</v>
       </c>
+      <c r="M15" s="23">
+        <f>F15*TipoSuelo!$D$6/10000</f>
+        <v>168.77258276353993</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -9562,11 +9718,11 @@
         <v>47433.942793232127</v>
       </c>
       <c r="H16" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I16</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I16</f>
         <v>1391.9146202531665</v>
       </c>
       <c r="I16" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C16+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C16+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C16+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C16+TipoSuelo!$D$18)</f>
         <v>18090.105379746834</v>
       </c>
       <c r="J16" s="31">
@@ -9581,8 +9737,12 @@
         <f t="shared" si="4"/>
         <v>2.6220932270708506</v>
       </c>
+      <c r="M16" s="23">
+        <f>F16*TipoSuelo!$D$6/10000</f>
+        <v>179.38808581015181</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -9608,11 +9768,11 @@
         <v>54662.381838165515</v>
       </c>
       <c r="H17" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I17</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I17</f>
         <v>1519.1124050632898</v>
       </c>
       <c r="I17" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C17+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C17+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C17+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C17+TipoSuelo!$D$18)</f>
         <v>17962.907594936711</v>
       </c>
       <c r="J17" s="31">
@@ -9627,8 +9787,12 @@
         <f t="shared" si="4"/>
         <v>3.0430698120149247</v>
       </c>
+      <c r="M17" s="23">
+        <f>F17*TipoSuelo!$D$6/10000</f>
+        <v>189.92342724275173</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -9654,11 +9818,11 @@
         <v>62584.364166476036</v>
       </c>
       <c r="H18" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I18</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I18</f>
         <v>1646.3101898734203</v>
       </c>
       <c r="I18" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C18+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C18+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C18+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C18+TipoSuelo!$D$18)</f>
         <v>17835.70981012658</v>
       </c>
       <c r="J18" s="31">
@@ -9673,8 +9837,12 @@
         <f t="shared" si="4"/>
         <v>3.5089359959726703</v>
       </c>
+      <c r="M18" s="23">
+        <f>F18*TipoSuelo!$D$6/10000</f>
+        <v>200.32745375028594</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -9700,11 +9868,11 @@
         <v>71232.464585192705</v>
       </c>
       <c r="H19" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I19</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I19</f>
         <v>1773.5079746835436</v>
       </c>
       <c r="I19" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C19+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C19+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C19+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C19+TipoSuelo!$D$18)</f>
         <v>17708.512025316457</v>
       </c>
       <c r="J19" s="31">
@@ -9719,8 +9887,12 @@
         <f t="shared" si="4"/>
         <v>4.0224985861803235</v>
       </c>
+      <c r="M19" s="23">
+        <f>F19*TipoSuelo!$D$6/10000</f>
+        <v>210.55430312221091</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -9746,11 +9918,11 @@
         <v>80638.689918601885</v>
       </c>
       <c r="H20" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I20</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I20</f>
         <v>1900.7057594936668</v>
       </c>
       <c r="I20" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C20+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C20+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C20+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C20+TipoSuelo!$D$18)</f>
         <v>17581.314240506334</v>
       </c>
       <c r="J20" s="31">
@@ -9765,8 +9937,12 @@
         <f t="shared" si="4"/>
         <v>4.5866133108988514</v>
       </c>
+      <c r="M20" s="23">
+        <f>F20*TipoSuelo!$D$6/10000</f>
+        <v>220.55596512209718</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -9792,11 +9968,11 @@
         <v>90834.30353223678</v>
       </c>
       <c r="H21" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I21</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I21</f>
         <v>2027.9035443037974</v>
       </c>
       <c r="I21" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C21+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C21+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C21+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C21+TipoSuelo!$D$18)</f>
         <v>17454.116455696203</v>
       </c>
       <c r="J21" s="31">
@@ -9811,8 +9987,12 @@
         <f t="shared" si="4"/>
         <v>5.2041765484263589</v>
       </c>
+      <c r="M21" s="23">
+        <f>F21*TipoSuelo!$D$6/10000</f>
+        <v>230.28254470164484</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -9838,11 +10018,11 @@
         <v>101852.37479571023</v>
       </c>
       <c r="H22" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I22</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I22</f>
         <v>2155.1013291139207</v>
       </c>
       <c r="I22" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C22+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C22+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C22+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C22+TipoSuelo!$D$18)</f>
         <v>17326.91867088608</v>
       </c>
       <c r="J22" s="31">
@@ -9857,8 +10037,12 @@
         <f t="shared" si="4"/>
         <v>5.8782739580148107</v>
       </c>
+      <c r="M22" s="23">
+        <f>F22*TipoSuelo!$D$6/10000</f>
+        <v>239.68893780643464</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -9884,11 +10068,11 @@
         <v>113723.74270237586</v>
       </c>
       <c r="H23" s="31">
-        <f>TipoSuelo!$C$18-PoblacionDANE!I23</f>
+        <f>TipoSuelo!$D$5-PoblacionDANE!I23</f>
         <v>2282.2991139240512</v>
       </c>
       <c r="I23" s="31">
-        <f>IF(TipoSuelo!$D$11*PoblacionDANE!C23+TipoSuelo!$D$12&gt;TipoSuelo!$C$18,TipoSuelo!$C$18-1,TipoSuelo!$D$11*PoblacionDANE!C23+TipoSuelo!$D$12)</f>
+        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C23+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C23+TipoSuelo!$D$18)</f>
         <v>17199.720886075949</v>
       </c>
       <c r="J23" s="31">
@@ -9902,6 +10086,10 @@
       <c r="L23" s="31">
         <f t="shared" si="4"/>
         <v>6.6119528017713955</v>
+      </c>
+      <c r="M23" s="23">
+        <f>F23*TipoSuelo!$D$6/10000</f>
+        <v>248.72438594643623</v>
       </c>
     </row>
   </sheetData>

--- a/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
+++ b/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\PopulationGIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF77E6EA-82B0-463A-90D0-755AA36189C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBADFF1-DD90-475E-ABFD-057AF8EB3E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="769" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="769" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PoblacionSISBEN" sheetId="10" r:id="rId1"/>
-    <sheet name="TipoSuelo" sheetId="11" r:id="rId2"/>
-    <sheet name="PoblacionDANE" sheetId="6" r:id="rId3"/>
-    <sheet name="PoblacionGISChart" sheetId="9" r:id="rId4"/>
-    <sheet name="DensidadGISChart" sheetId="12" r:id="rId5"/>
+    <sheet name="TipoSueloEPE" sheetId="11" r:id="rId2"/>
+    <sheet name="AguaPotSanBas" sheetId="14" r:id="rId3"/>
+    <sheet name="PoblacionDANE" sheetId="6" r:id="rId4"/>
+    <sheet name="QAcueductoChart" sheetId="15" r:id="rId5"/>
+    <sheet name="QAlcantarilladoChart" sheetId="16" r:id="rId6"/>
+    <sheet name="PoblacionGISChart" sheetId="9" r:id="rId7"/>
+    <sheet name="DensidadGISChart" sheetId="12" r:id="rId8"/>
+    <sheet name="EPE" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,6 +44,68 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{F667EC18-137D-4D81-8F54-C6AC412ABDAA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>&lt;= 2500</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{E5644440-8FAE-49E7-A4CC-8945D96AA48A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2501 a 12500</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{66814579-A583-4B1D-AC3D-80C4F13B8966}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>12501 a 60000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{989B4C59-47B0-4DF4-9499-C3F7E4571A18}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>&gt; 60000</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
@@ -163,12 +229,90 @@
         </r>
       </text>
     </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{46767F03-0BB1-43B9-B66D-A9FB380A4F1F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Caudal total requerido acueducto lps - día</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{91FBA825-8321-4C16-BA53-BD03C5EB30EE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Caudal urbano requerido acueducto lps - día</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{DE5723A9-8645-48C5-A8C8-B1859F5ECEC9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Caudal rural requerido acueducto lps - día</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{7AC6D96D-B4D2-4AD2-97A8-3ACFD250E9AE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Caudal total sanitario residencial en lps - día</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{4A5B18AA-D2A8-4139-AB75-B9D6581DC6A6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Caudal urbano sanitario residencial en lps - día</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{B6D4EC77-19BF-42EB-AE28-96E9A12A68FD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Caudal rural sanitario residencial en lps - día</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -190,7 +334,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
   <si>
     <t>Fuente</t>
   </si>
@@ -344,6 +488,125 @@
   <si>
     <t>Análisis de densidad, espacio público efectivo y demanda de servicios públicos</t>
   </si>
+  <si>
+    <t>Análisis de demanda de agua potable y caudal servido</t>
+  </si>
+  <si>
+    <t>Nivel de complejidad</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Nivel de complejidad del sistema</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Clima cálido</t>
+  </si>
+  <si>
+    <t>Capacidad económica de los usuarios</t>
+  </si>
+  <si>
+    <t>Clima templado o frío</t>
+  </si>
+  <si>
+    <t>Asignación del nivel de complejidad - Título A RAS</t>
+  </si>
+  <si>
+    <t>Clima</t>
+  </si>
+  <si>
+    <t>Nivel de complejidad por población</t>
+  </si>
+  <si>
+    <t>Población en la zona urbana (habitantes &lt;=)</t>
+  </si>
+  <si>
+    <t>Nivel de complejidad por capacidad económica</t>
+  </si>
+  <si>
+    <t>Población total actual</t>
+  </si>
+  <si>
+    <t>Mayor nivel a aplicar</t>
+  </si>
+  <si>
+    <t>Dotación neta aplicable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notas:
+Población proyectada al periodo de diseño, incluida la población flotante.
+Incluye la capacidad económica de población flotante. Debe ser evaluada  según metodología del DNP.
+El nivel de complejidad del sistema adoptado debe ser el que resulte mayor entre la clasificación obtenida por la población urbana y la capacidad económica. La clasificación anterior solamente puede ser superada si se demuestra que el grado de exigencia técnica es alto y cumple con el requisito 3 del literal A.3.3. </t>
+  </si>
+  <si>
+    <t>habitantes</t>
+  </si>
+  <si>
+    <t>m.s.n.m</t>
+  </si>
+  <si>
+    <t>Cota media casco urbano</t>
+  </si>
+  <si>
+    <t>Dotación aplicable a proyecto</t>
+  </si>
+  <si>
+    <t>Medio Alto</t>
+  </si>
+  <si>
+    <t>Notas:
+Se considera como clima cálido aquella zona del territorio nacional que se encuentre por debajo de 1000 m.s.n.m.
+Para niveles de complejidad Medio Alto y Alto, el coeficiente de retorno uede ser definido por la persona prestadora del servicio público de alcantarillado</t>
+  </si>
+  <si>
+    <t>Coeficiente de retorno</t>
+  </si>
+  <si>
+    <t>Coeficiente de retorno a alcantarillado</t>
+  </si>
+  <si>
+    <t>Adim.</t>
+  </si>
+  <si>
+    <t>L/hab/día</t>
+  </si>
+  <si>
+    <t>Dotación neta por habitante y clima - Título B RAS (L/hab/día) y coeficientes de retorno aguas residuales domésticas - QD - Título D RAS</t>
+  </si>
+  <si>
+    <t>QAcuUrb</t>
+  </si>
+  <si>
+    <t>QAcuTotal</t>
+  </si>
+  <si>
+    <t>QAcuRur</t>
+  </si>
+  <si>
+    <t>QAlcTotal</t>
+  </si>
+  <si>
+    <t>QAlcUrb</t>
+  </si>
+  <si>
+    <t>QAlcRur</t>
+  </si>
 </sst>
 </file>
 
@@ -352,7 +615,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +653,18 @@
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -405,7 +680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -650,12 +925,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -802,6 +1157,120 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1687,7 +2156,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>TipoSuelo!$E$9</c:f>
+              <c:f>TipoSueloEPE!$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1769,7 +2238,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>TipoSuelo!$C$10:$C$12</c:f>
+              <c:f>TipoSueloEPE!$C$10:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1787,7 +2256,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>TipoSuelo!$E$10:$E$12</c:f>
+              <c:f>TipoSueloEPE!$E$10:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2234,7 +2703,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>TipoSuelo!$D$9</c:f>
+              <c:f>TipoSueloEPE!$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2316,7 +2785,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>TipoSuelo!$C$10:$C$12</c:f>
+              <c:f>TipoSueloEPE!$C$10:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2334,7 +2803,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>TipoSuelo!$D$10:$D$12</c:f>
+              <c:f>TipoSueloEPE!$D$10:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2705,6 +3174,3039 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Dotación neta agua potable</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="1300"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28026000538658064"/>
+          <c:y val="3.5978343165269447E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14583044989170726"/>
+          <c:y val="0.21101035721021172"/>
+          <c:w val="0.81397546487313466"/>
+          <c:h val="0.59672172880791186"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AguaPotSanBas!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clima templado o frío</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>AguaPotSanBas!$C$31:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9EC8-4EDF-9735-15F5E627D245}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AguaPotSanBas!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clima cálido</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>AguaPotSanBas!$B$31:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Bajo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medio</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Medio Alto</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Alto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AguaPotSanBas!$D$31:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9EC8-4EDF-9735-15F5E627D245}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="912975983"/>
+        <c:axId val="912962543"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="912975983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Nivel de complejidad</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="912962543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="912962543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Dotación neta (L/hab~día)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="912975983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5936984487395781E-2"/>
+          <c:y val="9.0386549317574394E-2"/>
+          <c:w val="0.89527449117386315"/>
+          <c:h val="6.6688733310496934E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Caudal de demanda acueducto</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4059800734530107E-2"/>
+          <c:y val="7.5395530104191519E-2"/>
+          <c:w val="0.8853851140454414"/>
+          <c:h val="0.83757935109742632"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PoblacionDANE!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QAcuTotal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9259122208649487E-2"/>
+                  <c:y val="-4.7636363636363636E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6DBE-4319-8E4C-451C617EF0D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0185982249850683E-2"/>
+                  <c:y val="-7.3444364908931845E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6DBE-4319-8E4C-451C617EF0D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$N$2:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>11.517592592592592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.601851851851851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.886805555555554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.424999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.005787037037038</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.54907407407407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.549537037037041</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112.93171296296296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127.88449074074074</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162.0986111111111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>208.97592592592594</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>207.27453703703705</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>227.41249999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>248.53726851851852</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>270.64398148148149</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>293.73750000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>317.81296296296296</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>342.87361111111113</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>368.91944444444442</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>395.94722222222219</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>423.96180555555554</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>452.95833333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6DBE-4319-8E4C-451C617EF0D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PoblacionDANE!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QAcuUrb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-6DBE-4319-8E4C-451C617EF0D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$O$2:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>11.517592592592592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.601851851851851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.886805555555554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.424999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.28094218929408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.036407075099092</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.621561736626305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.109862202337112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>109.07011381066648</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>132.56176643029988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161.3630498968848</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>159.32186965671548</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>170.81039990033705</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>182.31606162728079</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>193.78342602948499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>205.16419609556513</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>216.40311361913604</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>227.4506360888081</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>238.25490059485804</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>248.76200816535706</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>258.92323528472878</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>268.68375025077984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6DBE-4319-8E4C-451C617EF0D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PoblacionDANE!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QAcuRur</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-6DBE-4319-8E4C-451C617EF0D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$P$2:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7248448477429537</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5126669989749848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.927975300410736</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.821850760625859</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.81437693007426</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.536844680811214</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.612876029041132</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.952667380321571</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.60210009966297</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.221206891237728</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76.860555451996504</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>88.573303904434866</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>101.40984934382691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115.42297502230299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>130.66454384958638</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>147.18521405686514</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>165.03857027082677</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>184.27458308255348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6DBE-4319-8E4C-451C617EF0D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="663400352"/>
+        <c:axId val="663400832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="663400352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1900"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Año</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663400832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="663400832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Caudal de demanda (lps-d)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663400352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.837951387606352E-2"/>
+          <c:y val="9.84273849352469E-2"/>
+          <c:w val="0.11463503425708151"/>
+          <c:h val="0.12624839842771657"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Caudal doméstico</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>retornado a alcantarillado</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3021474307430135E-2"/>
+          <c:y val="7.5395530104191519E-2"/>
+          <c:w val="0.8853851140454414"/>
+          <c:h val="0.83757935109742632"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PoblacionDANE!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QAlcTotal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$Q$2:$Q$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>9.7899537037037039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.811574074074073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.90378472222222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.411249999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.254918981481481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.866712962962957</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.917106481481483</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.991956018518522</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108.70181712962963</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>137.78381944444442</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>177.62953703703704</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176.1833564814815</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>193.300625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>211.25667824074074</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>230.04738425925925</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>249.676875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>270.14101851851848</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>291.44256944444447</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>313.58152777777775</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>336.55513888888885</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>360.36753472222222</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>385.01458333333329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AF41-4827-AEA4-D9AD4EC36778}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PoblacionDANE!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QAlcUrb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-AF41-4827-AEA4-D9AD4EC36778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$R$2:$R$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>9.7899537037037039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.811574074074073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.90378472222222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.411249999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.788800860899968</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.030946013834225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.628327476132355</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.543382871986537</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.709596739066512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>112.6775014657549</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>137.15859241235208</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135.42358920820814</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>145.18883991528648</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>154.96865238318867</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>164.71591212506223</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>174.38956668123035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>183.94264657626562</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>193.33304067548687</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>202.51666550562933</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>211.4477069405535</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>220.08474999201945</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>228.38118771316286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AF41-4827-AEA4-D9AD4EC36778}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PoblacionDANE!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QAlcRur</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-AF41-4827-AEA4-D9AD4EC36778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$S$2:$S$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4661181205815106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8357669491287369</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2887790053491255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.448573146531979</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.992220390563121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.106317978689532</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.470944624684961</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.759767273273333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.111785084713524</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.288025857552064</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65.331472134197028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75.287308318769632</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86.198371942252862</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>98.109528768957546</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>111.06486227214842</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>125.10743194833536</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140.28278473020274</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>156.63339562017046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AF41-4827-AEA4-D9AD4EC36778}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="663400352"/>
+        <c:axId val="663400832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="663400352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1900"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Año</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663400832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="663400832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Caudal de retorno (lps-d)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663400352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.837951387606352E-2"/>
+          <c:y val="9.84273849352469E-2"/>
+          <c:w val="0.11463503425708151"/>
+          <c:h val="0.12624839842771657"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
@@ -3914,7 +7416,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4018,7 +7520,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4037,80 +7541,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.07665285419992E-3"/>
-                  <c:y val="-4.0404040404040553E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-3D9E-48C4-B4F4-7810C1F45191}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>PoblacionDANE!$C$2:$C$23</c:f>
@@ -4189,76 +7619,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>PoblacionDANE!$J$2:$J$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>0.36484923021329407</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.58926127783463933</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.62996547585927942</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0588224424366672</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4256735184544518</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0447571658380395</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.0901313108188986</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5774011113837272</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.051068626353941</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.134888476656938</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.6198474285520703</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.5659515799696333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.2038731096672723</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.8730542315427252</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.5733409574571837</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.3048872755494543</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.067539197680732</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.861399382610221</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11.686467830337921</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.542641882104627</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.430075526049146</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14.348614774032672</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -4285,7 +7645,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4305,50 +7665,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.3602076195009477E-3"/>
-                  <c:y val="-5.4252445717012647E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-7CC4-4F49-9B7B-1EB09C5315F8}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.4203389015700068E-2"/>
-                  <c:y val="-5.3818181818181966E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-7CC4-4F49-9B7B-1EB09C5315F8}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4481,76 +7797,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>PoblacionDANE!$K$2:$K$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>7108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11480</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12273</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20628</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26710.524322535777</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37051.039794918295</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>367.72064906401482</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>171.77385267199924</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>168.37562089567578</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>125.05902729845596</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>101.11270496214216</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>97.319889396976592</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>92.670463994036567</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>88.964621979020393</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>85.919104136585645</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>83.348419603327102</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>81.121793848455937</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>79.14795840704025</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>77.359322634223886</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>75.704634423561302</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>74.146223681273128</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>72.653166399617703</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -4577,7 +7823,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4596,80 +7842,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.11497928129988E-3"/>
-                  <c:y val="-8.0808080808080808E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-7CC4-4F49-9B7B-1EB09C5315F8}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>PoblacionDANE!$C$2:$C$23</c:f>
@@ -4748,76 +7920,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>PoblacionDANE!$L$2:$L$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.464168084957681E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.14295761746980931</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.34877417272968836</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.51033697073568718</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.60847958125114521</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.96816419645642193</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5885671549218519</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6021074499205195</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.9041990769989954</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.2433586604530014</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.6220932270708506</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.0430698120149247</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.5089359959726703</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.0224985861803235</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.5866133108988514</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.2041765484263589</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.8782739580148107</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.6119528017713955</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -5148,6 +8250,587 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Espacio público efectivo urbano requerido - EPE (totalizado en hectáreas)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2159452437332299"/>
+          <c:y val="8.0914658394973353E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.094480305121253E-2"/>
+          <c:y val="8.7516772934320683E-2"/>
+          <c:w val="0.88538511457614932"/>
+          <c:h val="0.82141780004772114"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PoblacionDANE!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EPEUrbHa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PoblacionDANE!$M$2:$M$23</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E693-41C4-B0D5-DD24EDA73E97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="663400352"/>
+        <c:axId val="663400832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="663400352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1900"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Año</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663400832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="663400832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>EPE (ha)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663400352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0456136799425046E-2"/>
+          <c:y val="0.10246782788515074"/>
+          <c:w val="0.11463503425708151"/>
+          <c:h val="6.9682812375725767E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5348,6 +9031,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7928,7 +11771,2095 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D3C34F58-EC69-446D-8C74-8B451E48F1D1}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{93EF23B9-6F85-4143-B520-5EBEEB4B2B11}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{86C66609-86C6-4B72-9620-31705379CED0}">
   <sheetPr/>
   <sheetViews>
@@ -7940,8 +13871,20 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{23D4B084-DC95-47A9-A43B-C1238B6B668E}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6F744064-020E-4D14-8C3A-FD755ABAE664}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8076,6 +14019,115 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>577348</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>555970</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>191900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB811588-6B15-4811-9AAE-41C4A60AB91F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="12231221" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E21B7C2D-2058-42F5-454B-1897C0A15329}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="12231221" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636FBB54-3626-9F77-A02B-AAD46DC53188}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="12231221" cy="6286500"/>
@@ -8107,7 +14159,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8118,6 +14170,39 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E566824-DE6C-25D2-526F-D635EC7FDE1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="12231221" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD54833-D7EB-044D-B5AE-25A3F0B061A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8692,8 +14777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4862CA-2502-49B9-BDCE-723F6597F78F}">
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
@@ -8925,14 +15010,423 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D51D26C-E6F7-461B-8618-6301F37C70DF}">
+  <dimension ref="B2:F37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.265625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="22.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="55">
+        <v>128968</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="62"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="D7" s="61">
+        <v>2600</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="73" t="str">
+        <f>IF(D7&lt;=1000,D30,C30)</f>
+        <v>Clima templado o frío</v>
+      </c>
+      <c r="E8" s="62"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="73" t="str">
+        <f>IF(D5&lt;=D17,C17,IF(D5&lt;=D18,C18,IF(D5&lt;=D19,C19,C20)))</f>
+        <v>Alto</v>
+      </c>
+      <c r="E9" s="62">
+        <f>INDEX($B$17:$B$20,MATCH(D9,$C$17:$C$20,0))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="73" t="str">
+        <f>IF(AND(D6=E17,D5&lt;=D17),C17,IF(AND(D6=E18,D5&lt;=D18),C18,IF(D6=E19,C19,IF(D6=E20,C20,C17))))</f>
+        <v>Bajo</v>
+      </c>
+      <c r="E10" s="62">
+        <f>INDEX($B$17:$B$20,MATCH(D10,$C$17:$C$20,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="74" t="str">
+        <f>VLOOKUP(E11,B17:C20,2)</f>
+        <v>Alto</v>
+      </c>
+      <c r="E11" s="62">
+        <f>MAX(E9:E10)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="74">
+        <f>VLOOKUP(D11,B31:E34,4, FALSE)</f>
+        <v>140</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="92"/>
+      <c r="D13" s="75">
+        <f>VLOOKUP(D11,B31:F34,5, FALSE)</f>
+        <v>0.85</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B16" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="72"/>
+      <c r="D16" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="60">
+        <v>1</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="70">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" s="60">
+        <v>2</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="70">
+        <v>12500</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" s="60">
+        <v>3</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="70">
+        <v>60000</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="63">
+        <v>4</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="82">
+        <v>99999999</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="78"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="78"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="76"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="78"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" s="76"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="78"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" s="76"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="78"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" s="79"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="81"/>
+    </row>
+    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+    </row>
+    <row r="30" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="B30" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="70">
+        <v>90</v>
+      </c>
+      <c r="D31" s="70">
+        <v>100</v>
+      </c>
+      <c r="E31" s="70">
+        <f>IF($D$8=$C$30,C31,D31)</f>
+        <v>90</v>
+      </c>
+      <c r="F31" s="56">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="70">
+        <v>115</v>
+      </c>
+      <c r="D32" s="70">
+        <v>125</v>
+      </c>
+      <c r="E32" s="70">
+        <f>IF($D$8=$C$30,C32,D32)</f>
+        <v>115</v>
+      </c>
+      <c r="F32" s="56">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B33" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="70">
+        <v>125</v>
+      </c>
+      <c r="D33" s="70">
+        <v>135</v>
+      </c>
+      <c r="E33" s="70">
+        <f>IF($D$8=$C$30,C33,D33)</f>
+        <v>125</v>
+      </c>
+      <c r="F33" s="56">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="82">
+        <v>140</v>
+      </c>
+      <c r="D34" s="82">
+        <v>150</v>
+      </c>
+      <c r="E34" s="82">
+        <f>IF($D$8=$C$30,C34,D34)</f>
+        <v>140</v>
+      </c>
+      <c r="F34" s="57">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="90"/>
+    </row>
+    <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="76"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="78"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B37" s="79"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B35:F37"/>
+    <mergeCell ref="B28:F29"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B21:E26"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:C16"/>
+  </mergeCells>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{C41A9AF3-437A-43C2-81E5-D5F8976E3D1D}">
+      <formula1>$E$18:$E$20</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3DC757-E655-4AB9-91FA-E1AE22FE7E6A}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -8942,16 +15436,17 @@
     <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
     <col min="4" max="5" width="10.73046875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.73046875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.19921875" style="1"/>
+    <col min="7" max="7" width="11.73046875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="11.73046875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.265625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="31" customWidth="1"/>
+    <col min="15" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8991,8 +15486,26 @@
       <c r="M1" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -9018,11 +15531,11 @@
         <v>0</v>
       </c>
       <c r="H2" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I2</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I2</f>
         <v>1</v>
       </c>
       <c r="I2" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C2+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C2+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C2+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C2+TipoSueloEPE!$D$18)</f>
         <v>19481.02</v>
       </c>
       <c r="J2" s="31">
@@ -9038,11 +15551,35 @@
         <v>0</v>
       </c>
       <c r="M2" s="23">
-        <f>F2*TipoSuelo!$D$6/10000</f>
+        <f>F2*TipoSueloEPE!$D$6/10000</f>
         <v>10.662000000000001</v>
       </c>
+      <c r="N2" s="31">
+        <f>D2*(AguaPotSanBas!$D$12)/86400</f>
+        <v>11.517592592592592</v>
+      </c>
+      <c r="O2" s="31">
+        <f>F2*(AguaPotSanBas!$D$12)/86400</f>
+        <v>11.517592592592592</v>
+      </c>
+      <c r="P2" s="31">
+        <f>G2*(AguaPotSanBas!$D$12)/86400</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="31">
+        <f>N2*AguaPotSanBas!$D$13</f>
+        <v>9.7899537037037039</v>
+      </c>
+      <c r="R2" s="31">
+        <f>O2*AguaPotSanBas!$D$13</f>
+        <v>9.7899537037037039</v>
+      </c>
+      <c r="S2" s="31">
+        <f>P2*AguaPotSanBas!$D$13</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -9068,11 +15605,11 @@
         <v>0</v>
       </c>
       <c r="H3" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I3</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I3</f>
         <v>1</v>
       </c>
       <c r="I3" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C3+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C3+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C3+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C3+TipoSueloEPE!$D$18)</f>
         <v>19481.02</v>
       </c>
       <c r="J3" s="31">
@@ -9088,11 +15625,35 @@
         <v>0</v>
       </c>
       <c r="M3" s="23">
-        <f>F3*TipoSuelo!$D$6/10000</f>
+        <f>F3*TipoSueloEPE!$D$6/10000</f>
         <v>17.22</v>
       </c>
+      <c r="N3" s="31">
+        <f>D3*(AguaPotSanBas!$D$12)/86400</f>
+        <v>18.601851851851851</v>
+      </c>
+      <c r="O3" s="31">
+        <f>F3*(AguaPotSanBas!$D$12)/86400</f>
+        <v>18.601851851851851</v>
+      </c>
+      <c r="P3" s="31">
+        <f>G3*(AguaPotSanBas!$D$12)/86400</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="31">
+        <f>N3*AguaPotSanBas!$D$13</f>
+        <v>15.811574074074073</v>
+      </c>
+      <c r="R3" s="31">
+        <f>O3*AguaPotSanBas!$D$13</f>
+        <v>15.811574074074073</v>
+      </c>
+      <c r="S3" s="31">
+        <f>P3*AguaPotSanBas!$D$13</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -9118,11 +15679,11 @@
         <v>0</v>
       </c>
       <c r="H4" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I4</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I4</f>
         <v>1</v>
       </c>
       <c r="I4" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C4+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C4+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C4+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C4+TipoSueloEPE!$D$18)</f>
         <v>19481.02</v>
       </c>
       <c r="J4" s="31">
@@ -9138,11 +15699,35 @@
         <v>0</v>
       </c>
       <c r="M4" s="23">
-        <f>F4*TipoSuelo!$D$6/10000</f>
+        <f>F4*TipoSueloEPE!$D$6/10000</f>
         <v>18.409500000000001</v>
       </c>
+      <c r="N4" s="31">
+        <f>D4*(AguaPotSanBas!$D$12)/86400</f>
+        <v>19.886805555555554</v>
+      </c>
+      <c r="O4" s="31">
+        <f>F4*(AguaPotSanBas!$D$12)/86400</f>
+        <v>19.886805555555554</v>
+      </c>
+      <c r="P4" s="31">
+        <f>G4*(AguaPotSanBas!$D$12)/86400</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="31">
+        <f>N4*AguaPotSanBas!$D$13</f>
+        <v>16.90378472222222</v>
+      </c>
+      <c r="R4" s="31">
+        <f>O4*AguaPotSanBas!$D$13</f>
+        <v>16.90378472222222</v>
+      </c>
+      <c r="S4" s="31">
+        <f>P4*AguaPotSanBas!$D$13</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -9168,11 +15753,11 @@
         <v>0</v>
       </c>
       <c r="H5" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I5</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I5</f>
         <v>1</v>
       </c>
       <c r="I5" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C5+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C5+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C5+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C5+TipoSueloEPE!$D$18)</f>
         <v>19481.02</v>
       </c>
       <c r="J5" s="31">
@@ -9188,11 +15773,35 @@
         <v>0</v>
       </c>
       <c r="M5" s="23">
-        <f>F5*TipoSuelo!$D$6/10000</f>
+        <f>F5*TipoSueloEPE!$D$6/10000</f>
         <v>30.942</v>
       </c>
+      <c r="N5" s="31">
+        <f>D5*(AguaPotSanBas!$D$12)/86400</f>
+        <v>33.424999999999997</v>
+      </c>
+      <c r="O5" s="31">
+        <f>F5*(AguaPotSanBas!$D$12)/86400</f>
+        <v>33.424999999999997</v>
+      </c>
+      <c r="P5" s="31">
+        <f>G5*(AguaPotSanBas!$D$12)/86400</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="31">
+        <f>N5*AguaPotSanBas!$D$13</f>
+        <v>28.411249999999995</v>
+      </c>
+      <c r="R5" s="31">
+        <f>O5*AguaPotSanBas!$D$13</f>
+        <v>28.411249999999995</v>
+      </c>
+      <c r="S5" s="31">
+        <f>P5*AguaPotSanBas!$D$13</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -9218,11 +15827,11 @@
         <v>1064.4756774642228</v>
       </c>
       <c r="H6" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I6</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I6</f>
         <v>1</v>
       </c>
       <c r="I6" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C6+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C6+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C6+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C6+TipoSueloEPE!$D$18)</f>
         <v>19481.02</v>
       </c>
       <c r="J6" s="31">
@@ -9238,11 +15847,35 @@
         <v>5.464168084957681E-2</v>
       </c>
       <c r="M6" s="23">
-        <f>F6*TipoSuelo!$D$6/10000</f>
+        <f>F6*TipoSueloEPE!$D$6/10000</f>
         <v>40.065786483803663</v>
       </c>
+      <c r="N6" s="31">
+        <f>D6*(AguaPotSanBas!$D$12)/86400</f>
+        <v>45.005787037037038</v>
+      </c>
+      <c r="O6" s="31">
+        <f>F6*(AguaPotSanBas!$D$12)/86400</f>
+        <v>43.28094218929408</v>
+      </c>
+      <c r="P6" s="31">
+        <f>G6*(AguaPotSanBas!$D$12)/86400</f>
+        <v>1.7248448477429537</v>
+      </c>
+      <c r="Q6" s="31">
+        <f>N6*AguaPotSanBas!$D$13</f>
+        <v>38.254918981481481</v>
+      </c>
+      <c r="R6" s="31">
+        <f>O6*AguaPotSanBas!$D$13</f>
+        <v>36.788800860899968</v>
+      </c>
+      <c r="S6" s="31">
+        <f>P6*AguaPotSanBas!$D$13</f>
+        <v>1.4661181205815106</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -9268,11 +15901,11 @@
         <v>2784.9602050817048</v>
       </c>
       <c r="H7" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I7</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I7</f>
         <v>1</v>
       </c>
       <c r="I7" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C7+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C7+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C7+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C7+TipoSueloEPE!$D$18)</f>
         <v>19481.02</v>
       </c>
       <c r="J7" s="31">
@@ -9288,11 +15921,35 @@
         <v>0.14295761746980931</v>
       </c>
       <c r="M7" s="23">
-        <f>F7*TipoSuelo!$D$6/10000</f>
+        <f>F7*TipoSueloEPE!$D$6/10000</f>
         <v>55.576559692377444</v>
       </c>
+      <c r="N7" s="31">
+        <f>D7*(AguaPotSanBas!$D$12)/86400</f>
+        <v>64.54907407407407</v>
+      </c>
+      <c r="O7" s="31">
+        <f>F7*(AguaPotSanBas!$D$12)/86400</f>
+        <v>60.036407075099092</v>
+      </c>
+      <c r="P7" s="31">
+        <f>G7*(AguaPotSanBas!$D$12)/86400</f>
+        <v>4.5126669989749848</v>
+      </c>
+      <c r="Q7" s="31">
+        <f>N7*AguaPotSanBas!$D$13</f>
+        <v>54.866712962962957</v>
+      </c>
+      <c r="R7" s="31">
+        <f>O7*AguaPotSanBas!$D$13</f>
+        <v>51.030946013834225</v>
+      </c>
+      <c r="S7" s="31">
+        <f>P7*AguaPotSanBas!$D$13</f>
+        <v>3.8357669491287369</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -9318,11 +15975,11 @@
         <v>6744.1218996820535</v>
       </c>
       <c r="H8" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I8</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I8</f>
         <v>145.37632911392939</v>
       </c>
       <c r="I8" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C8+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C8+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C8+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C8+TipoSueloEPE!$D$18)</f>
         <v>19336.643670886071</v>
       </c>
       <c r="J8" s="31">
@@ -9338,11 +15995,35 @@
         <v>0.34877417272968836</v>
       </c>
       <c r="M8" s="23">
-        <f>F8*TipoSuelo!$D$6/10000</f>
+        <f>F8*TipoSueloEPE!$D$6/10000</f>
         <v>80.186817150476926</v>
       </c>
+      <c r="N8" s="31">
+        <f>D8*(AguaPotSanBas!$D$12)/86400</f>
+        <v>97.549537037037041</v>
+      </c>
+      <c r="O8" s="31">
+        <f>F8*(AguaPotSanBas!$D$12)/86400</f>
+        <v>86.621561736626305</v>
+      </c>
+      <c r="P8" s="31">
+        <f>G8*(AguaPotSanBas!$D$12)/86400</f>
+        <v>10.927975300410736</v>
+      </c>
+      <c r="Q8" s="31">
+        <f>N8*AguaPotSanBas!$D$13</f>
+        <v>82.917106481481483</v>
+      </c>
+      <c r="R8" s="31">
+        <f>O8*AguaPotSanBas!$D$13</f>
+        <v>73.628327476132355</v>
+      </c>
+      <c r="S8" s="31">
+        <f>P8*AguaPotSanBas!$D$13</f>
+        <v>9.2887790053491255</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -9368,11 +16049,11 @@
         <v>9764.3421837005299</v>
       </c>
       <c r="H9" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I9</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I9</f>
         <v>348.89278481013389</v>
       </c>
       <c r="I9" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C9+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C9+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C9+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C9+TipoSueloEPE!$D$18)</f>
         <v>19133.127215189867</v>
       </c>
       <c r="J9" s="31">
@@ -9388,11 +16069,35 @@
         <v>0.51033697073568718</v>
       </c>
       <c r="M9" s="23">
-        <f>F9*TipoSuelo!$D$6/10000</f>
+        <f>F9*TipoSueloEPE!$D$6/10000</f>
         <v>89.895986724449202</v>
       </c>
+      <c r="N9" s="31">
+        <f>D9*(AguaPotSanBas!$D$12)/86400</f>
+        <v>112.93171296296296</v>
+      </c>
+      <c r="O9" s="31">
+        <f>F9*(AguaPotSanBas!$D$12)/86400</f>
+        <v>97.109862202337112</v>
+      </c>
+      <c r="P9" s="31">
+        <f>G9*(AguaPotSanBas!$D$12)/86400</f>
+        <v>15.821850760625859</v>
+      </c>
+      <c r="Q9" s="31">
+        <f>N9*AguaPotSanBas!$D$13</f>
+        <v>95.991956018518522</v>
+      </c>
+      <c r="R9" s="31">
+        <f>O9*AguaPotSanBas!$D$13</f>
+        <v>82.543382871986537</v>
+      </c>
+      <c r="S9" s="31">
+        <f>P9*AguaPotSanBas!$D$13</f>
+        <v>13.448573146531979</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -9418,11 +16123,11 @@
         <v>11611.158333988686</v>
       </c>
       <c r="H10" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I10</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I10</f>
         <v>399.7718987341832</v>
       </c>
       <c r="I10" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C10+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C10+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C10+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C10+TipoSueloEPE!$D$18)</f>
         <v>19082.248101265817</v>
       </c>
       <c r="J10" s="31">
@@ -9438,11 +16143,35 @@
         <v>0.60847958125114521</v>
       </c>
       <c r="M10" s="23">
-        <f>F10*TipoSuelo!$D$6/10000</f>
+        <f>F10*TipoSueloEPE!$D$6/10000</f>
         <v>100.96776249901697</v>
       </c>
+      <c r="N10" s="31">
+        <f>D10*(AguaPotSanBas!$D$12)/86400</f>
+        <v>127.88449074074074</v>
+      </c>
+      <c r="O10" s="31">
+        <f>F10*(AguaPotSanBas!$D$12)/86400</f>
+        <v>109.07011381066648</v>
+      </c>
+      <c r="P10" s="31">
+        <f>G10*(AguaPotSanBas!$D$12)/86400</f>
+        <v>18.81437693007426</v>
+      </c>
+      <c r="Q10" s="31">
+        <f>N10*AguaPotSanBas!$D$13</f>
+        <v>108.70181712962963</v>
+      </c>
+      <c r="R10" s="31">
+        <f>O10*AguaPotSanBas!$D$13</f>
+        <v>92.709596739066512</v>
+      </c>
+      <c r="S10" s="31">
+        <f>P10*AguaPotSanBas!$D$13</f>
+        <v>15.992220390563121</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -9468,11 +16197,11 @@
         <v>18228.452717300635</v>
       </c>
       <c r="H11" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I11</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I11</f>
         <v>654.16746835443701</v>
       </c>
       <c r="I11" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C11+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C11+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C11+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C11+TipoSueloEPE!$D$18)</f>
         <v>18827.852531645563</v>
       </c>
       <c r="J11" s="31">
@@ -9488,11 +16217,35 @@
         <v>0.96816419645642193</v>
       </c>
       <c r="M11" s="23">
-        <f>F11*TipoSuelo!$D$6/10000</f>
+        <f>F11*TipoSueloEPE!$D$6/10000</f>
         <v>122.71432092404906</v>
       </c>
+      <c r="N11" s="31">
+        <f>D11*(AguaPotSanBas!$D$12)/86400</f>
+        <v>162.0986111111111</v>
+      </c>
+      <c r="O11" s="31">
+        <f>F11*(AguaPotSanBas!$D$12)/86400</f>
+        <v>132.56176643029988</v>
+      </c>
+      <c r="P11" s="31">
+        <f>G11*(AguaPotSanBas!$D$12)/86400</f>
+        <v>29.536844680811214</v>
+      </c>
+      <c r="Q11" s="31">
+        <f>N11*AguaPotSanBas!$D$13</f>
+        <v>137.78381944444442</v>
+      </c>
+      <c r="R11" s="31">
+        <f>O11*AguaPotSanBas!$D$13</f>
+        <v>112.6775014657549</v>
+      </c>
+      <c r="S11" s="31">
+        <f>P11*AguaPotSanBas!$D$13</f>
+        <v>25.106317978689532</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -9518,11 +16271,11 @@
         <v>29383.946349351099</v>
       </c>
       <c r="H12" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I12</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I12</f>
         <v>984.88170886076477</v>
       </c>
       <c r="I12" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C12+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C12+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C12+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C12+TipoSueloEPE!$D$18)</f>
         <v>18497.138291139236</v>
       </c>
       <c r="J12" s="31">
@@ -9538,11 +16291,35 @@
         <v>1.5885671549218519</v>
       </c>
       <c r="M12" s="23">
-        <f>F12*TipoSuelo!$D$6/10000</f>
+        <f>F12*TipoSueloEPE!$D$6/10000</f>
         <v>149.37608047597337</v>
       </c>
+      <c r="N12" s="31">
+        <f>D12*(AguaPotSanBas!$D$12)/86400</f>
+        <v>208.97592592592594</v>
+      </c>
+      <c r="O12" s="31">
+        <f>F12*(AguaPotSanBas!$D$12)/86400</f>
+        <v>161.3630498968848</v>
+      </c>
+      <c r="P12" s="31">
+        <f>G12*(AguaPotSanBas!$D$12)/86400</f>
+        <v>47.612876029041132</v>
+      </c>
+      <c r="Q12" s="31">
+        <f>N12*AguaPotSanBas!$D$13</f>
+        <v>177.62953703703704</v>
+      </c>
+      <c r="R12" s="31">
+        <f>O12*AguaPotSanBas!$D$13</f>
+        <v>137.15859241235208</v>
+      </c>
+      <c r="S12" s="31">
+        <f>P12*AguaPotSanBas!$D$13</f>
+        <v>40.470944624684961</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -9568,11 +16345,11 @@
         <v>29593.64615471274</v>
       </c>
       <c r="H13" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I13</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I13</f>
         <v>1010.3212658227894</v>
       </c>
       <c r="I13" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C13+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C13+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C13+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C13+TipoSueloEPE!$D$18)</f>
         <v>18471.698734177211</v>
       </c>
       <c r="J13" s="31">
@@ -9588,11 +16365,35 @@
         <v>1.6021074499205195</v>
       </c>
       <c r="M13" s="23">
-        <f>F13*TipoSuelo!$D$6/10000</f>
+        <f>F13*TipoSueloEPE!$D$6/10000</f>
         <v>147.48653076793087</v>
       </c>
+      <c r="N13" s="31">
+        <f>D13*(AguaPotSanBas!$D$12)/86400</f>
+        <v>207.27453703703705</v>
+      </c>
+      <c r="O13" s="31">
+        <f>F13*(AguaPotSanBas!$D$12)/86400</f>
+        <v>159.32186965671548</v>
+      </c>
+      <c r="P13" s="31">
+        <f>G13*(AguaPotSanBas!$D$12)/86400</f>
+        <v>47.952667380321571</v>
+      </c>
+      <c r="Q13" s="31">
+        <f>N13*AguaPotSanBas!$D$13</f>
+        <v>176.1833564814815</v>
+      </c>
+      <c r="R13" s="31">
+        <f>O13*AguaPotSanBas!$D$13</f>
+        <v>135.42358920820814</v>
+      </c>
+      <c r="S13" s="31">
+        <f>P13*AguaPotSanBas!$D$13</f>
+        <v>40.759767273273333</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -9618,11 +16419,11 @@
         <v>34931.581775792001</v>
       </c>
       <c r="H14" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I14</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I14</f>
         <v>1137.5190506329127</v>
       </c>
       <c r="I14" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C14+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C14+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C14+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C14+TipoSueloEPE!$D$18)</f>
         <v>18344.500949367088</v>
       </c>
       <c r="J14" s="31">
@@ -9638,11 +16439,35 @@
         <v>1.9041990769989954</v>
       </c>
       <c r="M14" s="23">
-        <f>F14*TipoSuelo!$D$6/10000</f>
+        <f>F14*TipoSueloEPE!$D$6/10000</f>
         <v>158.121627336312</v>
       </c>
+      <c r="N14" s="31">
+        <f>D14*(AguaPotSanBas!$D$12)/86400</f>
+        <v>227.41249999999999</v>
+      </c>
+      <c r="O14" s="31">
+        <f>F14*(AguaPotSanBas!$D$12)/86400</f>
+        <v>170.81039990033705</v>
+      </c>
+      <c r="P14" s="31">
+        <f>G14*(AguaPotSanBas!$D$12)/86400</f>
+        <v>56.60210009966297</v>
+      </c>
+      <c r="Q14" s="31">
+        <f>N14*AguaPotSanBas!$D$13</f>
+        <v>193.300625</v>
+      </c>
+      <c r="R14" s="31">
+        <f>O14*AguaPotSanBas!$D$13</f>
+        <v>145.18883991528648</v>
+      </c>
+      <c r="S14" s="31">
+        <f>P14*AguaPotSanBas!$D$13</f>
+        <v>48.111785084713524</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -9668,11 +16493,11 @@
         <v>40867.944824306716</v>
       </c>
       <c r="H15" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I15</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I15</f>
         <v>1264.7168354430432</v>
       </c>
       <c r="I15" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C15+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C15+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C15+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C15+TipoSueloEPE!$D$18)</f>
         <v>18217.303164556957</v>
       </c>
       <c r="J15" s="31">
@@ -9688,11 +16513,35 @@
         <v>2.2433586604530014</v>
       </c>
       <c r="M15" s="23">
-        <f>F15*TipoSuelo!$D$6/10000</f>
+        <f>F15*TipoSueloEPE!$D$6/10000</f>
         <v>168.77258276353993</v>
       </c>
+      <c r="N15" s="31">
+        <f>D15*(AguaPotSanBas!$D$12)/86400</f>
+        <v>248.53726851851852</v>
+      </c>
+      <c r="O15" s="31">
+        <f>F15*(AguaPotSanBas!$D$12)/86400</f>
+        <v>182.31606162728079</v>
+      </c>
+      <c r="P15" s="31">
+        <f>G15*(AguaPotSanBas!$D$12)/86400</f>
+        <v>66.221206891237728</v>
+      </c>
+      <c r="Q15" s="31">
+        <f>N15*AguaPotSanBas!$D$13</f>
+        <v>211.25667824074074</v>
+      </c>
+      <c r="R15" s="31">
+        <f>O15*AguaPotSanBas!$D$13</f>
+        <v>154.96865238318867</v>
+      </c>
+      <c r="S15" s="31">
+        <f>P15*AguaPotSanBas!$D$13</f>
+        <v>56.288025857552064</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -9718,11 +16567,11 @@
         <v>47433.942793232127</v>
       </c>
       <c r="H16" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I16</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I16</f>
         <v>1391.9146202531665</v>
       </c>
       <c r="I16" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C16+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C16+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C16+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C16+TipoSueloEPE!$D$18)</f>
         <v>18090.105379746834</v>
       </c>
       <c r="J16" s="31">
@@ -9738,11 +16587,35 @@
         <v>2.6220932270708506</v>
       </c>
       <c r="M16" s="23">
-        <f>F16*TipoSuelo!$D$6/10000</f>
+        <f>F16*TipoSueloEPE!$D$6/10000</f>
         <v>179.38808581015181</v>
       </c>
+      <c r="N16" s="31">
+        <f>D16*(AguaPotSanBas!$D$12)/86400</f>
+        <v>270.64398148148149</v>
+      </c>
+      <c r="O16" s="31">
+        <f>F16*(AguaPotSanBas!$D$12)/86400</f>
+        <v>193.78342602948499</v>
+      </c>
+      <c r="P16" s="31">
+        <f>G16*(AguaPotSanBas!$D$12)/86400</f>
+        <v>76.860555451996504</v>
+      </c>
+      <c r="Q16" s="31">
+        <f>N16*AguaPotSanBas!$D$13</f>
+        <v>230.04738425925925</v>
+      </c>
+      <c r="R16" s="31">
+        <f>O16*AguaPotSanBas!$D$13</f>
+        <v>164.71591212506223</v>
+      </c>
+      <c r="S16" s="31">
+        <f>P16*AguaPotSanBas!$D$13</f>
+        <v>65.331472134197028</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -9768,11 +16641,11 @@
         <v>54662.381838165515</v>
       </c>
       <c r="H17" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I17</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I17</f>
         <v>1519.1124050632898</v>
       </c>
       <c r="I17" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C17+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C17+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C17+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C17+TipoSueloEPE!$D$18)</f>
         <v>17962.907594936711</v>
       </c>
       <c r="J17" s="31">
@@ -9788,11 +16661,35 @@
         <v>3.0430698120149247</v>
       </c>
       <c r="M17" s="23">
-        <f>F17*TipoSuelo!$D$6/10000</f>
+        <f>F17*TipoSueloEPE!$D$6/10000</f>
         <v>189.92342724275173</v>
       </c>
+      <c r="N17" s="31">
+        <f>D17*(AguaPotSanBas!$D$12)/86400</f>
+        <v>293.73750000000001</v>
+      </c>
+      <c r="O17" s="31">
+        <f>F17*(AguaPotSanBas!$D$12)/86400</f>
+        <v>205.16419609556513</v>
+      </c>
+      <c r="P17" s="31">
+        <f>G17*(AguaPotSanBas!$D$12)/86400</f>
+        <v>88.573303904434866</v>
+      </c>
+      <c r="Q17" s="31">
+        <f>N17*AguaPotSanBas!$D$13</f>
+        <v>249.676875</v>
+      </c>
+      <c r="R17" s="31">
+        <f>O17*AguaPotSanBas!$D$13</f>
+        <v>174.38956668123035</v>
+      </c>
+      <c r="S17" s="31">
+        <f>P17*AguaPotSanBas!$D$13</f>
+        <v>75.287308318769632</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -9818,11 +16715,11 @@
         <v>62584.364166476036</v>
       </c>
       <c r="H18" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I18</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I18</f>
         <v>1646.3101898734203</v>
       </c>
       <c r="I18" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C18+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C18+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C18+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C18+TipoSueloEPE!$D$18)</f>
         <v>17835.70981012658</v>
       </c>
       <c r="J18" s="31">
@@ -9838,11 +16735,35 @@
         <v>3.5089359959726703</v>
       </c>
       <c r="M18" s="23">
-        <f>F18*TipoSuelo!$D$6/10000</f>
+        <f>F18*TipoSueloEPE!$D$6/10000</f>
         <v>200.32745375028594</v>
       </c>
+      <c r="N18" s="31">
+        <f>D18*(AguaPotSanBas!$D$12)/86400</f>
+        <v>317.81296296296296</v>
+      </c>
+      <c r="O18" s="31">
+        <f>F18*(AguaPotSanBas!$D$12)/86400</f>
+        <v>216.40311361913604</v>
+      </c>
+      <c r="P18" s="31">
+        <f>G18*(AguaPotSanBas!$D$12)/86400</f>
+        <v>101.40984934382691</v>
+      </c>
+      <c r="Q18" s="31">
+        <f>N18*AguaPotSanBas!$D$13</f>
+        <v>270.14101851851848</v>
+      </c>
+      <c r="R18" s="31">
+        <f>O18*AguaPotSanBas!$D$13</f>
+        <v>183.94264657626562</v>
+      </c>
+      <c r="S18" s="31">
+        <f>P18*AguaPotSanBas!$D$13</f>
+        <v>86.198371942252862</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -9868,11 +16789,11 @@
         <v>71232.464585192705</v>
       </c>
       <c r="H19" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I19</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I19</f>
         <v>1773.5079746835436</v>
       </c>
       <c r="I19" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C19+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C19+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C19+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C19+TipoSueloEPE!$D$18)</f>
         <v>17708.512025316457</v>
       </c>
       <c r="J19" s="31">
@@ -9888,11 +16809,35 @@
         <v>4.0224985861803235</v>
       </c>
       <c r="M19" s="23">
-        <f>F19*TipoSuelo!$D$6/10000</f>
+        <f>F19*TipoSueloEPE!$D$6/10000</f>
         <v>210.55430312221091</v>
       </c>
+      <c r="N19" s="31">
+        <f>D19*(AguaPotSanBas!$D$12)/86400</f>
+        <v>342.87361111111113</v>
+      </c>
+      <c r="O19" s="31">
+        <f>F19*(AguaPotSanBas!$D$12)/86400</f>
+        <v>227.4506360888081</v>
+      </c>
+      <c r="P19" s="31">
+        <f>G19*(AguaPotSanBas!$D$12)/86400</f>
+        <v>115.42297502230299</v>
+      </c>
+      <c r="Q19" s="31">
+        <f>N19*AguaPotSanBas!$D$13</f>
+        <v>291.44256944444447</v>
+      </c>
+      <c r="R19" s="31">
+        <f>O19*AguaPotSanBas!$D$13</f>
+        <v>193.33304067548687</v>
+      </c>
+      <c r="S19" s="31">
+        <f>P19*AguaPotSanBas!$D$13</f>
+        <v>98.109528768957546</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -9918,11 +16863,11 @@
         <v>80638.689918601885</v>
       </c>
       <c r="H20" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I20</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I20</f>
         <v>1900.7057594936668</v>
       </c>
       <c r="I20" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C20+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C20+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C20+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C20+TipoSueloEPE!$D$18)</f>
         <v>17581.314240506334</v>
       </c>
       <c r="J20" s="31">
@@ -9938,11 +16883,35 @@
         <v>4.5866133108988514</v>
       </c>
       <c r="M20" s="23">
-        <f>F20*TipoSuelo!$D$6/10000</f>
+        <f>F20*TipoSueloEPE!$D$6/10000</f>
         <v>220.55596512209718</v>
       </c>
+      <c r="N20" s="31">
+        <f>D20*(AguaPotSanBas!$D$12)/86400</f>
+        <v>368.91944444444442</v>
+      </c>
+      <c r="O20" s="31">
+        <f>F20*(AguaPotSanBas!$D$12)/86400</f>
+        <v>238.25490059485804</v>
+      </c>
+      <c r="P20" s="31">
+        <f>G20*(AguaPotSanBas!$D$12)/86400</f>
+        <v>130.66454384958638</v>
+      </c>
+      <c r="Q20" s="31">
+        <f>N20*AguaPotSanBas!$D$13</f>
+        <v>313.58152777777775</v>
+      </c>
+      <c r="R20" s="31">
+        <f>O20*AguaPotSanBas!$D$13</f>
+        <v>202.51666550562933</v>
+      </c>
+      <c r="S20" s="31">
+        <f>P20*AguaPotSanBas!$D$13</f>
+        <v>111.06486227214842</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -9968,11 +16937,11 @@
         <v>90834.30353223678</v>
       </c>
       <c r="H21" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I21</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I21</f>
         <v>2027.9035443037974</v>
       </c>
       <c r="I21" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C21+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C21+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C21+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C21+TipoSueloEPE!$D$18)</f>
         <v>17454.116455696203</v>
       </c>
       <c r="J21" s="31">
@@ -9988,11 +16957,35 @@
         <v>5.2041765484263589</v>
       </c>
       <c r="M21" s="23">
-        <f>F21*TipoSuelo!$D$6/10000</f>
+        <f>F21*TipoSueloEPE!$D$6/10000</f>
         <v>230.28254470164484</v>
       </c>
+      <c r="N21" s="31">
+        <f>D21*(AguaPotSanBas!$D$12)/86400</f>
+        <v>395.94722222222219</v>
+      </c>
+      <c r="O21" s="31">
+        <f>F21*(AguaPotSanBas!$D$12)/86400</f>
+        <v>248.76200816535706</v>
+      </c>
+      <c r="P21" s="31">
+        <f>G21*(AguaPotSanBas!$D$12)/86400</f>
+        <v>147.18521405686514</v>
+      </c>
+      <c r="Q21" s="31">
+        <f>N21*AguaPotSanBas!$D$13</f>
+        <v>336.55513888888885</v>
+      </c>
+      <c r="R21" s="31">
+        <f>O21*AguaPotSanBas!$D$13</f>
+        <v>211.4477069405535</v>
+      </c>
+      <c r="S21" s="31">
+        <f>P21*AguaPotSanBas!$D$13</f>
+        <v>125.10743194833536</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -10018,11 +17011,11 @@
         <v>101852.37479571023</v>
       </c>
       <c r="H22" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I22</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I22</f>
         <v>2155.1013291139207</v>
       </c>
       <c r="I22" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C22+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C22+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C22+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C22+TipoSueloEPE!$D$18)</f>
         <v>17326.91867088608</v>
       </c>
       <c r="J22" s="31">
@@ -10038,11 +17031,35 @@
         <v>5.8782739580148107</v>
       </c>
       <c r="M22" s="23">
-        <f>F22*TipoSuelo!$D$6/10000</f>
+        <f>F22*TipoSueloEPE!$D$6/10000</f>
         <v>239.68893780643464</v>
       </c>
+      <c r="N22" s="31">
+        <f>D22*(AguaPotSanBas!$D$12)/86400</f>
+        <v>423.96180555555554</v>
+      </c>
+      <c r="O22" s="31">
+        <f>F22*(AguaPotSanBas!$D$12)/86400</f>
+        <v>258.92323528472878</v>
+      </c>
+      <c r="P22" s="31">
+        <f>G22*(AguaPotSanBas!$D$12)/86400</f>
+        <v>165.03857027082677</v>
+      </c>
+      <c r="Q22" s="31">
+        <f>N22*AguaPotSanBas!$D$13</f>
+        <v>360.36753472222222</v>
+      </c>
+      <c r="R22" s="31">
+        <f>O22*AguaPotSanBas!$D$13</f>
+        <v>220.08474999201945</v>
+      </c>
+      <c r="S22" s="31">
+        <f>P22*AguaPotSanBas!$D$13</f>
+        <v>140.28278473020274</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -10068,11 +17085,11 @@
         <v>113723.74270237586</v>
       </c>
       <c r="H23" s="31">
-        <f>TipoSuelo!$D$5-PoblacionDANE!I23</f>
+        <f>TipoSueloEPE!$D$5-PoblacionDANE!I23</f>
         <v>2282.2991139240512</v>
       </c>
       <c r="I23" s="31">
-        <f>IF(TipoSuelo!$D$17*PoblacionDANE!C23+TipoSuelo!$D$18&gt;TipoSuelo!$D$5,TipoSuelo!$D$5-1,TipoSuelo!$D$17*PoblacionDANE!C23+TipoSuelo!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C23+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C23+TipoSueloEPE!$D$18)</f>
         <v>17199.720886075949</v>
       </c>
       <c r="J23" s="31">
@@ -10088,8 +17105,32 @@
         <v>6.6119528017713955</v>
       </c>
       <c r="M23" s="23">
-        <f>F23*TipoSuelo!$D$6/10000</f>
+        <f>F23*TipoSueloEPE!$D$6/10000</f>
         <v>248.72438594643623</v>
+      </c>
+      <c r="N23" s="31">
+        <f>D23*(AguaPotSanBas!$D$12)/86400</f>
+        <v>452.95833333333331</v>
+      </c>
+      <c r="O23" s="31">
+        <f>F23*(AguaPotSanBas!$D$12)/86400</f>
+        <v>268.68375025077984</v>
+      </c>
+      <c r="P23" s="31">
+        <f>G23*(AguaPotSanBas!$D$12)/86400</f>
+        <v>184.27458308255348</v>
+      </c>
+      <c r="Q23" s="31">
+        <f>N23*AguaPotSanBas!$D$13</f>
+        <v>385.01458333333329</v>
+      </c>
+      <c r="R23" s="31">
+        <f>O23*AguaPotSanBas!$D$13</f>
+        <v>228.38118771316286</v>
+      </c>
+      <c r="S23" s="31">
+        <f>P23*AguaPotSanBas!$D$13</f>
+        <v>156.63339562017046</v>
       </c>
     </row>
   </sheetData>

--- a/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
+++ b/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\PopulationGIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBADFF1-DD90-475E-ABFD-057AF8EB3E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422D21E6-45D8-4881-8658-BF1361A908DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="769" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="769" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PoblacionSISBEN" sheetId="10" r:id="rId1"/>
@@ -587,9 +587,6 @@
     <t>L/hab/día</t>
   </si>
   <si>
-    <t>Dotación neta por habitante y clima - Título B RAS (L/hab/día) y coeficientes de retorno aguas residuales domésticas - QD - Título D RAS</t>
-  </si>
-  <si>
     <t>QAcuUrb</t>
   </si>
   <si>
@@ -606,6 +603,9 @@
   </si>
   <si>
     <t>QAlcRur</t>
+  </si>
+  <si>
+    <t>Dotación neta por habitante y clima - Título B RAS (L/hab/día) y coeficientes de retorno aguas residuales domésticas QD - Título D RAS</t>
   </si>
 </sst>
 </file>
@@ -15013,8 +15013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D51D26C-E6F7-461B-8618-6301F37C70DF}">
   <dimension ref="B2:F37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -15265,7 +15265,7 @@
     </row>
     <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="87" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C28" s="87"/>
       <c r="D28" s="87"/>
@@ -15422,7 +15422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3DC757-E655-4AB9-91FA-E1AE22FE7E6A}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -15487,22 +15487,22 @@
         <v>46</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">

--- a/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
+++ b/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\PopulationGIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422D21E6-45D8-4881-8658-BF1361A908DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C883CC-F5EA-4789-86A6-CB08285779DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="769" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="769" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PoblacionSISBEN" sheetId="10" r:id="rId1"/>
     <sheet name="TipoSueloEPE" sheetId="11" r:id="rId2"/>
     <sheet name="AguaPotSanBas" sheetId="14" r:id="rId3"/>
-    <sheet name="PoblacionDANE" sheetId="6" r:id="rId4"/>
+    <sheet name="PoblacionAreaDensEPEQ" sheetId="6" r:id="rId4"/>
     <sheet name="QAcueductoChart" sheetId="15" r:id="rId5"/>
     <sheet name="QAlcantarilladoChart" sheetId="16" r:id="rId6"/>
     <sheet name="PoblacionGISChart" sheetId="9" r:id="rId7"/>
@@ -3890,7 +3890,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionDANE!$N$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4022,7 +4022,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4097,7 +4097,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$N$2:$N$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$N$2:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4182,7 +4182,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionDANE!$O$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4283,7 +4283,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4358,7 +4358,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$O$2:$O$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$O$2:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4443,7 +4443,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionDANE!$P$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4544,7 +4544,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4619,7 +4619,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$P$2:$P$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$P$2:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5106,7 +5106,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionDANE!$Q$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5194,7 +5194,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5269,7 +5269,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$Q$2:$Q$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$Q$2:$Q$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5354,7 +5354,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionDANE!$R$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5455,7 +5455,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5530,7 +5530,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$R$2:$R$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$R$2:$R$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5615,7 +5615,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionDANE!$S$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5716,7 +5716,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5791,7 +5791,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$S$2:$S$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$S$2:$S$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6270,7 +6270,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionDANE!$D$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6424,7 +6424,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6499,7 +6499,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$D$2:$D$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$D$2:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6584,7 +6584,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionDANE!$F$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6685,7 +6685,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6760,7 +6760,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$F$2:$F$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$F$2:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6845,7 +6845,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionDANE!$G$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6946,7 +6946,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -7021,7 +7021,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$G$2:$G$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$G$2:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -7508,7 +7508,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionDANE!$J$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7541,9 +7541,83 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.07665285419992E-3"/>
+                  <c:y val="-4.0404040404040553E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-3D9E-48C4-B4F4-7810C1F45191}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -7618,7 +7692,77 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$J$2:$J$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$J$2:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.36484923021329407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58926127783463933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62996547585927942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0588224424366672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4256735184544518</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0447571658380395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0901313108188986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5774011113837272</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.051068626353941</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.134888476656938</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6198474285520703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5659515799696333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2038731096672723</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.8730542315427252</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.5733409574571837</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.3048872755494543</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.067539197680732</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.861399382610221</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.686467830337921</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.542641882104627</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.430075526049146</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.348614774032672</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -7633,7 +7777,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionDANE!$K$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7665,6 +7809,50 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3602076195009477E-3"/>
+                  <c:y val="-5.4252445717012647E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-7CC4-4F49-9B7B-1EB09C5315F8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4203389015700068E-2"/>
+                  <c:y val="-5.3818181818181966E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-7CC4-4F49-9B7B-1EB09C5315F8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -7721,7 +7909,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -7796,7 +7984,77 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$K$2:$K$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$K$2:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>7108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11480</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26710.524322535777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37051.039794918295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>367.72064906401482</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>171.77385267199924</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>168.37562089567578</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125.05902729845596</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101.11270496214216</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.319889396976592</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92.670463994036567</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>88.964621979020393</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85.919104136585645</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>83.348419603327102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.121793848455937</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.14795840704025</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77.359322634223886</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75.704634423561302</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>74.146223681273128</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>72.653166399617703</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -7811,7 +8069,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionDANE!$L$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7842,9 +8100,83 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.11497928129988E-3"/>
+                  <c:y val="-8.0808080808080808E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-7CC4-4F49-9B7B-1EB09C5315F8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -7919,7 +8251,77 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$L$2:$L$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$L$2:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.464168084957681E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14295761746980931</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34877417272968836</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51033697073568718</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60847958125114521</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96816419645642193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5885671549218519</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6021074499205195</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9041990769989954</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2433586604530014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6220932270708506</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0430698120149247</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5089359959726703</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0224985861803235</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5866133108988514</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2041765484263589</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8782739580148107</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.6119528017713955</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -8342,7 +8744,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionDANE!$M$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8354,9 +8756,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8432,7 +8832,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -8507,7 +8907,77 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionDANE!$M$2:$M$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$M$2:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10.662000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.409500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.065786483803663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.576559692377444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.186817150476926</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.895986724449202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100.96776249901697</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>122.71432092404906</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>149.37608047597337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>147.48653076793087</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>158.121627336312</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>168.77258276353993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>179.38808581015181</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>189.92342724275173</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200.32745375028594</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>210.55430312221091</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>220.55596512209718</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>230.28254470164484</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>239.68893780643464</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>248.72438594643623</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -14490,9 +14960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FE7104-CE26-4403-B32C-577E86FFA577}">
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
   <cols>
@@ -15013,8 +15481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D51D26C-E6F7-461B-8618-6301F37C70DF}">
   <dimension ref="B2:F37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" topLeftCell="F5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -15422,11 +15890,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3DC757-E655-4AB9-91FA-E1AE22FE7E6A}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -15437,11 +15905,11 @@
     <col min="4" max="5" width="10.73046875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.73046875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="11.73046875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.265625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.73046875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" style="31" customWidth="1"/>
     <col min="15" max="16384" width="9.19921875" style="1"/>
   </cols>
@@ -15519,7 +15987,7 @@
         <v>7108</v>
       </c>
       <c r="E2" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C2+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C2+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C2+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C2+PoblacionSISBEN!$C$10)</f>
         <v>1</v>
       </c>
       <c r="F2" s="23">
@@ -15531,11 +15999,11 @@
         <v>0</v>
       </c>
       <c r="H2" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I2</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I2</f>
         <v>1</v>
       </c>
       <c r="I2" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C2+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C2+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C2+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C2+TipoSueloEPE!$D$18)</f>
         <v>19481.02</v>
       </c>
       <c r="J2" s="31">
@@ -15593,7 +16061,7 @@
         <v>11480</v>
       </c>
       <c r="E3" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C3+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C3+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C3+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C3+PoblacionSISBEN!$C$10)</f>
         <v>1</v>
       </c>
       <c r="F3" s="23">
@@ -15605,11 +16073,11 @@
         <v>0</v>
       </c>
       <c r="H3" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I3</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I3</f>
         <v>1</v>
       </c>
       <c r="I3" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C3+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C3+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C3+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C3+TipoSueloEPE!$D$18)</f>
         <v>19481.02</v>
       </c>
       <c r="J3" s="31">
@@ -15667,7 +16135,7 @@
         <v>12273</v>
       </c>
       <c r="E4" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C4+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C4+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C4+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C4+PoblacionSISBEN!$C$10)</f>
         <v>1</v>
       </c>
       <c r="F4" s="23">
@@ -15679,11 +16147,11 @@
         <v>0</v>
       </c>
       <c r="H4" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I4</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I4</f>
         <v>1</v>
       </c>
       <c r="I4" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C4+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C4+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C4+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C4+TipoSueloEPE!$D$18)</f>
         <v>19481.02</v>
       </c>
       <c r="J4" s="31">
@@ -15741,7 +16209,7 @@
         <v>20628</v>
       </c>
       <c r="E5" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C5+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C5+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C5+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C5+PoblacionSISBEN!$C$10)</f>
         <v>1</v>
       </c>
       <c r="F5" s="23">
@@ -15753,11 +16221,11 @@
         <v>0</v>
       </c>
       <c r="H5" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I5</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I5</f>
         <v>1</v>
       </c>
       <c r="I5" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C5+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C5+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C5+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C5+TipoSueloEPE!$D$18)</f>
         <v>19481.02</v>
       </c>
       <c r="J5" s="31">
@@ -15815,7 +16283,7 @@
         <v>27775</v>
       </c>
       <c r="E6" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C6+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C6+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C6+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C6+PoblacionSISBEN!$C$10)</f>
         <v>0.96167504311559959</v>
       </c>
       <c r="F6" s="23">
@@ -15827,11 +16295,11 @@
         <v>1064.4756774642228</v>
       </c>
       <c r="H6" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I6</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I6</f>
         <v>1</v>
       </c>
       <c r="I6" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C6+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C6+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C6+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C6+TipoSueloEPE!$D$18)</f>
         <v>19481.02</v>
       </c>
       <c r="J6" s="31">
@@ -15889,7 +16357,7 @@
         <v>39836</v>
       </c>
       <c r="E7" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C7+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C7+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C7+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C7+PoblacionSISBEN!$C$10)</f>
         <v>0.93008936125409925</v>
       </c>
       <c r="F7" s="23">
@@ -15901,11 +16369,11 @@
         <v>2784.9602050817048</v>
       </c>
       <c r="H7" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I7</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I7</f>
         <v>1</v>
       </c>
       <c r="I7" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C7+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C7+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C7+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C7+TipoSueloEPE!$D$18)</f>
         <v>19481.02</v>
       </c>
       <c r="J7" s="31">
@@ -15963,7 +16431,7 @@
         <v>60202</v>
       </c>
       <c r="E8" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C8+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C8+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C8+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C8+PoblacionSISBEN!$C$10)</f>
         <v>0.88797511877209967</v>
       </c>
       <c r="F8" s="23">
@@ -15975,11 +16443,11 @@
         <v>6744.1218996820535</v>
       </c>
       <c r="H8" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I8</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I8</f>
         <v>145.37632911392939</v>
       </c>
       <c r="I8" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C8+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C8+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C8+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C8+TipoSueloEPE!$D$18)</f>
         <v>19336.643670886071</v>
       </c>
       <c r="J8" s="31">
@@ -16037,7 +16505,7 @@
         <v>69695</v>
       </c>
       <c r="E9" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C9+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C9+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C9+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C9+PoblacionSISBEN!$C$10)</f>
         <v>0.85989895711743269</v>
       </c>
       <c r="F9" s="23">
@@ -16049,11 +16517,11 @@
         <v>9764.3421837005299</v>
       </c>
       <c r="H9" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I9</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I9</f>
         <v>348.89278481013389</v>
       </c>
       <c r="I9" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C9+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C9+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C9+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C9+TipoSueloEPE!$D$18)</f>
         <v>19133.127215189867</v>
       </c>
       <c r="J9" s="31">
@@ -16111,7 +16579,7 @@
         <v>78923</v>
       </c>
       <c r="E10" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C10+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C10+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C10+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C10+PoblacionSISBEN!$C$10)</f>
         <v>0.85287991670376595</v>
       </c>
       <c r="F10" s="23">
@@ -16123,11 +16591,11 @@
         <v>11611.158333988686</v>
       </c>
       <c r="H10" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I10</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I10</f>
         <v>399.7718987341832</v>
       </c>
       <c r="I10" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C10+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C10+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C10+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C10+TipoSueloEPE!$D$18)</f>
         <v>19082.248101265817</v>
       </c>
       <c r="J10" s="31">
@@ -16185,7 +16653,7 @@
         <v>100038</v>
       </c>
       <c r="E11" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C11+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C11+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C11+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C11+PoblacionSISBEN!$C$10)</f>
         <v>0.81778471463543223</v>
       </c>
       <c r="F11" s="23">
@@ -16197,11 +16665,11 @@
         <v>18228.452717300635</v>
       </c>
       <c r="H11" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I11</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I11</f>
         <v>654.16746835443701</v>
       </c>
       <c r="I11" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C11+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C11+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C11+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C11+TipoSueloEPE!$D$18)</f>
         <v>18827.852531645563</v>
       </c>
       <c r="J11" s="31">
@@ -16259,7 +16727,7 @@
         <v>128968</v>
       </c>
       <c r="E12" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C12+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C12+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C12+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C12+PoblacionSISBEN!$C$10)</f>
         <v>0.7721609519465984</v>
       </c>
       <c r="F12" s="23">
@@ -16271,11 +16739,11 @@
         <v>29383.946349351099</v>
       </c>
       <c r="H12" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I12</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I12</f>
         <v>984.88170886076477</v>
       </c>
       <c r="I12" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C12+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C12+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C12+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C12+TipoSueloEPE!$D$18)</f>
         <v>18497.138291139236</v>
       </c>
       <c r="J12" s="31">
@@ -16333,7 +16801,7 @@
         <v>127918</v>
       </c>
       <c r="E13" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C13+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C13+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C13+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C13+PoblacionSISBEN!$C$10)</f>
         <v>0.76865143173976502</v>
       </c>
       <c r="F13" s="23">
@@ -16345,11 +16813,11 @@
         <v>29593.64615471274</v>
       </c>
       <c r="H13" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I13</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I13</f>
         <v>1010.3212658227894</v>
       </c>
       <c r="I13" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C13+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C13+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C13+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C13+TipoSueloEPE!$D$18)</f>
         <v>18471.698734177211</v>
       </c>
       <c r="J13" s="31">
@@ -16407,7 +16875,7 @@
         <v>140346</v>
       </c>
       <c r="E14" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C14+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C14+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C14+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C14+PoblacionSISBEN!$C$10)</f>
         <v>0.75110383070559905</v>
       </c>
       <c r="F14" s="23">
@@ -16419,11 +16887,11 @@
         <v>34931.581775792001</v>
       </c>
       <c r="H14" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I14</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I14</f>
         <v>1137.5190506329127</v>
       </c>
       <c r="I14" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C14+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C14+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C14+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C14+TipoSueloEPE!$D$18)</f>
         <v>18344.500949367088</v>
       </c>
       <c r="J14" s="31">
@@ -16481,7 +16949,7 @@
         <v>153383</v>
       </c>
       <c r="E15" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C15+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C15+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C15+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C15+PoblacionSISBEN!$C$10)</f>
         <v>0.73355622967143219</v>
       </c>
       <c r="F15" s="23">
@@ -16493,11 +16961,11 @@
         <v>40867.944824306716</v>
       </c>
       <c r="H15" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I15</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I15</f>
         <v>1264.7168354430432</v>
       </c>
       <c r="I15" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C15+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C15+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C15+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C15+TipoSueloEPE!$D$18)</f>
         <v>18217.303164556957</v>
       </c>
       <c r="J15" s="31">
@@ -16555,7 +17023,7 @@
         <v>167026</v>
       </c>
       <c r="E16" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C16+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C16+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C16+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C16+PoblacionSISBEN!$C$10)</f>
         <v>0.71600862863726533</v>
       </c>
       <c r="F16" s="23">
@@ -16567,11 +17035,11 @@
         <v>47433.942793232127</v>
       </c>
       <c r="H16" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I16</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I16</f>
         <v>1391.9146202531665</v>
       </c>
       <c r="I16" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C16+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C16+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C16+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C16+TipoSueloEPE!$D$18)</f>
         <v>18090.105379746834</v>
       </c>
       <c r="J16" s="31">
@@ -16629,7 +17097,7 @@
         <v>181278</v>
       </c>
       <c r="E17" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C17+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C17+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C17+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C17+PoblacionSISBEN!$C$10)</f>
         <v>0.69846102760309847</v>
       </c>
       <c r="F17" s="23">
@@ -16641,11 +17109,11 @@
         <v>54662.381838165515</v>
       </c>
       <c r="H17" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I17</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I17</f>
         <v>1519.1124050632898</v>
       </c>
       <c r="I17" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C17+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C17+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C17+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C17+TipoSueloEPE!$D$18)</f>
         <v>17962.907594936711</v>
       </c>
       <c r="J17" s="31">
@@ -16703,7 +17171,7 @@
         <v>196136</v>
       </c>
       <c r="E18" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C18+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C18+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C18+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C18+PoblacionSISBEN!$C$10)</f>
         <v>0.68091342656893161</v>
       </c>
       <c r="F18" s="23">
@@ -16715,11 +17183,11 @@
         <v>62584.364166476036</v>
       </c>
       <c r="H18" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I18</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I18</f>
         <v>1646.3101898734203</v>
       </c>
       <c r="I18" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C18+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C18+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C18+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C18+TipoSueloEPE!$D$18)</f>
         <v>17835.70981012658</v>
       </c>
       <c r="J18" s="31">
@@ -16777,7 +17245,7 @@
         <v>211602</v>
       </c>
       <c r="E19" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C19+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C19+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C19+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C19+PoblacionSISBEN!$C$10)</f>
         <v>0.66336582553476475</v>
       </c>
       <c r="F19" s="23">
@@ -16789,11 +17257,11 @@
         <v>71232.464585192705</v>
       </c>
       <c r="H19" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I19</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I19</f>
         <v>1773.5079746835436</v>
       </c>
       <c r="I19" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C19+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C19+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C19+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C19+TipoSueloEPE!$D$18)</f>
         <v>17708.512025316457</v>
       </c>
       <c r="J19" s="31">
@@ -16851,7 +17319,7 @@
         <v>227676</v>
       </c>
       <c r="E20" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C20+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C20+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C20+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C20+PoblacionSISBEN!$C$10)</f>
         <v>0.64581822450059789</v>
       </c>
       <c r="F20" s="23">
@@ -16863,11 +17331,11 @@
         <v>80638.689918601885</v>
       </c>
       <c r="H20" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I20</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I20</f>
         <v>1900.7057594936668</v>
       </c>
       <c r="I20" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C20+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C20+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C20+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C20+TipoSueloEPE!$D$18)</f>
         <v>17581.314240506334</v>
       </c>
       <c r="J20" s="31">
@@ -16925,7 +17393,7 @@
         <v>244356</v>
       </c>
       <c r="E21" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C21+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C21+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C21+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C21+PoblacionSISBEN!$C$10)</f>
         <v>0.62827062346643103</v>
       </c>
       <c r="F21" s="23">
@@ -16937,11 +17405,11 @@
         <v>90834.30353223678</v>
       </c>
       <c r="H21" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I21</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I21</f>
         <v>2027.9035443037974</v>
       </c>
       <c r="I21" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C21+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C21+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C21+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C21+TipoSueloEPE!$D$18)</f>
         <v>17454.116455696203</v>
       </c>
       <c r="J21" s="31">
@@ -16999,7 +17467,7 @@
         <v>261645</v>
       </c>
       <c r="E22" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C22+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C22+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C22+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C22+PoblacionSISBEN!$C$10)</f>
         <v>0.61072302243226417</v>
       </c>
       <c r="F22" s="23">
@@ -17011,11 +17479,11 @@
         <v>101852.37479571023</v>
       </c>
       <c r="H22" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I22</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I22</f>
         <v>2155.1013291139207</v>
       </c>
       <c r="I22" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C22+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C22+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C22+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C22+TipoSueloEPE!$D$18)</f>
         <v>17326.91867088608</v>
       </c>
       <c r="J22" s="31">
@@ -17073,7 +17541,7 @@
         <v>279540</v>
       </c>
       <c r="E23" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionDANE!C23+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionDANE!C23+PoblacionSISBEN!$C$10)</f>
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C23+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C23+PoblacionSISBEN!$C$10)</f>
         <v>0.59317542139809731</v>
       </c>
       <c r="F23" s="23">
@@ -17085,11 +17553,11 @@
         <v>113723.74270237586</v>
       </c>
       <c r="H23" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionDANE!I23</f>
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I23</f>
         <v>2282.2991139240512</v>
       </c>
       <c r="I23" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionDANE!C23+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionDANE!C23+TipoSueloEPE!$D$18)</f>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C23+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C23+TipoSueloEPE!$D$18)</f>
         <v>17199.720886075949</v>
       </c>
       <c r="J23" s="31">

--- a/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
+++ b/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\PopulationGIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C883CC-F5EA-4789-86A6-CB08285779DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9CFE48-CB36-4F5A-B7C7-BFB6B98A7A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="769" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,6 +229,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{CFB7FB5E-B583-4F90-8CB1-C4BFEC478A70}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Espacio público efectivo urbano en ha</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N1" authorId="0" shapeId="0" xr:uid="{46767F03-0BB1-43B9-B66D-A9FB380A4F1F}">
       <text>
         <r>
@@ -238,7 +251,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Caudal total requerido acueducto lps - día</t>
+          <t>Caudal total demandado acueducto lps - día</t>
         </r>
       </text>
     </comment>
@@ -251,7 +264,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Caudal urbano requerido acueducto lps - día</t>
+          <t>Caudal urbano demandado acueducto lps - día</t>
         </r>
       </text>
     </comment>
@@ -264,7 +277,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Caudal rural requerido acueducto lps - día</t>
+          <t>Caudal rural demandado acueducto lps - día</t>
         </r>
       </text>
     </comment>
@@ -277,7 +290,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Caudal total sanitario residencial en lps - día</t>
+          <t>Caudal total sanitario residencial retornado en lps - día</t>
         </r>
       </text>
     </comment>
@@ -290,7 +303,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Caudal urbano sanitario residencial en lps - día</t>
+          <t>Caudal urbano sanitario residencial retornado en lps - día</t>
         </r>
       </text>
     </comment>
@@ -303,7 +316,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Caudal rural sanitario residencial en lps - día</t>
+          <t>Caudal rural sanitario residencial retornado en lps - día</t>
         </r>
       </text>
     </comment>
@@ -15481,7 +15494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D51D26C-E6F7-461B-8618-6301F37C70DF}">
   <dimension ref="B2:F37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -15891,10 +15904,10 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -16007,7 +16020,7 @@
         <v>19481.02</v>
       </c>
       <c r="J2" s="31">
-        <f>D2/(H2+I2)</f>
+        <f>D2/ TipoSueloEPE!$D$5</f>
         <v>0.36484923021329407</v>
       </c>
       <c r="K2" s="31">
@@ -16023,15 +16036,15 @@
         <v>10.662000000000001</v>
       </c>
       <c r="N2" s="31">
-        <f>D2*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D2*AguaPotSanBas!$D$12/86400</f>
         <v>11.517592592592592</v>
       </c>
       <c r="O2" s="31">
-        <f>F2*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F2*AguaPotSanBas!$D$12/86400</f>
         <v>11.517592592592592</v>
       </c>
       <c r="P2" s="31">
-        <f>G2*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G2*AguaPotSanBas!$D$12/86400</f>
         <v>0</v>
       </c>
       <c r="Q2" s="31">
@@ -16081,7 +16094,7 @@
         <v>19481.02</v>
       </c>
       <c r="J3" s="31">
-        <f>D3/(H3+I3)</f>
+        <f>D3/ TipoSueloEPE!$D$5</f>
         <v>0.58926127783463933</v>
       </c>
       <c r="K3" s="31">
@@ -16097,15 +16110,15 @@
         <v>17.22</v>
       </c>
       <c r="N3" s="31">
-        <f>D3*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D3*AguaPotSanBas!$D$12/86400</f>
         <v>18.601851851851851</v>
       </c>
       <c r="O3" s="31">
-        <f>F3*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F3*AguaPotSanBas!$D$12/86400</f>
         <v>18.601851851851851</v>
       </c>
       <c r="P3" s="31">
-        <f>G3*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G3*AguaPotSanBas!$D$12/86400</f>
         <v>0</v>
       </c>
       <c r="Q3" s="31">
@@ -16155,7 +16168,7 @@
         <v>19481.02</v>
       </c>
       <c r="J4" s="31">
-        <f>D4/(H4+I4)</f>
+        <f>D4/ TipoSueloEPE!$D$5</f>
         <v>0.62996547585927942</v>
       </c>
       <c r="K4" s="31">
@@ -16171,15 +16184,15 @@
         <v>18.409500000000001</v>
       </c>
       <c r="N4" s="31">
-        <f>D4*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D4*AguaPotSanBas!$D$12/86400</f>
         <v>19.886805555555554</v>
       </c>
       <c r="O4" s="31">
-        <f>F4*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F4*AguaPotSanBas!$D$12/86400</f>
         <v>19.886805555555554</v>
       </c>
       <c r="P4" s="31">
-        <f>G4*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G4*AguaPotSanBas!$D$12/86400</f>
         <v>0</v>
       </c>
       <c r="Q4" s="31">
@@ -16229,11 +16242,11 @@
         <v>19481.02</v>
       </c>
       <c r="J5" s="31">
-        <f t="shared" ref="J5:J23" si="2">D5/(H5+I5)</f>
+        <f>D5/ TipoSueloEPE!$D$5</f>
         <v>1.0588224424366672</v>
       </c>
       <c r="K5" s="31">
-        <f t="shared" ref="K5:K23" si="3">F5/H5</f>
+        <f t="shared" ref="K5:K23" si="2">F5/H5</f>
         <v>20628</v>
       </c>
       <c r="L5" s="31">
@@ -16245,15 +16258,15 @@
         <v>30.942</v>
       </c>
       <c r="N5" s="31">
-        <f>D5*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D5*AguaPotSanBas!$D$12/86400</f>
         <v>33.424999999999997</v>
       </c>
       <c r="O5" s="31">
-        <f>F5*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F5*AguaPotSanBas!$D$12/86400</f>
         <v>33.424999999999997</v>
       </c>
       <c r="P5" s="31">
-        <f>G5*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G5*AguaPotSanBas!$D$12/86400</f>
         <v>0</v>
       </c>
       <c r="Q5" s="31">
@@ -16303,11 +16316,11 @@
         <v>19481.02</v>
       </c>
       <c r="J6" s="31">
+        <f>D6/ TipoSueloEPE!$D$5</f>
+        <v>1.4256735184544518</v>
+      </c>
+      <c r="K6" s="31">
         <f t="shared" si="2"/>
-        <v>1.4256735184544518</v>
-      </c>
-      <c r="K6" s="31">
-        <f t="shared" si="3"/>
         <v>26710.524322535777</v>
       </c>
       <c r="L6" s="31">
@@ -16319,15 +16332,15 @@
         <v>40.065786483803663</v>
       </c>
       <c r="N6" s="31">
-        <f>D6*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D6*AguaPotSanBas!$D$12/86400</f>
         <v>45.005787037037038</v>
       </c>
       <c r="O6" s="31">
-        <f>F6*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F6*AguaPotSanBas!$D$12/86400</f>
         <v>43.28094218929408</v>
       </c>
       <c r="P6" s="31">
-        <f>G6*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G6*AguaPotSanBas!$D$12/86400</f>
         <v>1.7248448477429537</v>
       </c>
       <c r="Q6" s="31">
@@ -16377,11 +16390,11 @@
         <v>19481.02</v>
       </c>
       <c r="J7" s="31">
+        <f>D7/ TipoSueloEPE!$D$5</f>
+        <v>2.0447571658380395</v>
+      </c>
+      <c r="K7" s="31">
         <f t="shared" si="2"/>
-        <v>2.0447571658380395</v>
-      </c>
-      <c r="K7" s="31">
-        <f t="shared" si="3"/>
         <v>37051.039794918295</v>
       </c>
       <c r="L7" s="31">
@@ -16393,15 +16406,15 @@
         <v>55.576559692377444</v>
       </c>
       <c r="N7" s="31">
-        <f>D7*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D7*AguaPotSanBas!$D$12/86400</f>
         <v>64.54907407407407</v>
       </c>
       <c r="O7" s="31">
-        <f>F7*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F7*AguaPotSanBas!$D$12/86400</f>
         <v>60.036407075099092</v>
       </c>
       <c r="P7" s="31">
-        <f>G7*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G7*AguaPotSanBas!$D$12/86400</f>
         <v>4.5126669989749848</v>
       </c>
       <c r="Q7" s="31">
@@ -16451,15 +16464,15 @@
         <v>19336.643670886071</v>
       </c>
       <c r="J8" s="31">
+        <f>D8/ TipoSueloEPE!$D$5</f>
+        <v>3.0901313108188986</v>
+      </c>
+      <c r="K8" s="31">
         <f t="shared" si="2"/>
-        <v>3.0901313108188986</v>
-      </c>
-      <c r="K8" s="31">
-        <f t="shared" si="3"/>
         <v>367.72064906401482</v>
       </c>
       <c r="L8" s="31">
-        <f t="shared" ref="L8:L23" si="4">G8/I8</f>
+        <f t="shared" ref="L8:L23" si="3">G8/I8</f>
         <v>0.34877417272968836</v>
       </c>
       <c r="M8" s="23">
@@ -16467,15 +16480,15 @@
         <v>80.186817150476926</v>
       </c>
       <c r="N8" s="31">
-        <f>D8*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D8*AguaPotSanBas!$D$12/86400</f>
         <v>97.549537037037041</v>
       </c>
       <c r="O8" s="31">
-        <f>F8*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F8*AguaPotSanBas!$D$12/86400</f>
         <v>86.621561736626305</v>
       </c>
       <c r="P8" s="31">
-        <f>G8*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G8*AguaPotSanBas!$D$12/86400</f>
         <v>10.927975300410736</v>
       </c>
       <c r="Q8" s="31">
@@ -16525,15 +16538,15 @@
         <v>19133.127215189867</v>
       </c>
       <c r="J9" s="31">
+        <f>D9/ TipoSueloEPE!$D$5</f>
+        <v>3.5774011113837272</v>
+      </c>
+      <c r="K9" s="31">
         <f t="shared" si="2"/>
-        <v>3.5774011113837272</v>
-      </c>
-      <c r="K9" s="31">
+        <v>171.77385267199924</v>
+      </c>
+      <c r="L9" s="31">
         <f t="shared" si="3"/>
-        <v>171.77385267199924</v>
-      </c>
-      <c r="L9" s="31">
-        <f t="shared" si="4"/>
         <v>0.51033697073568718</v>
       </c>
       <c r="M9" s="23">
@@ -16541,15 +16554,15 @@
         <v>89.895986724449202</v>
       </c>
       <c r="N9" s="31">
-        <f>D9*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D9*AguaPotSanBas!$D$12/86400</f>
         <v>112.93171296296296</v>
       </c>
       <c r="O9" s="31">
-        <f>F9*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F9*AguaPotSanBas!$D$12/86400</f>
         <v>97.109862202337112</v>
       </c>
       <c r="P9" s="31">
-        <f>G9*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G9*AguaPotSanBas!$D$12/86400</f>
         <v>15.821850760625859</v>
       </c>
       <c r="Q9" s="31">
@@ -16599,15 +16612,15 @@
         <v>19082.248101265817</v>
       </c>
       <c r="J10" s="31">
+        <f>D10/ TipoSueloEPE!$D$5</f>
+        <v>4.051068626353941</v>
+      </c>
+      <c r="K10" s="31">
         <f t="shared" si="2"/>
-        <v>4.051068626353941</v>
-      </c>
-      <c r="K10" s="31">
+        <v>168.37562089567578</v>
+      </c>
+      <c r="L10" s="31">
         <f t="shared" si="3"/>
-        <v>168.37562089567578</v>
-      </c>
-      <c r="L10" s="31">
-        <f t="shared" si="4"/>
         <v>0.60847958125114521</v>
       </c>
       <c r="M10" s="23">
@@ -16615,15 +16628,15 @@
         <v>100.96776249901697</v>
       </c>
       <c r="N10" s="31">
-        <f>D10*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D10*AguaPotSanBas!$D$12/86400</f>
         <v>127.88449074074074</v>
       </c>
       <c r="O10" s="31">
-        <f>F10*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F10*AguaPotSanBas!$D$12/86400</f>
         <v>109.07011381066648</v>
       </c>
       <c r="P10" s="31">
-        <f>G10*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G10*AguaPotSanBas!$D$12/86400</f>
         <v>18.81437693007426</v>
       </c>
       <c r="Q10" s="31">
@@ -16673,15 +16686,15 @@
         <v>18827.852531645563</v>
       </c>
       <c r="J11" s="31">
+        <f>D11/ TipoSueloEPE!$D$5</f>
+        <v>5.134888476656938</v>
+      </c>
+      <c r="K11" s="31">
         <f t="shared" si="2"/>
-        <v>5.134888476656938</v>
-      </c>
-      <c r="K11" s="31">
+        <v>125.05902729845596</v>
+      </c>
+      <c r="L11" s="31">
         <f t="shared" si="3"/>
-        <v>125.05902729845596</v>
-      </c>
-      <c r="L11" s="31">
-        <f t="shared" si="4"/>
         <v>0.96816419645642193</v>
       </c>
       <c r="M11" s="23">
@@ -16689,15 +16702,15 @@
         <v>122.71432092404906</v>
       </c>
       <c r="N11" s="31">
-        <f>D11*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D11*AguaPotSanBas!$D$12/86400</f>
         <v>162.0986111111111</v>
       </c>
       <c r="O11" s="31">
-        <f>F11*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F11*AguaPotSanBas!$D$12/86400</f>
         <v>132.56176643029988</v>
       </c>
       <c r="P11" s="31">
-        <f>G11*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G11*AguaPotSanBas!$D$12/86400</f>
         <v>29.536844680811214</v>
       </c>
       <c r="Q11" s="31">
@@ -16747,15 +16760,15 @@
         <v>18497.138291139236</v>
       </c>
       <c r="J12" s="31">
+        <f>D12/ TipoSueloEPE!$D$5</f>
+        <v>6.6198474285520703</v>
+      </c>
+      <c r="K12" s="31">
         <f t="shared" si="2"/>
-        <v>6.6198474285520703</v>
-      </c>
-      <c r="K12" s="31">
+        <v>101.11270496214216</v>
+      </c>
+      <c r="L12" s="31">
         <f t="shared" si="3"/>
-        <v>101.11270496214216</v>
-      </c>
-      <c r="L12" s="31">
-        <f t="shared" si="4"/>
         <v>1.5885671549218519</v>
       </c>
       <c r="M12" s="23">
@@ -16763,15 +16776,15 @@
         <v>149.37608047597337</v>
       </c>
       <c r="N12" s="31">
-        <f>D12*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D12*AguaPotSanBas!$D$12/86400</f>
         <v>208.97592592592594</v>
       </c>
       <c r="O12" s="31">
-        <f>F12*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F12*AguaPotSanBas!$D$12/86400</f>
         <v>161.3630498968848</v>
       </c>
       <c r="P12" s="31">
-        <f>G12*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G12*AguaPotSanBas!$D$12/86400</f>
         <v>47.612876029041132</v>
       </c>
       <c r="Q12" s="31">
@@ -16821,15 +16834,15 @@
         <v>18471.698734177211</v>
       </c>
       <c r="J13" s="31">
+        <f>D13/ TipoSueloEPE!$D$5</f>
+        <v>6.5659515799696333</v>
+      </c>
+      <c r="K13" s="31">
         <f t="shared" si="2"/>
-        <v>6.5659515799696333</v>
-      </c>
-      <c r="K13" s="31">
+        <v>97.319889396976592</v>
+      </c>
+      <c r="L13" s="31">
         <f t="shared" si="3"/>
-        <v>97.319889396976592</v>
-      </c>
-      <c r="L13" s="31">
-        <f t="shared" si="4"/>
         <v>1.6021074499205195</v>
       </c>
       <c r="M13" s="23">
@@ -16837,15 +16850,15 @@
         <v>147.48653076793087</v>
       </c>
       <c r="N13" s="31">
-        <f>D13*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D13*AguaPotSanBas!$D$12/86400</f>
         <v>207.27453703703705</v>
       </c>
       <c r="O13" s="31">
-        <f>F13*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F13*AguaPotSanBas!$D$12/86400</f>
         <v>159.32186965671548</v>
       </c>
       <c r="P13" s="31">
-        <f>G13*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G13*AguaPotSanBas!$D$12/86400</f>
         <v>47.952667380321571</v>
       </c>
       <c r="Q13" s="31">
@@ -16895,15 +16908,15 @@
         <v>18344.500949367088</v>
       </c>
       <c r="J14" s="31">
+        <f>D14/ TipoSueloEPE!$D$5</f>
+        <v>7.2038731096672723</v>
+      </c>
+      <c r="K14" s="31">
         <f t="shared" si="2"/>
-        <v>7.2038731096672723</v>
-      </c>
-      <c r="K14" s="31">
+        <v>92.670463994036567</v>
+      </c>
+      <c r="L14" s="31">
         <f t="shared" si="3"/>
-        <v>92.670463994036567</v>
-      </c>
-      <c r="L14" s="31">
-        <f t="shared" si="4"/>
         <v>1.9041990769989954</v>
       </c>
       <c r="M14" s="23">
@@ -16911,15 +16924,15 @@
         <v>158.121627336312</v>
       </c>
       <c r="N14" s="31">
-        <f>D14*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D14*AguaPotSanBas!$D$12/86400</f>
         <v>227.41249999999999</v>
       </c>
       <c r="O14" s="31">
-        <f>F14*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F14*AguaPotSanBas!$D$12/86400</f>
         <v>170.81039990033705</v>
       </c>
       <c r="P14" s="31">
-        <f>G14*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G14*AguaPotSanBas!$D$12/86400</f>
         <v>56.60210009966297</v>
       </c>
       <c r="Q14" s="31">
@@ -16969,15 +16982,15 @@
         <v>18217.303164556957</v>
       </c>
       <c r="J15" s="31">
+        <f>D15/ TipoSueloEPE!$D$5</f>
+        <v>7.8730542315427252</v>
+      </c>
+      <c r="K15" s="31">
         <f t="shared" si="2"/>
-        <v>7.8730542315427252</v>
-      </c>
-      <c r="K15" s="31">
+        <v>88.964621979020393</v>
+      </c>
+      <c r="L15" s="31">
         <f t="shared" si="3"/>
-        <v>88.964621979020393</v>
-      </c>
-      <c r="L15" s="31">
-        <f t="shared" si="4"/>
         <v>2.2433586604530014</v>
       </c>
       <c r="M15" s="23">
@@ -16985,15 +16998,15 @@
         <v>168.77258276353993</v>
       </c>
       <c r="N15" s="31">
-        <f>D15*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D15*AguaPotSanBas!$D$12/86400</f>
         <v>248.53726851851852</v>
       </c>
       <c r="O15" s="31">
-        <f>F15*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F15*AguaPotSanBas!$D$12/86400</f>
         <v>182.31606162728079</v>
       </c>
       <c r="P15" s="31">
-        <f>G15*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G15*AguaPotSanBas!$D$12/86400</f>
         <v>66.221206891237728</v>
       </c>
       <c r="Q15" s="31">
@@ -17043,15 +17056,15 @@
         <v>18090.105379746834</v>
       </c>
       <c r="J16" s="31">
+        <f>D16/ TipoSueloEPE!$D$5</f>
+        <v>8.5733409574571837</v>
+      </c>
+      <c r="K16" s="31">
         <f t="shared" si="2"/>
-        <v>8.5733409574571837</v>
-      </c>
-      <c r="K16" s="31">
+        <v>85.919104136585645</v>
+      </c>
+      <c r="L16" s="31">
         <f t="shared" si="3"/>
-        <v>85.919104136585645</v>
-      </c>
-      <c r="L16" s="31">
-        <f t="shared" si="4"/>
         <v>2.6220932270708506</v>
       </c>
       <c r="M16" s="23">
@@ -17059,15 +17072,15 @@
         <v>179.38808581015181</v>
       </c>
       <c r="N16" s="31">
-        <f>D16*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D16*AguaPotSanBas!$D$12/86400</f>
         <v>270.64398148148149</v>
       </c>
       <c r="O16" s="31">
-        <f>F16*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F16*AguaPotSanBas!$D$12/86400</f>
         <v>193.78342602948499</v>
       </c>
       <c r="P16" s="31">
-        <f>G16*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G16*AguaPotSanBas!$D$12/86400</f>
         <v>76.860555451996504</v>
       </c>
       <c r="Q16" s="31">
@@ -17117,15 +17130,15 @@
         <v>17962.907594936711</v>
       </c>
       <c r="J17" s="31">
+        <f>D17/ TipoSueloEPE!$D$5</f>
+        <v>9.3048872755494543</v>
+      </c>
+      <c r="K17" s="31">
         <f t="shared" si="2"/>
-        <v>9.3048872755494543</v>
-      </c>
-      <c r="K17" s="31">
+        <v>83.348419603327102</v>
+      </c>
+      <c r="L17" s="31">
         <f t="shared" si="3"/>
-        <v>83.348419603327102</v>
-      </c>
-      <c r="L17" s="31">
-        <f t="shared" si="4"/>
         <v>3.0430698120149247</v>
       </c>
       <c r="M17" s="23">
@@ -17133,15 +17146,15 @@
         <v>189.92342724275173</v>
       </c>
       <c r="N17" s="31">
-        <f>D17*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D17*AguaPotSanBas!$D$12/86400</f>
         <v>293.73750000000001</v>
       </c>
       <c r="O17" s="31">
-        <f>F17*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F17*AguaPotSanBas!$D$12/86400</f>
         <v>205.16419609556513</v>
       </c>
       <c r="P17" s="31">
-        <f>G17*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G17*AguaPotSanBas!$D$12/86400</f>
         <v>88.573303904434866</v>
       </c>
       <c r="Q17" s="31">
@@ -17191,15 +17204,15 @@
         <v>17835.70981012658</v>
       </c>
       <c r="J18" s="31">
+        <f>D18/ TipoSueloEPE!$D$5</f>
+        <v>10.067539197680732</v>
+      </c>
+      <c r="K18" s="31">
         <f t="shared" si="2"/>
-        <v>10.067539197680732</v>
-      </c>
-      <c r="K18" s="31">
+        <v>81.121793848455937</v>
+      </c>
+      <c r="L18" s="31">
         <f t="shared" si="3"/>
-        <v>81.121793848455937</v>
-      </c>
-      <c r="L18" s="31">
-        <f t="shared" si="4"/>
         <v>3.5089359959726703</v>
       </c>
       <c r="M18" s="23">
@@ -17207,15 +17220,15 @@
         <v>200.32745375028594</v>
       </c>
       <c r="N18" s="31">
-        <f>D18*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D18*AguaPotSanBas!$D$12/86400</f>
         <v>317.81296296296296</v>
       </c>
       <c r="O18" s="31">
-        <f>F18*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F18*AguaPotSanBas!$D$12/86400</f>
         <v>216.40311361913604</v>
       </c>
       <c r="P18" s="31">
-        <f>G18*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G18*AguaPotSanBas!$D$12/86400</f>
         <v>101.40984934382691</v>
       </c>
       <c r="Q18" s="31">
@@ -17265,15 +17278,15 @@
         <v>17708.512025316457</v>
       </c>
       <c r="J19" s="31">
+        <f>D19/ TipoSueloEPE!$D$5</f>
+        <v>10.861399382610221</v>
+      </c>
+      <c r="K19" s="31">
         <f t="shared" si="2"/>
-        <v>10.861399382610221</v>
-      </c>
-      <c r="K19" s="31">
+        <v>79.14795840704025</v>
+      </c>
+      <c r="L19" s="31">
         <f t="shared" si="3"/>
-        <v>79.14795840704025</v>
-      </c>
-      <c r="L19" s="31">
-        <f t="shared" si="4"/>
         <v>4.0224985861803235</v>
       </c>
       <c r="M19" s="23">
@@ -17281,15 +17294,15 @@
         <v>210.55430312221091</v>
       </c>
       <c r="N19" s="31">
-        <f>D19*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D19*AguaPotSanBas!$D$12/86400</f>
         <v>342.87361111111113</v>
       </c>
       <c r="O19" s="31">
-        <f>F19*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F19*AguaPotSanBas!$D$12/86400</f>
         <v>227.4506360888081</v>
       </c>
       <c r="P19" s="31">
-        <f>G19*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G19*AguaPotSanBas!$D$12/86400</f>
         <v>115.42297502230299</v>
       </c>
       <c r="Q19" s="31">
@@ -17339,15 +17352,15 @@
         <v>17581.314240506334</v>
       </c>
       <c r="J20" s="31">
+        <f>D20/ TipoSueloEPE!$D$5</f>
+        <v>11.686467830337921</v>
+      </c>
+      <c r="K20" s="31">
         <f t="shared" si="2"/>
-        <v>11.686467830337921</v>
-      </c>
-      <c r="K20" s="31">
+        <v>77.359322634223886</v>
+      </c>
+      <c r="L20" s="31">
         <f t="shared" si="3"/>
-        <v>77.359322634223886</v>
-      </c>
-      <c r="L20" s="31">
-        <f t="shared" si="4"/>
         <v>4.5866133108988514</v>
       </c>
       <c r="M20" s="23">
@@ -17355,15 +17368,15 @@
         <v>220.55596512209718</v>
       </c>
       <c r="N20" s="31">
-        <f>D20*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D20*AguaPotSanBas!$D$12/86400</f>
         <v>368.91944444444442</v>
       </c>
       <c r="O20" s="31">
-        <f>F20*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F20*AguaPotSanBas!$D$12/86400</f>
         <v>238.25490059485804</v>
       </c>
       <c r="P20" s="31">
-        <f>G20*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G20*AguaPotSanBas!$D$12/86400</f>
         <v>130.66454384958638</v>
       </c>
       <c r="Q20" s="31">
@@ -17413,15 +17426,15 @@
         <v>17454.116455696203</v>
       </c>
       <c r="J21" s="31">
+        <f>D21/ TipoSueloEPE!$D$5</f>
+        <v>12.542641882104627</v>
+      </c>
+      <c r="K21" s="31">
         <f t="shared" si="2"/>
-        <v>12.542641882104627</v>
-      </c>
-      <c r="K21" s="31">
+        <v>75.704634423561302</v>
+      </c>
+      <c r="L21" s="31">
         <f t="shared" si="3"/>
-        <v>75.704634423561302</v>
-      </c>
-      <c r="L21" s="31">
-        <f t="shared" si="4"/>
         <v>5.2041765484263589</v>
       </c>
       <c r="M21" s="23">
@@ -17429,15 +17442,15 @@
         <v>230.28254470164484</v>
       </c>
       <c r="N21" s="31">
-        <f>D21*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D21*AguaPotSanBas!$D$12/86400</f>
         <v>395.94722222222219</v>
       </c>
       <c r="O21" s="31">
-        <f>F21*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F21*AguaPotSanBas!$D$12/86400</f>
         <v>248.76200816535706</v>
       </c>
       <c r="P21" s="31">
-        <f>G21*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G21*AguaPotSanBas!$D$12/86400</f>
         <v>147.18521405686514</v>
       </c>
       <c r="Q21" s="31">
@@ -17487,15 +17500,15 @@
         <v>17326.91867088608</v>
       </c>
       <c r="J22" s="31">
+        <f>D22/ TipoSueloEPE!$D$5</f>
+        <v>13.430075526049146</v>
+      </c>
+      <c r="K22" s="31">
         <f t="shared" si="2"/>
-        <v>13.430075526049146</v>
-      </c>
-      <c r="K22" s="31">
+        <v>74.146223681273128</v>
+      </c>
+      <c r="L22" s="31">
         <f t="shared" si="3"/>
-        <v>74.146223681273128</v>
-      </c>
-      <c r="L22" s="31">
-        <f t="shared" si="4"/>
         <v>5.8782739580148107</v>
       </c>
       <c r="M22" s="23">
@@ -17503,15 +17516,15 @@
         <v>239.68893780643464</v>
       </c>
       <c r="N22" s="31">
-        <f>D22*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D22*AguaPotSanBas!$D$12/86400</f>
         <v>423.96180555555554</v>
       </c>
       <c r="O22" s="31">
-        <f>F22*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F22*AguaPotSanBas!$D$12/86400</f>
         <v>258.92323528472878</v>
       </c>
       <c r="P22" s="31">
-        <f>G22*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G22*AguaPotSanBas!$D$12/86400</f>
         <v>165.03857027082677</v>
       </c>
       <c r="Q22" s="31">
@@ -17561,15 +17574,15 @@
         <v>17199.720886075949</v>
       </c>
       <c r="J23" s="31">
+        <f>D23/ TipoSueloEPE!$D$5</f>
+        <v>14.348614774032672</v>
+      </c>
+      <c r="K23" s="31">
         <f t="shared" si="2"/>
-        <v>14.348614774032672</v>
-      </c>
-      <c r="K23" s="31">
+        <v>72.653166399617703</v>
+      </c>
+      <c r="L23" s="31">
         <f t="shared" si="3"/>
-        <v>72.653166399617703</v>
-      </c>
-      <c r="L23" s="31">
-        <f t="shared" si="4"/>
         <v>6.6119528017713955</v>
       </c>
       <c r="M23" s="23">
@@ -17577,15 +17590,15 @@
         <v>248.72438594643623</v>
       </c>
       <c r="N23" s="31">
-        <f>D23*(AguaPotSanBas!$D$12)/86400</f>
+        <f>D23*AguaPotSanBas!$D$12/86400</f>
         <v>452.95833333333331</v>
       </c>
       <c r="O23" s="31">
-        <f>F23*(AguaPotSanBas!$D$12)/86400</f>
+        <f>F23*AguaPotSanBas!$D$12/86400</f>
         <v>268.68375025077984</v>
       </c>
       <c r="P23" s="31">
-        <f>G23*(AguaPotSanBas!$D$12)/86400</f>
+        <f>G23*AguaPotSanBas!$D$12/86400</f>
         <v>184.27458308255348</v>
       </c>
       <c r="Q23" s="31">

--- a/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
+++ b/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\PopulationGIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9CFE48-CB36-4F5A-B7C7-BFB6B98A7A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C678240-8518-48AB-94A4-6E374E108664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="769" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="769" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PoblacionSISBEN" sheetId="10" r:id="rId1"/>
     <sheet name="TipoSueloEPE" sheetId="11" r:id="rId2"/>
     <sheet name="AguaPotSanBas" sheetId="14" r:id="rId3"/>
     <sheet name="PoblacionAreaDensEPEQ" sheetId="6" r:id="rId4"/>
-    <sheet name="QAcueductoChart" sheetId="15" r:id="rId5"/>
-    <sheet name="QAlcantarilladoChart" sheetId="16" r:id="rId6"/>
-    <sheet name="PoblacionGISChart" sheetId="9" r:id="rId7"/>
-    <sheet name="DensidadGISChart" sheetId="12" r:id="rId8"/>
-    <sheet name="EPE" sheetId="13" r:id="rId9"/>
+    <sheet name="PoblacionGIS" sheetId="17" r:id="rId5"/>
+    <sheet name="QAcueductoChart" sheetId="15" r:id="rId6"/>
+    <sheet name="QAlcantarilladoChart" sheetId="16" r:id="rId7"/>
+    <sheet name="PoblacionGISChart" sheetId="9" r:id="rId8"/>
+    <sheet name="DensidadGISChart" sheetId="12" r:id="rId9"/>
+    <sheet name="EPE" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -111,7 +112,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7DBB7662-5E92-4F88-874E-C697DB91CB55}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{7DBB7662-5E92-4F88-874E-C697DB91CB55}">
       <text>
         <r>
           <rPr>
@@ -124,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{C4B0D29D-3A5D-4F24-A721-A2E561845AA5}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{C4B0D29D-3A5D-4F24-A721-A2E561845AA5}">
       <text>
         <r>
           <rPr>
@@ -137,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{28668795-8F94-4A02-B516-1F590D6429F3}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{28668795-8F94-4A02-B516-1F590D6429F3}">
       <text>
         <r>
           <rPr>
@@ -150,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{0A60AD00-62FD-43D7-B58F-0AF908A53283}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{0A60AD00-62FD-43D7-B58F-0AF908A53283}">
       <text>
         <r>
           <rPr>
@@ -163,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{CDE42DCF-29F9-40FF-BC55-C4625D85D6AA}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{CDE42DCF-29F9-40FF-BC55-C4625D85D6AA}">
       <text>
         <r>
           <rPr>
@@ -176,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{5FC28843-A7DE-47EA-BB40-A4CEE76DEDA1}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{5FC28843-A7DE-47EA-BB40-A4CEE76DEDA1}">
       <text>
         <r>
           <rPr>
@@ -190,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{57E91A39-6AE6-4ADF-83DD-6D7247F42E63}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{57E91A39-6AE6-4ADF-83DD-6D7247F42E63}">
       <text>
         <r>
           <rPr>
@@ -203,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{F1E8A7FD-5B5C-4812-B2D6-2CBD71A92030}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{F1E8A7FD-5B5C-4812-B2D6-2CBD71A92030}">
       <text>
         <r>
           <rPr>
@@ -216,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{2DD09233-94AA-4DD1-96AF-1EFE2862457A}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{2DD09233-94AA-4DD1-96AF-1EFE2862457A}">
       <text>
         <r>
           <rPr>
@@ -229,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{CFB7FB5E-B583-4F90-8CB1-C4BFEC478A70}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{CFB7FB5E-B583-4F90-8CB1-C4BFEC478A70}">
       <text>
         <r>
           <rPr>
@@ -242,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{46767F03-0BB1-43B9-B66D-A9FB380A4F1F}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{46767F03-0BB1-43B9-B66D-A9FB380A4F1F}">
       <text>
         <r>
           <rPr>
@@ -255,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{91FBA825-8321-4C16-BA53-BD03C5EB30EE}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{91FBA825-8321-4C16-BA53-BD03C5EB30EE}">
       <text>
         <r>
           <rPr>
@@ -268,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{DE5723A9-8645-48C5-A8C8-B1859F5ECEC9}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{DE5723A9-8645-48C5-A8C8-B1859F5ECEC9}">
       <text>
         <r>
           <rPr>
@@ -281,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{7AC6D96D-B4D2-4AD2-97A8-3ACFD250E9AE}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{7AC6D96D-B4D2-4AD2-97A8-3ACFD250E9AE}">
       <text>
         <r>
           <rPr>
@@ -294,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{4A5B18AA-D2A8-4139-AB75-B9D6581DC6A6}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{4A5B18AA-D2A8-4139-AB75-B9D6581DC6A6}">
       <text>
         <r>
           <rPr>
@@ -307,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{B6D4EC77-19BF-42EB-AE28-96E9A12A68FD}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{B6D4EC77-19BF-42EB-AE28-96E9A12A68FD}">
       <text>
         <r>
           <rPr>
@@ -347,7 +348,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="116">
   <si>
     <t>Fuente</t>
   </si>
@@ -359,9 +360,6 @@
   </si>
   <si>
     <t>Zona</t>
-  </si>
-  <si>
-    <t>Municipio</t>
   </si>
   <si>
     <t>c1</t>
@@ -619,6 +617,90 @@
   </si>
   <si>
     <t>Dotación neta por habitante y clima - Título B RAS (L/hab/día) y coeficientes de retorno aguas residuales domésticas QD - Título D RAS</t>
+  </si>
+  <si>
+    <t>Suelo</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Poblacion</t>
+  </si>
+  <si>
+    <t>1905/12/31</t>
+  </si>
+  <si>
+    <t>1928/12/31</t>
+  </si>
+  <si>
+    <t>1938/12/31</t>
+  </si>
+  <si>
+    <t>1951/12/31</t>
+  </si>
+  <si>
+    <t>1964/12/31</t>
+  </si>
+  <si>
+    <t>1973/12/31</t>
+  </si>
+  <si>
+    <t>1985/12/31</t>
+  </si>
+  <si>
+    <t>1993/12/31</t>
+  </si>
+  <si>
+    <t>1995/12/31</t>
+  </si>
+  <si>
+    <t>2005/12/31</t>
+  </si>
+  <si>
+    <t>2018/12/31</t>
+  </si>
+  <si>
+    <t>2019/12/31</t>
+  </si>
+  <si>
+    <t>2024/12/31</t>
+  </si>
+  <si>
+    <t>2029/12/31</t>
+  </si>
+  <si>
+    <t>2034/12/31</t>
+  </si>
+  <si>
+    <t>2039/12/31</t>
+  </si>
+  <si>
+    <t>2044/12/31</t>
+  </si>
+  <si>
+    <t>2049/12/31</t>
+  </si>
+  <si>
+    <t>2054/12/31</t>
+  </si>
+  <si>
+    <t>2059/12/31</t>
+  </si>
+  <si>
+    <t>2064/12/31</t>
+  </si>
+  <si>
+    <t>2069/12/31</t>
+  </si>
+  <si>
+    <t>Densidad</t>
+  </si>
+  <si>
+    <t>QAlc</t>
+  </si>
+  <si>
+    <t>QAcu</t>
   </si>
 </sst>
 </file>
@@ -3903,7 +3985,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionAreaDensEPEQ!$N$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4035,7 +4117,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4110,7 +4192,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$N$2:$N$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$M$2:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4195,7 +4277,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionAreaDensEPEQ!$O$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4296,7 +4378,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4371,7 +4453,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$O$2:$O$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$N$2:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4388,58 +4470,58 @@
                   <c:v>33.424999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.28094218929408</c:v>
+                  <c:v>43.281712962962963</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.036407075099092</c:v>
+                  <c:v>60.03634259259259</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86.621561736626305</c:v>
+                  <c:v>86.621759259259264</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97.109862202337112</c:v>
+                  <c:v>97.110416666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>109.07011381066648</c:v>
+                  <c:v>109.07037037037037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>132.56176643029988</c:v>
+                  <c:v>132.5625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>161.3630498968848</c:v>
+                  <c:v>161.36296296296297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>159.32186965671548</c:v>
+                  <c:v>159.32129629629631</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>170.81039990033705</c:v>
+                  <c:v>170.80972222222223</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>182.31606162728079</c:v>
+                  <c:v>182.31597222222223</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>193.78342602948499</c:v>
+                  <c:v>193.78333333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>205.16419609556513</c:v>
+                  <c:v>205.1648148148148</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>216.40311361913604</c:v>
+                  <c:v>216.40370370370371</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>227.4506360888081</c:v>
+                  <c:v>227.45138888888889</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>238.25490059485804</c:v>
+                  <c:v>238.25439814814814</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>248.76200816535706</c:v>
+                  <c:v>248.76249999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>258.92323528472878</c:v>
+                  <c:v>258.92384259259262</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>268.68375025077984</c:v>
+                  <c:v>268.68333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4456,7 +4538,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionAreaDensEPEQ!$P$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4557,7 +4639,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4632,7 +4714,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$P$2:$P$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$O$2:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4649,58 +4731,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7248448477429537</c:v>
+                  <c:v>1.7240740740740741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5126669989749848</c:v>
+                  <c:v>4.5127314814814818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.927975300410736</c:v>
+                  <c:v>10.927777777777777</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.821850760625859</c:v>
+                  <c:v>15.821296296296296</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.81437693007426</c:v>
+                  <c:v>18.814120370370372</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.536844680811214</c:v>
+                  <c:v>29.536111111111111</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.612876029041132</c:v>
+                  <c:v>47.61296296296296</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.952667380321571</c:v>
+                  <c:v>47.953240740740739</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56.60210009966297</c:v>
+                  <c:v>56.602777777777774</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66.221206891237728</c:v>
+                  <c:v>66.221296296296302</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>76.860555451996504</c:v>
+                  <c:v>76.860648148148144</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>88.573303904434866</c:v>
+                  <c:v>88.572685185185179</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>101.40984934382691</c:v>
+                  <c:v>101.40925925925926</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>115.42297502230299</c:v>
+                  <c:v>115.42222222222222</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>130.66454384958638</c:v>
+                  <c:v>130.66504629629631</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>147.18521405686514</c:v>
+                  <c:v>147.18472222222223</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>165.03857027082677</c:v>
+                  <c:v>165.03796296296295</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>184.27458308255348</c:v>
+                  <c:v>184.27500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5119,7 +5201,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionAreaDensEPEQ!$Q$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5207,7 +5289,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5282,7 +5364,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$Q$2:$Q$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$P$2:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5367,7 +5449,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionAreaDensEPEQ!$R$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5468,7 +5550,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5543,7 +5625,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$R$2:$R$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$Q$2:$Q$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5560,58 +5642,58 @@
                   <c:v>28.411249999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.788800860899968</c:v>
+                  <c:v>36.789456018518521</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.030946013834225</c:v>
+                  <c:v>51.030891203703703</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73.628327476132355</c:v>
+                  <c:v>73.628495370370374</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.543382871986537</c:v>
+                  <c:v>82.543854166666662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92.709596739066512</c:v>
+                  <c:v>92.709814814814806</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>112.6775014657549</c:v>
+                  <c:v>112.67812499999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>137.15859241235208</c:v>
+                  <c:v>137.15851851851852</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>135.42358920820814</c:v>
+                  <c:v>135.42310185185187</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>145.18883991528648</c:v>
+                  <c:v>145.18826388888888</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>154.96865238318867</c:v>
+                  <c:v>154.96857638888889</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>164.71591212506223</c:v>
+                  <c:v>164.71583333333334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>174.38956668123035</c:v>
+                  <c:v>174.39009259259257</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>183.94264657626562</c:v>
+                  <c:v>183.94314814814814</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>193.33304067548687</c:v>
+                  <c:v>193.33368055555556</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>202.51666550562933</c:v>
+                  <c:v>202.51623842592591</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>211.4477069405535</c:v>
+                  <c:v>211.44812499999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>220.08474999201945</c:v>
+                  <c:v>220.08526620370372</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>228.38118771316286</c:v>
+                  <c:v>228.38083333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5628,7 +5710,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionAreaDensEPEQ!$S$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5729,7 +5811,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5804,7 +5886,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$S$2:$S$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$R$2:$R$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5821,58 +5903,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4661181205815106</c:v>
+                  <c:v>1.465462962962963</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8357669491287369</c:v>
+                  <c:v>3.8358217592592596</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2887790053491255</c:v>
+                  <c:v>9.2886111111111109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.448573146531979</c:v>
+                  <c:v>13.448101851851851</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.992220390563121</c:v>
+                  <c:v>15.992002314814815</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.106317978689532</c:v>
+                  <c:v>25.105694444444445</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.470944624684961</c:v>
+                  <c:v>40.471018518518513</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.759767273273333</c:v>
+                  <c:v>40.760254629629628</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48.111785084713524</c:v>
+                  <c:v>48.112361111111106</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56.288025857552064</c:v>
+                  <c:v>56.288101851851856</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>65.331472134197028</c:v>
+                  <c:v>65.331550925925924</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75.287308318769632</c:v>
+                  <c:v>75.286782407407401</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>86.198371942252862</c:v>
+                  <c:v>86.197870370370367</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>98.109528768957546</c:v>
+                  <c:v>98.108888888888885</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>111.06486227214842</c:v>
+                  <c:v>111.06528935185186</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>125.10743194833536</c:v>
+                  <c:v>125.1070138888889</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>140.28278473020274</c:v>
+                  <c:v>140.28226851851849</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>156.63339562017046</c:v>
+                  <c:v>156.63374999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6283,7 +6365,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionAreaDensEPEQ!$D$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6437,7 +6519,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6512,7 +6594,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$D$2:$D$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6597,7 +6679,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionAreaDensEPEQ!$F$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6698,7 +6780,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6773,7 +6855,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$F$2:$F$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$E$2:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6790,58 +6872,58 @@
                   <c:v>20628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26710.524322535777</c:v>
+                  <c:v>26711</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37051.039794918295</c:v>
+                  <c:v>37051</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53457.878100317947</c:v>
+                  <c:v>53458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59930.65781629947</c:v>
+                  <c:v>59931</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67311.841666011314</c:v>
+                  <c:v>67312</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81809.547282699365</c:v>
+                  <c:v>81810</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>99584.053650648901</c:v>
+                  <c:v>99584</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>98324.35384528726</c:v>
+                  <c:v>98324</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105414.418224208</c:v>
+                  <c:v>105414</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>112515.05517569328</c:v>
+                  <c:v>112515</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>119592.05720676787</c:v>
+                  <c:v>119592</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>126615.61816183449</c:v>
+                  <c:v>126616</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>133551.63583352396</c:v>
+                  <c:v>133552</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>140369.53541480729</c:v>
+                  <c:v>140370</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>147037.31008139811</c:v>
+                  <c:v>147037</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>153521.69646776322</c:v>
+                  <c:v>153522</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>159792.62520428977</c:v>
+                  <c:v>159793</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>165816.25729762414</c:v>
+                  <c:v>165816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6858,7 +6940,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionAreaDensEPEQ!$G$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6959,7 +7041,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -7034,7 +7116,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$G$2:$G$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$F$2:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -7051,58 +7133,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1064.4756774642228</c:v>
+                  <c:v>1064</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2784.9602050817048</c:v>
+                  <c:v>2785</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6744.1218996820535</c:v>
+                  <c:v>6744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9764.3421837005299</c:v>
+                  <c:v>9764</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11611.158333988686</c:v>
+                  <c:v>11611</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18228.452717300635</c:v>
+                  <c:v>18228</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29383.946349351099</c:v>
+                  <c:v>29384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29593.64615471274</c:v>
+                  <c:v>29594</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34931.581775792001</c:v>
+                  <c:v>34932</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40867.944824306716</c:v>
+                  <c:v>40868</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47433.942793232127</c:v>
+                  <c:v>47434</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>54662.381838165515</c:v>
+                  <c:v>54662</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>62584.364166476036</c:v>
+                  <c:v>62584</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>71232.464585192705</c:v>
+                  <c:v>71232</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80638.689918601885</c:v>
+                  <c:v>80639</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>90834.30353223678</c:v>
+                  <c:v>90834</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>101852.37479571023</c:v>
+                  <c:v>101852</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>113723.74270237586</c:v>
+                  <c:v>113724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7521,7 +7603,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionAreaDensEPEQ!$J$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7630,7 +7712,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -7705,7 +7787,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$J$2:$J$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$I$2:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
@@ -7790,7 +7872,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionAreaDensEPEQ!$K$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7922,7 +8004,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -7997,7 +8079,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$K$2:$K$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$J$2:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
@@ -8014,58 +8096,58 @@
                   <c:v>20628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26710.524322535777</c:v>
+                  <c:v>26711</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37051.039794918295</c:v>
+                  <c:v>37051</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>367.72064906401482</c:v>
+                  <c:v>367.72148757522774</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>171.77385267199924</c:v>
+                  <c:v>171.77483344235455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168.37562089567578</c:v>
+                  <c:v>168.37601695650241</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>125.05902729845596</c:v>
+                  <c:v>125.05971934953239</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>101.11270496214216</c:v>
+                  <c:v>101.11265048793635</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97.319889396976592</c:v>
+                  <c:v>97.319539166511078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>92.670463994036567</c:v>
+                  <c:v>92.670096330560725</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>88.964621979020393</c:v>
+                  <c:v>88.96457835210586</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>85.919104136585645</c:v>
+                  <c:v>85.919063037248776</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83.348419603327102</c:v>
+                  <c:v>83.34867095942441</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>81.121793848455937</c:v>
+                  <c:v>81.122015050072918</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79.14795840704025</c:v>
+                  <c:v>79.148220365373305</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>77.359322634223886</c:v>
+                  <c:v>77.359159494086825</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75.704634423561302</c:v>
+                  <c:v>75.704784101408464</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>74.146223681273128</c:v>
+                  <c:v>74.146397592218833</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>72.653166399617703</c:v>
+                  <c:v>72.653053663463808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8082,7 +8164,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionAreaDensEPEQ!$L$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8189,7 +8271,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -8264,7 +8346,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$L$2:$L$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$K$2:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
@@ -8281,58 +8363,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.464168084957681E-2</c:v>
+                  <c:v>5.4617263367113221E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14295761746980931</c:v>
+                  <c:v>0.14295966022313</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34877417272968836</c:v>
+                  <c:v>0.34876786865313153</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51033697073568718</c:v>
+                  <c:v>0.5103190863774909</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60847958125114521</c:v>
+                  <c:v>0.60847128380171234</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96816419645642193</c:v>
+                  <c:v>0.96814015137215781</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5885671549218519</c:v>
+                  <c:v>1.5885700554055946</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6021074499205195</c:v>
+                  <c:v>1.6021266059977355</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9041990769989954</c:v>
+                  <c:v>1.9042218753410789</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2433586604530014</c:v>
+                  <c:v>2.243361689204995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.6220932270708506</c:v>
+                  <c:v>2.6220963893944891</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0430698120149247</c:v>
+                  <c:v>3.043048554979364</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.5089359959726703</c:v>
+                  <c:v>3.5089155781434997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0224985861803235</c:v>
+                  <c:v>4.0224723510459404</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.5866133108988514</c:v>
+                  <c:v>4.5866309478851361</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.2041765484263589</c:v>
+                  <c:v>5.2041591581312074</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.8782739580148107</c:v>
+                  <c:v>5.8782523271803067</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.6119528017713955</c:v>
+                  <c:v>6.6119677611783443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8757,7 +8839,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PoblacionAreaDensEPEQ!$M$1</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8845,7 +8927,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$C$2:$C$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -8920,7 +9002,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionAreaDensEPEQ!$M$2:$M$23</c:f>
+              <c:f>PoblacionAreaDensEPEQ!$L$2:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -8937,58 +9019,58 @@
                   <c:v>30.942</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.065786483803663</c:v>
+                  <c:v>40.066499999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.576559692377444</c:v>
+                  <c:v>55.576500000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.186817150476926</c:v>
+                  <c:v>80.186999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>89.895986724449202</c:v>
+                  <c:v>89.896500000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100.96776249901697</c:v>
+                  <c:v>100.968</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>122.71432092404906</c:v>
+                  <c:v>122.715</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>149.37608047597337</c:v>
+                  <c:v>149.376</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>147.48653076793087</c:v>
+                  <c:v>147.48599999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>158.121627336312</c:v>
+                  <c:v>158.12100000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>168.77258276353993</c:v>
+                  <c:v>168.77250000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>179.38808581015181</c:v>
+                  <c:v>179.38800000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>189.92342724275173</c:v>
+                  <c:v>189.92400000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>200.32745375028594</c:v>
+                  <c:v>200.328</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>210.55430312221091</c:v>
+                  <c:v>210.55500000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>220.55596512209718</c:v>
+                  <c:v>220.55549999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>230.28254470164484</c:v>
+                  <c:v>230.28299999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>239.68893780643464</c:v>
+                  <c:v>239.68950000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>248.72438594643623</c:v>
+                  <c:v>248.72399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14984,7 +15066,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.6">
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.6">
@@ -14995,22 +15077,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.6">
@@ -15073,35 +15155,35 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.6">
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.6">
       <c r="B8" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="F8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.6">
       <c r="B9" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4" cm="1">
         <f t="array" ref="C9">INDEX(LINEST(G4:G5,B4:B5^{1},TRUE,TRUE),1,1)</f>
@@ -15129,7 +15211,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.6">
       <c r="B10" s="28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="6" cm="1">
         <f t="array" ref="C10">INDEX(LINEST(G4:G5,B4:B5^{1},TRUE,TRUE),1,2)</f>
@@ -15157,7 +15239,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.6">
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.6">
@@ -15165,7 +15247,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -15176,10 +15258,10 @@
     </row>
     <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B14" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
@@ -15210,10 +15292,10 @@
     </row>
     <row r="17" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B17" s="36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
@@ -15278,63 +15360,63 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B5" s="51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="52"/>
       <c r="D5" s="47">
         <v>19482.02</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B6" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="49">
         <v>15</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B10" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="17">
         <v>2010</v>
@@ -15352,7 +15434,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B11" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="17">
         <v>2013</v>
@@ -15370,7 +15452,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B12" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="19">
         <v>2020</v>
@@ -15388,28 +15470,28 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B16" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="41" t="s">
         <v>17</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B17" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="42" cm="1">
         <f t="array" ref="C17">INDEX(LINEST(D10:D12,C10:C12^{1},TRUE,TRUE),1,1)</f>
@@ -15422,7 +15504,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B18" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="44" cm="1">
         <f t="array" ref="C18">INDEX(LINEST(D10:D12,C10:C12^{1},TRUE,TRUE),1,2)</f>
@@ -15435,7 +15517,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.6">
@@ -15443,13 +15525,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="E21" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.6">
@@ -15512,51 +15594,51 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="84"/>
       <c r="D5" s="55">
         <v>128968</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="67"/>
       <c r="D6" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="62"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="67"/>
       <c r="D7" s="61">
         <v>2600</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="67"/>
       <c r="D8" s="73" t="str">
@@ -15567,7 +15649,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="67"/>
       <c r="D9" s="73" t="str">
@@ -15581,7 +15663,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="67"/>
       <c r="D10" s="73" t="str">
@@ -15595,7 +15677,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="67"/>
       <c r="D11" s="74" t="str">
@@ -15609,7 +15691,7 @@
     </row>
     <row r="12" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="67"/>
       <c r="D12" s="74">
@@ -15617,12 +15699,12 @@
         <v>140</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="91" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="92"/>
       <c r="D13" s="75">
@@ -15630,24 +15712,24 @@
         <v>0.85</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B16" s="71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="72"/>
       <c r="D16" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
@@ -15655,13 +15737,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="70">
         <v>2500</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
@@ -15669,13 +15751,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="70">
         <v>12500</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
@@ -15683,13 +15765,13 @@
         <v>3</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="70">
         <v>60000</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
@@ -15697,18 +15779,18 @@
         <v>4</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="82">
         <v>99999999</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="77"/>
       <c r="D21" s="77"/>
@@ -15746,7 +15828,7 @@
     </row>
     <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="87"/>
       <c r="D28" s="87"/>
@@ -15762,24 +15844,24 @@
     </row>
     <row r="30" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B30" s="66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F30" s="69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="70">
         <v>90</v>
@@ -15797,7 +15879,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="70">
         <v>115</v>
@@ -15815,7 +15897,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" s="60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="70">
         <v>125</v>
@@ -15833,7 +15915,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="82">
         <v>140</v>
@@ -15851,7 +15933,7 @@
     </row>
     <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="89"/>
       <c r="D35" s="89"/>
@@ -15901,77 +15983,76 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3DC757-E655-4AB9-91FA-E1AE22FE7E6A}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2:P23"/>
+      <selection pane="bottomRight" activeCell="R2" sqref="R2:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.73046875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.73046875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.73046875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.3984375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="31" customWidth="1"/>
-    <col min="15" max="16384" width="9.19921875" style="1"/>
+    <col min="2" max="2" width="8.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.73046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.73046875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="31" customWidth="1"/>
+    <col min="14" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>84</v>
@@ -15982,70 +16063,68 @@
       <c r="R1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1905</v>
       </c>
       <c r="C2" s="1">
-        <v>1905</v>
-      </c>
-      <c r="D2" s="1">
         <v>7108</v>
       </c>
-      <c r="E2" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C2+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C2+PoblacionSISBEN!$C$10)</f>
+      <c r="D2" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B2+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B2+PoblacionSISBEN!$C$10)</f>
         <v>1</v>
       </c>
+      <c r="E2" s="23">
+        <f>ROUND(C2*D2,0)</f>
+        <v>7108</v>
+      </c>
       <c r="F2" s="23">
-        <f t="shared" ref="F2:F23" si="0">D2*E2</f>
+        <f t="shared" ref="F2:F23" si="0">C2-E2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="31">
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B2+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B2+TipoSueloEPE!$D$18)</f>
+        <v>19481.02</v>
+      </c>
+      <c r="I2" s="31">
+        <f>C2/ TipoSueloEPE!$D$5</f>
+        <v>0.36484923021329407</v>
+      </c>
+      <c r="J2" s="31">
+        <f>E2/G2</f>
         <v>7108</v>
-      </c>
-      <c r="G2" s="23">
-        <f t="shared" ref="G2:G23" si="1">D2-F2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I2</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C2+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C2+TipoSueloEPE!$D$18)</f>
-        <v>19481.02</v>
-      </c>
-      <c r="J2" s="31">
-        <f>D2/ TipoSueloEPE!$D$5</f>
-        <v>0.36484923021329407</v>
       </c>
       <c r="K2" s="31">
         <f>F2/H2</f>
-        <v>7108</v>
-      </c>
-      <c r="L2" s="31">
-        <f>G2/I2</f>
         <v>0</v>
       </c>
-      <c r="M2" s="23">
-        <f>F2*TipoSueloEPE!$D$6/10000</f>
+      <c r="L2" s="23">
+        <f>E2*TipoSueloEPE!$D$6/10000</f>
         <v>10.662000000000001</v>
       </c>
+      <c r="M2" s="31">
+        <f>C2*AguaPotSanBas!$D$12/86400</f>
+        <v>11.517592592592592</v>
+      </c>
       <c r="N2" s="31">
-        <f>D2*AguaPotSanBas!$D$12/86400</f>
+        <f>E2*AguaPotSanBas!$D$12/86400</f>
         <v>11.517592592592592</v>
       </c>
       <c r="O2" s="31">
         <f>F2*AguaPotSanBas!$D$12/86400</f>
-        <v>11.517592592592592</v>
+        <v>0</v>
       </c>
       <c r="P2" s="31">
-        <f>G2*AguaPotSanBas!$D$12/86400</f>
-        <v>0</v>
+        <f>M2*AguaPotSanBas!$D$13</f>
+        <v>9.7899537037037039</v>
       </c>
       <c r="Q2" s="31">
         <f>N2*AguaPotSanBas!$D$13</f>
@@ -16053,73 +16132,70 @@
       </c>
       <c r="R2" s="31">
         <f>O2*AguaPotSanBas!$D$13</f>
-        <v>9.7899537037037039</v>
-      </c>
-      <c r="S2" s="31">
-        <f>P2*AguaPotSanBas!$D$13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1928</v>
       </c>
       <c r="C3" s="1">
-        <v>1928</v>
-      </c>
-      <c r="D3" s="1">
         <v>11480</v>
       </c>
-      <c r="E3" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C3+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C3+PoblacionSISBEN!$C$10)</f>
+      <c r="D3" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B3+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B3+PoblacionSISBEN!$C$10)</f>
         <v>1</v>
+      </c>
+      <c r="E3" s="23">
+        <f t="shared" ref="E3:E23" si="1">ROUND(C3*D3,0)</f>
+        <v>11480</v>
       </c>
       <c r="F3" s="23">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="31">
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B3+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B3+TipoSueloEPE!$D$18)</f>
+        <v>19481.02</v>
+      </c>
+      <c r="I3" s="31">
+        <f>C3/ TipoSueloEPE!$D$5</f>
+        <v>0.58926127783463933</v>
+      </c>
+      <c r="J3" s="31">
+        <f>E3/G3</f>
         <v>11480</v>
-      </c>
-      <c r="G3" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I3</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C3+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C3+TipoSueloEPE!$D$18)</f>
-        <v>19481.02</v>
-      </c>
-      <c r="J3" s="31">
-        <f>D3/ TipoSueloEPE!$D$5</f>
-        <v>0.58926127783463933</v>
       </c>
       <c r="K3" s="31">
         <f>F3/H3</f>
-        <v>11480</v>
-      </c>
-      <c r="L3" s="31">
-        <f>G3/I3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="23">
-        <f>F3*TipoSueloEPE!$D$6/10000</f>
+      <c r="L3" s="23">
+        <f>E3*TipoSueloEPE!$D$6/10000</f>
         <v>17.22</v>
       </c>
+      <c r="M3" s="31">
+        <f>C3*AguaPotSanBas!$D$12/86400</f>
+        <v>18.601851851851851</v>
+      </c>
       <c r="N3" s="31">
-        <f>D3*AguaPotSanBas!$D$12/86400</f>
+        <f>E3*AguaPotSanBas!$D$12/86400</f>
         <v>18.601851851851851</v>
       </c>
       <c r="O3" s="31">
         <f>F3*AguaPotSanBas!$D$12/86400</f>
-        <v>18.601851851851851</v>
+        <v>0</v>
       </c>
       <c r="P3" s="31">
-        <f>G3*AguaPotSanBas!$D$12/86400</f>
-        <v>0</v>
+        <f>M3*AguaPotSanBas!$D$13</f>
+        <v>15.811574074074073</v>
       </c>
       <c r="Q3" s="31">
         <f>N3*AguaPotSanBas!$D$13</f>
@@ -16127,73 +16203,70 @@
       </c>
       <c r="R3" s="31">
         <f>O3*AguaPotSanBas!$D$13</f>
-        <v>15.811574074074073</v>
-      </c>
-      <c r="S3" s="31">
-        <f>P3*AguaPotSanBas!$D$13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1938</v>
       </c>
       <c r="C4" s="1">
-        <v>1938</v>
-      </c>
-      <c r="D4" s="1">
         <v>12273</v>
       </c>
-      <c r="E4" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C4+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C4+PoblacionSISBEN!$C$10)</f>
+      <c r="D4" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B4+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B4+PoblacionSISBEN!$C$10)</f>
         <v>1</v>
+      </c>
+      <c r="E4" s="23">
+        <f t="shared" si="1"/>
+        <v>12273</v>
       </c>
       <c r="F4" s="23">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H4</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="31">
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B4+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B4+TipoSueloEPE!$D$18)</f>
+        <v>19481.02</v>
+      </c>
+      <c r="I4" s="31">
+        <f>C4/ TipoSueloEPE!$D$5</f>
+        <v>0.62996547585927942</v>
+      </c>
+      <c r="J4" s="31">
+        <f>E4/G4</f>
         <v>12273</v>
-      </c>
-      <c r="G4" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I4</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C4+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C4+TipoSueloEPE!$D$18)</f>
-        <v>19481.02</v>
-      </c>
-      <c r="J4" s="31">
-        <f>D4/ TipoSueloEPE!$D$5</f>
-        <v>0.62996547585927942</v>
       </c>
       <c r="K4" s="31">
         <f>F4/H4</f>
-        <v>12273</v>
-      </c>
-      <c r="L4" s="31">
-        <f>G4/I4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="23">
-        <f>F4*TipoSueloEPE!$D$6/10000</f>
+      <c r="L4" s="23">
+        <f>E4*TipoSueloEPE!$D$6/10000</f>
         <v>18.409500000000001</v>
       </c>
+      <c r="M4" s="31">
+        <f>C4*AguaPotSanBas!$D$12/86400</f>
+        <v>19.886805555555554</v>
+      </c>
       <c r="N4" s="31">
-        <f>D4*AguaPotSanBas!$D$12/86400</f>
+        <f>E4*AguaPotSanBas!$D$12/86400</f>
         <v>19.886805555555554</v>
       </c>
       <c r="O4" s="31">
         <f>F4*AguaPotSanBas!$D$12/86400</f>
-        <v>19.886805555555554</v>
+        <v>0</v>
       </c>
       <c r="P4" s="31">
-        <f>G4*AguaPotSanBas!$D$12/86400</f>
-        <v>0</v>
+        <f>M4*AguaPotSanBas!$D$13</f>
+        <v>16.90378472222222</v>
       </c>
       <c r="Q4" s="31">
         <f>N4*AguaPotSanBas!$D$13</f>
@@ -16201,73 +16274,70 @@
       </c>
       <c r="R4" s="31">
         <f>O4*AguaPotSanBas!$D$13</f>
-        <v>16.90378472222222</v>
-      </c>
-      <c r="S4" s="31">
-        <f>P4*AguaPotSanBas!$D$13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1951</v>
       </c>
       <c r="C5" s="1">
-        <v>1951</v>
-      </c>
-      <c r="D5" s="1">
         <v>20628</v>
       </c>
-      <c r="E5" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C5+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C5+PoblacionSISBEN!$C$10)</f>
+      <c r="D5" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B5+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B5+PoblacionSISBEN!$C$10)</f>
         <v>1</v>
+      </c>
+      <c r="E5" s="23">
+        <f t="shared" si="1"/>
+        <v>20628</v>
       </c>
       <c r="F5" s="23">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H5</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="31">
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B5+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B5+TipoSueloEPE!$D$18)</f>
+        <v>19481.02</v>
+      </c>
+      <c r="I5" s="31">
+        <f>C5/ TipoSueloEPE!$D$5</f>
+        <v>1.0588224424366672</v>
+      </c>
+      <c r="J5" s="31">
+        <f t="shared" ref="J5:J23" si="2">E5/G5</f>
         <v>20628</v>
       </c>
-      <c r="G5" s="23">
-        <f t="shared" si="1"/>
+      <c r="K5" s="31">
+        <f>F5/H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I5</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C5+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C5+TipoSueloEPE!$D$18)</f>
-        <v>19481.02</v>
-      </c>
-      <c r="J5" s="31">
-        <f>D5/ TipoSueloEPE!$D$5</f>
-        <v>1.0588224424366672</v>
-      </c>
-      <c r="K5" s="31">
-        <f t="shared" ref="K5:K23" si="2">F5/H5</f>
-        <v>20628</v>
-      </c>
-      <c r="L5" s="31">
-        <f>G5/I5</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="23">
-        <f>F5*TipoSueloEPE!$D$6/10000</f>
+      <c r="L5" s="23">
+        <f>E5*TipoSueloEPE!$D$6/10000</f>
         <v>30.942</v>
       </c>
+      <c r="M5" s="31">
+        <f>C5*AguaPotSanBas!$D$12/86400</f>
+        <v>33.424999999999997</v>
+      </c>
       <c r="N5" s="31">
-        <f>D5*AguaPotSanBas!$D$12/86400</f>
+        <f>E5*AguaPotSanBas!$D$12/86400</f>
         <v>33.424999999999997</v>
       </c>
       <c r="O5" s="31">
         <f>F5*AguaPotSanBas!$D$12/86400</f>
-        <v>33.424999999999997</v>
+        <v>0</v>
       </c>
       <c r="P5" s="31">
-        <f>G5*AguaPotSanBas!$D$12/86400</f>
-        <v>0</v>
+        <f>M5*AguaPotSanBas!$D$13</f>
+        <v>28.411249999999995</v>
       </c>
       <c r="Q5" s="31">
         <f>N5*AguaPotSanBas!$D$13</f>
@@ -16275,1347 +16345,2921 @@
       </c>
       <c r="R5" s="31">
         <f>O5*AguaPotSanBas!$D$13</f>
-        <v>28.411249999999995</v>
-      </c>
-      <c r="S5" s="31">
-        <f>P5*AguaPotSanBas!$D$13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1964</v>
       </c>
       <c r="C6" s="1">
-        <v>1964</v>
-      </c>
-      <c r="D6" s="1">
         <v>27775</v>
       </c>
-      <c r="E6" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C6+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C6+PoblacionSISBEN!$C$10)</f>
+      <c r="D6" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B6+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B6+PoblacionSISBEN!$C$10)</f>
         <v>0.96167504311559959</v>
+      </c>
+      <c r="E6" s="23">
+        <f t="shared" si="1"/>
+        <v>26711</v>
       </c>
       <c r="F6" s="23">
         <f t="shared" si="0"/>
-        <v>26710.524322535777</v>
-      </c>
-      <c r="G6" s="23">
-        <f t="shared" si="1"/>
-        <v>1064.4756774642228</v>
+        <v>1064</v>
+      </c>
+      <c r="G6" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H6</f>
+        <v>1</v>
       </c>
       <c r="H6" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I6</f>
-        <v>1</v>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B6+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B6+TipoSueloEPE!$D$18)</f>
+        <v>19481.02</v>
       </c>
       <c r="I6" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C6+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C6+TipoSueloEPE!$D$18)</f>
-        <v>19481.02</v>
+        <f>C6/ TipoSueloEPE!$D$5</f>
+        <v>1.4256735184544518</v>
       </c>
       <c r="J6" s="31">
-        <f>D6/ TipoSueloEPE!$D$5</f>
-        <v>1.4256735184544518</v>
+        <f t="shared" si="2"/>
+        <v>26711</v>
       </c>
       <c r="K6" s="31">
-        <f t="shared" si="2"/>
-        <v>26710.524322535777</v>
-      </c>
-      <c r="L6" s="31">
-        <f>G6/I6</f>
-        <v>5.464168084957681E-2</v>
-      </c>
-      <c r="M6" s="23">
-        <f>F6*TipoSueloEPE!$D$6/10000</f>
-        <v>40.065786483803663</v>
+        <f>F6/H6</f>
+        <v>5.4617263367113221E-2</v>
+      </c>
+      <c r="L6" s="23">
+        <f>E6*TipoSueloEPE!$D$6/10000</f>
+        <v>40.066499999999998</v>
+      </c>
+      <c r="M6" s="31">
+        <f>C6*AguaPotSanBas!$D$12/86400</f>
+        <v>45.005787037037038</v>
       </c>
       <c r="N6" s="31">
-        <f>D6*AguaPotSanBas!$D$12/86400</f>
-        <v>45.005787037037038</v>
+        <f>E6*AguaPotSanBas!$D$12/86400</f>
+        <v>43.281712962962963</v>
       </c>
       <c r="O6" s="31">
         <f>F6*AguaPotSanBas!$D$12/86400</f>
-        <v>43.28094218929408</v>
+        <v>1.7240740740740741</v>
       </c>
       <c r="P6" s="31">
-        <f>G6*AguaPotSanBas!$D$12/86400</f>
-        <v>1.7248448477429537</v>
+        <f>M6*AguaPotSanBas!$D$13</f>
+        <v>38.254918981481481</v>
       </c>
       <c r="Q6" s="31">
         <f>N6*AguaPotSanBas!$D$13</f>
-        <v>38.254918981481481</v>
+        <v>36.789456018518521</v>
       </c>
       <c r="R6" s="31">
         <f>O6*AguaPotSanBas!$D$13</f>
-        <v>36.788800860899968</v>
-      </c>
-      <c r="S6" s="31">
-        <f>P6*AguaPotSanBas!$D$13</f>
-        <v>1.4661181205815106</v>
+        <v>1.465462962962963</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1973</v>
       </c>
       <c r="C7" s="1">
-        <v>1973</v>
-      </c>
-      <c r="D7" s="1">
         <v>39836</v>
       </c>
-      <c r="E7" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C7+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C7+PoblacionSISBEN!$C$10)</f>
+      <c r="D7" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B7+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B7+PoblacionSISBEN!$C$10)</f>
         <v>0.93008936125409925</v>
+      </c>
+      <c r="E7" s="23">
+        <f t="shared" si="1"/>
+        <v>37051</v>
       </c>
       <c r="F7" s="23">
         <f t="shared" si="0"/>
-        <v>37051.039794918295</v>
-      </c>
-      <c r="G7" s="23">
-        <f t="shared" si="1"/>
-        <v>2784.9602050817048</v>
+        <v>2785</v>
+      </c>
+      <c r="G7" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H7</f>
+        <v>1</v>
       </c>
       <c r="H7" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I7</f>
-        <v>1</v>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B7+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B7+TipoSueloEPE!$D$18)</f>
+        <v>19481.02</v>
       </c>
       <c r="I7" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C7+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C7+TipoSueloEPE!$D$18)</f>
-        <v>19481.02</v>
+        <f>C7/ TipoSueloEPE!$D$5</f>
+        <v>2.0447571658380395</v>
       </c>
       <c r="J7" s="31">
-        <f>D7/ TipoSueloEPE!$D$5</f>
-        <v>2.0447571658380395</v>
+        <f t="shared" si="2"/>
+        <v>37051</v>
       </c>
       <c r="K7" s="31">
-        <f t="shared" si="2"/>
-        <v>37051.039794918295</v>
-      </c>
-      <c r="L7" s="31">
-        <f>G7/I7</f>
-        <v>0.14295761746980931</v>
-      </c>
-      <c r="M7" s="23">
-        <f>F7*TipoSueloEPE!$D$6/10000</f>
-        <v>55.576559692377444</v>
+        <f>F7/H7</f>
+        <v>0.14295966022313</v>
+      </c>
+      <c r="L7" s="23">
+        <f>E7*TipoSueloEPE!$D$6/10000</f>
+        <v>55.576500000000003</v>
+      </c>
+      <c r="M7" s="31">
+        <f>C7*AguaPotSanBas!$D$12/86400</f>
+        <v>64.54907407407407</v>
       </c>
       <c r="N7" s="31">
-        <f>D7*AguaPotSanBas!$D$12/86400</f>
-        <v>64.54907407407407</v>
+        <f>E7*AguaPotSanBas!$D$12/86400</f>
+        <v>60.03634259259259</v>
       </c>
       <c r="O7" s="31">
         <f>F7*AguaPotSanBas!$D$12/86400</f>
-        <v>60.036407075099092</v>
+        <v>4.5127314814814818</v>
       </c>
       <c r="P7" s="31">
-        <f>G7*AguaPotSanBas!$D$12/86400</f>
-        <v>4.5126669989749848</v>
+        <f>M7*AguaPotSanBas!$D$13</f>
+        <v>54.866712962962957</v>
       </c>
       <c r="Q7" s="31">
         <f>N7*AguaPotSanBas!$D$13</f>
-        <v>54.866712962962957</v>
+        <v>51.030891203703703</v>
       </c>
       <c r="R7" s="31">
         <f>O7*AguaPotSanBas!$D$13</f>
-        <v>51.030946013834225</v>
-      </c>
-      <c r="S7" s="31">
-        <f>P7*AguaPotSanBas!$D$13</f>
-        <v>3.8357669491287369</v>
+        <v>3.8358217592592596</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1985</v>
       </c>
       <c r="C8" s="1">
-        <v>1985</v>
-      </c>
-      <c r="D8" s="1">
         <v>60202</v>
       </c>
-      <c r="E8" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C8+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C8+PoblacionSISBEN!$C$10)</f>
+      <c r="D8" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B8+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B8+PoblacionSISBEN!$C$10)</f>
         <v>0.88797511877209967</v>
+      </c>
+      <c r="E8" s="23">
+        <f t="shared" si="1"/>
+        <v>53458</v>
       </c>
       <c r="F8" s="23">
         <f t="shared" si="0"/>
-        <v>53457.878100317947</v>
-      </c>
-      <c r="G8" s="23">
-        <f t="shared" si="1"/>
-        <v>6744.1218996820535</v>
+        <v>6744</v>
+      </c>
+      <c r="G8" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H8</f>
+        <v>145.37632911392939</v>
       </c>
       <c r="H8" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I8</f>
-        <v>145.37632911392939</v>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B8+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B8+TipoSueloEPE!$D$18)</f>
+        <v>19336.643670886071</v>
       </c>
       <c r="I8" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C8+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C8+TipoSueloEPE!$D$18)</f>
-        <v>19336.643670886071</v>
+        <f>C8/ TipoSueloEPE!$D$5</f>
+        <v>3.0901313108188986</v>
       </c>
       <c r="J8" s="31">
-        <f>D8/ TipoSueloEPE!$D$5</f>
-        <v>3.0901313108188986</v>
+        <f t="shared" si="2"/>
+        <v>367.72148757522774</v>
       </c>
       <c r="K8" s="31">
-        <f t="shared" si="2"/>
-        <v>367.72064906401482</v>
-      </c>
-      <c r="L8" s="31">
-        <f t="shared" ref="L8:L23" si="3">G8/I8</f>
-        <v>0.34877417272968836</v>
-      </c>
-      <c r="M8" s="23">
-        <f>F8*TipoSueloEPE!$D$6/10000</f>
-        <v>80.186817150476926</v>
+        <f t="shared" ref="K8:K23" si="3">F8/H8</f>
+        <v>0.34876786865313153</v>
+      </c>
+      <c r="L8" s="23">
+        <f>E8*TipoSueloEPE!$D$6/10000</f>
+        <v>80.186999999999998</v>
+      </c>
+      <c r="M8" s="31">
+        <f>C8*AguaPotSanBas!$D$12/86400</f>
+        <v>97.549537037037041</v>
       </c>
       <c r="N8" s="31">
-        <f>D8*AguaPotSanBas!$D$12/86400</f>
-        <v>97.549537037037041</v>
+        <f>E8*AguaPotSanBas!$D$12/86400</f>
+        <v>86.621759259259264</v>
       </c>
       <c r="O8" s="31">
         <f>F8*AguaPotSanBas!$D$12/86400</f>
-        <v>86.621561736626305</v>
+        <v>10.927777777777777</v>
       </c>
       <c r="P8" s="31">
-        <f>G8*AguaPotSanBas!$D$12/86400</f>
-        <v>10.927975300410736</v>
+        <f>M8*AguaPotSanBas!$D$13</f>
+        <v>82.917106481481483</v>
       </c>
       <c r="Q8" s="31">
         <f>N8*AguaPotSanBas!$D$13</f>
-        <v>82.917106481481483</v>
+        <v>73.628495370370374</v>
       </c>
       <c r="R8" s="31">
         <f>O8*AguaPotSanBas!$D$13</f>
-        <v>73.628327476132355</v>
-      </c>
-      <c r="S8" s="31">
-        <f>P8*AguaPotSanBas!$D$13</f>
-        <v>9.2887790053491255</v>
+        <v>9.2886111111111109</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1993</v>
       </c>
       <c r="C9" s="1">
-        <v>1993</v>
-      </c>
-      <c r="D9" s="1">
         <v>69695</v>
       </c>
-      <c r="E9" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C9+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C9+PoblacionSISBEN!$C$10)</f>
+      <c r="D9" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B9+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B9+PoblacionSISBEN!$C$10)</f>
         <v>0.85989895711743269</v>
+      </c>
+      <c r="E9" s="23">
+        <f t="shared" si="1"/>
+        <v>59931</v>
       </c>
       <c r="F9" s="23">
         <f t="shared" si="0"/>
-        <v>59930.65781629947</v>
-      </c>
-      <c r="G9" s="23">
-        <f t="shared" si="1"/>
-        <v>9764.3421837005299</v>
+        <v>9764</v>
+      </c>
+      <c r="G9" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H9</f>
+        <v>348.89278481013389</v>
       </c>
       <c r="H9" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I9</f>
-        <v>348.89278481013389</v>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B9+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B9+TipoSueloEPE!$D$18)</f>
+        <v>19133.127215189867</v>
       </c>
       <c r="I9" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C9+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C9+TipoSueloEPE!$D$18)</f>
-        <v>19133.127215189867</v>
+        <f>C9/ TipoSueloEPE!$D$5</f>
+        <v>3.5774011113837272</v>
       </c>
       <c r="J9" s="31">
-        <f>D9/ TipoSueloEPE!$D$5</f>
-        <v>3.5774011113837272</v>
+        <f t="shared" si="2"/>
+        <v>171.77483344235455</v>
       </c>
       <c r="K9" s="31">
-        <f t="shared" si="2"/>
-        <v>171.77385267199924</v>
-      </c>
-      <c r="L9" s="31">
         <f t="shared" si="3"/>
-        <v>0.51033697073568718</v>
-      </c>
-      <c r="M9" s="23">
-        <f>F9*TipoSueloEPE!$D$6/10000</f>
-        <v>89.895986724449202</v>
+        <v>0.5103190863774909</v>
+      </c>
+      <c r="L9" s="23">
+        <f>E9*TipoSueloEPE!$D$6/10000</f>
+        <v>89.896500000000003</v>
+      </c>
+      <c r="M9" s="31">
+        <f>C9*AguaPotSanBas!$D$12/86400</f>
+        <v>112.93171296296296</v>
       </c>
       <c r="N9" s="31">
-        <f>D9*AguaPotSanBas!$D$12/86400</f>
-        <v>112.93171296296296</v>
+        <f>E9*AguaPotSanBas!$D$12/86400</f>
+        <v>97.110416666666666</v>
       </c>
       <c r="O9" s="31">
         <f>F9*AguaPotSanBas!$D$12/86400</f>
-        <v>97.109862202337112</v>
+        <v>15.821296296296296</v>
       </c>
       <c r="P9" s="31">
-        <f>G9*AguaPotSanBas!$D$12/86400</f>
-        <v>15.821850760625859</v>
+        <f>M9*AguaPotSanBas!$D$13</f>
+        <v>95.991956018518522</v>
       </c>
       <c r="Q9" s="31">
         <f>N9*AguaPotSanBas!$D$13</f>
-        <v>95.991956018518522</v>
+        <v>82.543854166666662</v>
       </c>
       <c r="R9" s="31">
         <f>O9*AguaPotSanBas!$D$13</f>
-        <v>82.543382871986537</v>
-      </c>
-      <c r="S9" s="31">
-        <f>P9*AguaPotSanBas!$D$13</f>
-        <v>13.448573146531979</v>
+        <v>13.448101851851851</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1995</v>
       </c>
       <c r="C10" s="1">
-        <v>1995</v>
-      </c>
-      <c r="D10" s="1">
         <v>78923</v>
       </c>
-      <c r="E10" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C10+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C10+PoblacionSISBEN!$C$10)</f>
+      <c r="D10" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B10+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B10+PoblacionSISBEN!$C$10)</f>
         <v>0.85287991670376595</v>
+      </c>
+      <c r="E10" s="23">
+        <f t="shared" si="1"/>
+        <v>67312</v>
       </c>
       <c r="F10" s="23">
         <f t="shared" si="0"/>
-        <v>67311.841666011314</v>
-      </c>
-      <c r="G10" s="23">
-        <f t="shared" si="1"/>
-        <v>11611.158333988686</v>
+        <v>11611</v>
+      </c>
+      <c r="G10" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H10</f>
+        <v>399.7718987341832</v>
       </c>
       <c r="H10" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I10</f>
-        <v>399.7718987341832</v>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B10+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B10+TipoSueloEPE!$D$18)</f>
+        <v>19082.248101265817</v>
       </c>
       <c r="I10" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C10+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C10+TipoSueloEPE!$D$18)</f>
-        <v>19082.248101265817</v>
+        <f>C10/ TipoSueloEPE!$D$5</f>
+        <v>4.051068626353941</v>
       </c>
       <c r="J10" s="31">
-        <f>D10/ TipoSueloEPE!$D$5</f>
-        <v>4.051068626353941</v>
+        <f t="shared" si="2"/>
+        <v>168.37601695650241</v>
       </c>
       <c r="K10" s="31">
-        <f t="shared" si="2"/>
-        <v>168.37562089567578</v>
-      </c>
-      <c r="L10" s="31">
         <f t="shared" si="3"/>
-        <v>0.60847958125114521</v>
-      </c>
-      <c r="M10" s="23">
-        <f>F10*TipoSueloEPE!$D$6/10000</f>
-        <v>100.96776249901697</v>
+        <v>0.60847128380171234</v>
+      </c>
+      <c r="L10" s="23">
+        <f>E10*TipoSueloEPE!$D$6/10000</f>
+        <v>100.968</v>
+      </c>
+      <c r="M10" s="31">
+        <f>C10*AguaPotSanBas!$D$12/86400</f>
+        <v>127.88449074074074</v>
       </c>
       <c r="N10" s="31">
-        <f>D10*AguaPotSanBas!$D$12/86400</f>
-        <v>127.88449074074074</v>
+        <f>E10*AguaPotSanBas!$D$12/86400</f>
+        <v>109.07037037037037</v>
       </c>
       <c r="O10" s="31">
         <f>F10*AguaPotSanBas!$D$12/86400</f>
-        <v>109.07011381066648</v>
+        <v>18.814120370370372</v>
       </c>
       <c r="P10" s="31">
-        <f>G10*AguaPotSanBas!$D$12/86400</f>
-        <v>18.81437693007426</v>
+        <f>M10*AguaPotSanBas!$D$13</f>
+        <v>108.70181712962963</v>
       </c>
       <c r="Q10" s="31">
         <f>N10*AguaPotSanBas!$D$13</f>
-        <v>108.70181712962963</v>
+        <v>92.709814814814806</v>
       </c>
       <c r="R10" s="31">
         <f>O10*AguaPotSanBas!$D$13</f>
-        <v>92.709596739066512</v>
-      </c>
-      <c r="S10" s="31">
-        <f>P10*AguaPotSanBas!$D$13</f>
-        <v>15.992220390563121</v>
+        <v>15.992002314814815</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2005</v>
       </c>
       <c r="C11" s="1">
-        <v>2005</v>
-      </c>
-      <c r="D11" s="1">
         <v>100038</v>
       </c>
-      <c r="E11" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C11+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C11+PoblacionSISBEN!$C$10)</f>
+      <c r="D11" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B11+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B11+PoblacionSISBEN!$C$10)</f>
         <v>0.81778471463543223</v>
+      </c>
+      <c r="E11" s="23">
+        <f t="shared" si="1"/>
+        <v>81810</v>
       </c>
       <c r="F11" s="23">
         <f t="shared" si="0"/>
-        <v>81809.547282699365</v>
-      </c>
-      <c r="G11" s="23">
-        <f t="shared" si="1"/>
-        <v>18228.452717300635</v>
+        <v>18228</v>
+      </c>
+      <c r="G11" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H11</f>
+        <v>654.16746835443701</v>
       </c>
       <c r="H11" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I11</f>
-        <v>654.16746835443701</v>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B11+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B11+TipoSueloEPE!$D$18)</f>
+        <v>18827.852531645563</v>
       </c>
       <c r="I11" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C11+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C11+TipoSueloEPE!$D$18)</f>
-        <v>18827.852531645563</v>
+        <f>C11/ TipoSueloEPE!$D$5</f>
+        <v>5.134888476656938</v>
       </c>
       <c r="J11" s="31">
-        <f>D11/ TipoSueloEPE!$D$5</f>
-        <v>5.134888476656938</v>
+        <f t="shared" si="2"/>
+        <v>125.05971934953239</v>
       </c>
       <c r="K11" s="31">
-        <f t="shared" si="2"/>
-        <v>125.05902729845596</v>
-      </c>
-      <c r="L11" s="31">
         <f t="shared" si="3"/>
-        <v>0.96816419645642193</v>
-      </c>
-      <c r="M11" s="23">
-        <f>F11*TipoSueloEPE!$D$6/10000</f>
-        <v>122.71432092404906</v>
+        <v>0.96814015137215781</v>
+      </c>
+      <c r="L11" s="23">
+        <f>E11*TipoSueloEPE!$D$6/10000</f>
+        <v>122.715</v>
+      </c>
+      <c r="M11" s="31">
+        <f>C11*AguaPotSanBas!$D$12/86400</f>
+        <v>162.0986111111111</v>
       </c>
       <c r="N11" s="31">
-        <f>D11*AguaPotSanBas!$D$12/86400</f>
-        <v>162.0986111111111</v>
+        <f>E11*AguaPotSanBas!$D$12/86400</f>
+        <v>132.5625</v>
       </c>
       <c r="O11" s="31">
         <f>F11*AguaPotSanBas!$D$12/86400</f>
-        <v>132.56176643029988</v>
+        <v>29.536111111111111</v>
       </c>
       <c r="P11" s="31">
-        <f>G11*AguaPotSanBas!$D$12/86400</f>
-        <v>29.536844680811214</v>
+        <f>M11*AguaPotSanBas!$D$13</f>
+        <v>137.78381944444442</v>
       </c>
       <c r="Q11" s="31">
         <f>N11*AguaPotSanBas!$D$13</f>
-        <v>137.78381944444442</v>
+        <v>112.67812499999999</v>
       </c>
       <c r="R11" s="31">
         <f>O11*AguaPotSanBas!$D$13</f>
-        <v>112.6775014657549</v>
-      </c>
-      <c r="S11" s="31">
-        <f>P11*AguaPotSanBas!$D$13</f>
-        <v>25.106317978689532</v>
+        <v>25.105694444444445</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2018</v>
       </c>
       <c r="C12" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D12" s="1">
         <v>128968</v>
       </c>
-      <c r="E12" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C12+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C12+PoblacionSISBEN!$C$10)</f>
+      <c r="D12" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B12+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B12+PoblacionSISBEN!$C$10)</f>
         <v>0.7721609519465984</v>
+      </c>
+      <c r="E12" s="23">
+        <f t="shared" si="1"/>
+        <v>99584</v>
       </c>
       <c r="F12" s="23">
         <f t="shared" si="0"/>
-        <v>99584.053650648901</v>
-      </c>
-      <c r="G12" s="23">
-        <f t="shared" si="1"/>
-        <v>29383.946349351099</v>
+        <v>29384</v>
+      </c>
+      <c r="G12" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H12</f>
+        <v>984.88170886076477</v>
       </c>
       <c r="H12" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I12</f>
-        <v>984.88170886076477</v>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B12+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B12+TipoSueloEPE!$D$18)</f>
+        <v>18497.138291139236</v>
       </c>
       <c r="I12" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C12+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C12+TipoSueloEPE!$D$18)</f>
-        <v>18497.138291139236</v>
+        <f>C12/ TipoSueloEPE!$D$5</f>
+        <v>6.6198474285520703</v>
       </c>
       <c r="J12" s="31">
-        <f>D12/ TipoSueloEPE!$D$5</f>
-        <v>6.6198474285520703</v>
+        <f t="shared" si="2"/>
+        <v>101.11265048793635</v>
       </c>
       <c r="K12" s="31">
-        <f t="shared" si="2"/>
-        <v>101.11270496214216</v>
-      </c>
-      <c r="L12" s="31">
         <f t="shared" si="3"/>
-        <v>1.5885671549218519</v>
-      </c>
-      <c r="M12" s="23">
-        <f>F12*TipoSueloEPE!$D$6/10000</f>
-        <v>149.37608047597337</v>
+        <v>1.5885700554055946</v>
+      </c>
+      <c r="L12" s="23">
+        <f>E12*TipoSueloEPE!$D$6/10000</f>
+        <v>149.376</v>
+      </c>
+      <c r="M12" s="31">
+        <f>C12*AguaPotSanBas!$D$12/86400</f>
+        <v>208.97592592592594</v>
       </c>
       <c r="N12" s="31">
-        <f>D12*AguaPotSanBas!$D$12/86400</f>
-        <v>208.97592592592594</v>
+        <f>E12*AguaPotSanBas!$D$12/86400</f>
+        <v>161.36296296296297</v>
       </c>
       <c r="O12" s="31">
         <f>F12*AguaPotSanBas!$D$12/86400</f>
-        <v>161.3630498968848</v>
+        <v>47.61296296296296</v>
       </c>
       <c r="P12" s="31">
-        <f>G12*AguaPotSanBas!$D$12/86400</f>
-        <v>47.612876029041132</v>
+        <f>M12*AguaPotSanBas!$D$13</f>
+        <v>177.62953703703704</v>
       </c>
       <c r="Q12" s="31">
         <f>N12*AguaPotSanBas!$D$13</f>
-        <v>177.62953703703704</v>
+        <v>137.15851851851852</v>
       </c>
       <c r="R12" s="31">
         <f>O12*AguaPotSanBas!$D$13</f>
-        <v>137.15859241235208</v>
-      </c>
-      <c r="S12" s="31">
-        <f>P12*AguaPotSanBas!$D$13</f>
-        <v>40.470944624684961</v>
+        <v>40.471018518518513</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2019</v>
       </c>
       <c r="C13" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D13" s="1">
         <v>127918</v>
       </c>
-      <c r="E13" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C13+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C13+PoblacionSISBEN!$C$10)</f>
+      <c r="D13" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B13+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B13+PoblacionSISBEN!$C$10)</f>
         <v>0.76865143173976502</v>
+      </c>
+      <c r="E13" s="23">
+        <f t="shared" si="1"/>
+        <v>98324</v>
       </c>
       <c r="F13" s="23">
         <f t="shared" si="0"/>
-        <v>98324.35384528726</v>
-      </c>
-      <c r="G13" s="23">
-        <f t="shared" si="1"/>
-        <v>29593.64615471274</v>
+        <v>29594</v>
+      </c>
+      <c r="G13" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H13</f>
+        <v>1010.3212658227894</v>
       </c>
       <c r="H13" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I13</f>
-        <v>1010.3212658227894</v>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B13+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B13+TipoSueloEPE!$D$18)</f>
+        <v>18471.698734177211</v>
       </c>
       <c r="I13" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C13+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C13+TipoSueloEPE!$D$18)</f>
-        <v>18471.698734177211</v>
+        <f>C13/ TipoSueloEPE!$D$5</f>
+        <v>6.5659515799696333</v>
       </c>
       <c r="J13" s="31">
-        <f>D13/ TipoSueloEPE!$D$5</f>
-        <v>6.5659515799696333</v>
+        <f t="shared" si="2"/>
+        <v>97.319539166511078</v>
       </c>
       <c r="K13" s="31">
-        <f t="shared" si="2"/>
-        <v>97.319889396976592</v>
-      </c>
-      <c r="L13" s="31">
         <f t="shared" si="3"/>
-        <v>1.6021074499205195</v>
-      </c>
-      <c r="M13" s="23">
-        <f>F13*TipoSueloEPE!$D$6/10000</f>
-        <v>147.48653076793087</v>
+        <v>1.6021266059977355</v>
+      </c>
+      <c r="L13" s="23">
+        <f>E13*TipoSueloEPE!$D$6/10000</f>
+        <v>147.48599999999999</v>
+      </c>
+      <c r="M13" s="31">
+        <f>C13*AguaPotSanBas!$D$12/86400</f>
+        <v>207.27453703703705</v>
       </c>
       <c r="N13" s="31">
-        <f>D13*AguaPotSanBas!$D$12/86400</f>
-        <v>207.27453703703705</v>
+        <f>E13*AguaPotSanBas!$D$12/86400</f>
+        <v>159.32129629629631</v>
       </c>
       <c r="O13" s="31">
         <f>F13*AguaPotSanBas!$D$12/86400</f>
-        <v>159.32186965671548</v>
+        <v>47.953240740740739</v>
       </c>
       <c r="P13" s="31">
-        <f>G13*AguaPotSanBas!$D$12/86400</f>
-        <v>47.952667380321571</v>
+        <f>M13*AguaPotSanBas!$D$13</f>
+        <v>176.1833564814815</v>
       </c>
       <c r="Q13" s="31">
         <f>N13*AguaPotSanBas!$D$13</f>
-        <v>176.1833564814815</v>
+        <v>135.42310185185187</v>
       </c>
       <c r="R13" s="31">
         <f>O13*AguaPotSanBas!$D$13</f>
-        <v>135.42358920820814</v>
-      </c>
-      <c r="S13" s="31">
-        <f>P13*AguaPotSanBas!$D$13</f>
-        <v>40.759767273273333</v>
+        <v>40.760254629629628</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2024</v>
       </c>
       <c r="C14" s="1">
-        <v>2024</v>
-      </c>
-      <c r="D14" s="1">
         <v>140346</v>
       </c>
-      <c r="E14" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C14+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C14+PoblacionSISBEN!$C$10)</f>
+      <c r="D14" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B14+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B14+PoblacionSISBEN!$C$10)</f>
         <v>0.75110383070559905</v>
+      </c>
+      <c r="E14" s="23">
+        <f t="shared" si="1"/>
+        <v>105414</v>
       </c>
       <c r="F14" s="23">
         <f t="shared" si="0"/>
-        <v>105414.418224208</v>
-      </c>
-      <c r="G14" s="23">
-        <f t="shared" si="1"/>
-        <v>34931.581775792001</v>
+        <v>34932</v>
+      </c>
+      <c r="G14" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H14</f>
+        <v>1137.5190506329127</v>
       </c>
       <c r="H14" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I14</f>
-        <v>1137.5190506329127</v>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B14+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B14+TipoSueloEPE!$D$18)</f>
+        <v>18344.500949367088</v>
       </c>
       <c r="I14" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C14+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C14+TipoSueloEPE!$D$18)</f>
-        <v>18344.500949367088</v>
+        <f>C14/ TipoSueloEPE!$D$5</f>
+        <v>7.2038731096672723</v>
       </c>
       <c r="J14" s="31">
-        <f>D14/ TipoSueloEPE!$D$5</f>
-        <v>7.2038731096672723</v>
+        <f t="shared" si="2"/>
+        <v>92.670096330560725</v>
       </c>
       <c r="K14" s="31">
-        <f t="shared" si="2"/>
-        <v>92.670463994036567</v>
-      </c>
-      <c r="L14" s="31">
         <f t="shared" si="3"/>
-        <v>1.9041990769989954</v>
-      </c>
-      <c r="M14" s="23">
-        <f>F14*TipoSueloEPE!$D$6/10000</f>
-        <v>158.121627336312</v>
+        <v>1.9042218753410789</v>
+      </c>
+      <c r="L14" s="23">
+        <f>E14*TipoSueloEPE!$D$6/10000</f>
+        <v>158.12100000000001</v>
+      </c>
+      <c r="M14" s="31">
+        <f>C14*AguaPotSanBas!$D$12/86400</f>
+        <v>227.41249999999999</v>
       </c>
       <c r="N14" s="31">
-        <f>D14*AguaPotSanBas!$D$12/86400</f>
-        <v>227.41249999999999</v>
+        <f>E14*AguaPotSanBas!$D$12/86400</f>
+        <v>170.80972222222223</v>
       </c>
       <c r="O14" s="31">
         <f>F14*AguaPotSanBas!$D$12/86400</f>
-        <v>170.81039990033705</v>
+        <v>56.602777777777774</v>
       </c>
       <c r="P14" s="31">
-        <f>G14*AguaPotSanBas!$D$12/86400</f>
-        <v>56.60210009966297</v>
+        <f>M14*AguaPotSanBas!$D$13</f>
+        <v>193.300625</v>
       </c>
       <c r="Q14" s="31">
         <f>N14*AguaPotSanBas!$D$13</f>
-        <v>193.300625</v>
+        <v>145.18826388888888</v>
       </c>
       <c r="R14" s="31">
         <f>O14*AguaPotSanBas!$D$13</f>
-        <v>145.18883991528648</v>
-      </c>
-      <c r="S14" s="31">
-        <f>P14*AguaPotSanBas!$D$13</f>
-        <v>48.111785084713524</v>
+        <v>48.112361111111106</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2029</v>
       </c>
       <c r="C15" s="1">
-        <v>2029</v>
-      </c>
-      <c r="D15" s="1">
         <v>153383</v>
       </c>
-      <c r="E15" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C15+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C15+PoblacionSISBEN!$C$10)</f>
+      <c r="D15" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B15+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B15+PoblacionSISBEN!$C$10)</f>
         <v>0.73355622967143219</v>
+      </c>
+      <c r="E15" s="23">
+        <f t="shared" si="1"/>
+        <v>112515</v>
       </c>
       <c r="F15" s="23">
         <f t="shared" si="0"/>
-        <v>112515.05517569328</v>
-      </c>
-      <c r="G15" s="23">
-        <f t="shared" si="1"/>
-        <v>40867.944824306716</v>
+        <v>40868</v>
+      </c>
+      <c r="G15" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H15</f>
+        <v>1264.7168354430432</v>
       </c>
       <c r="H15" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I15</f>
-        <v>1264.7168354430432</v>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B15+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B15+TipoSueloEPE!$D$18)</f>
+        <v>18217.303164556957</v>
       </c>
       <c r="I15" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C15+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C15+TipoSueloEPE!$D$18)</f>
-        <v>18217.303164556957</v>
+        <f>C15/ TipoSueloEPE!$D$5</f>
+        <v>7.8730542315427252</v>
       </c>
       <c r="J15" s="31">
-        <f>D15/ TipoSueloEPE!$D$5</f>
-        <v>7.8730542315427252</v>
+        <f t="shared" si="2"/>
+        <v>88.96457835210586</v>
       </c>
       <c r="K15" s="31">
-        <f t="shared" si="2"/>
-        <v>88.964621979020393</v>
-      </c>
-      <c r="L15" s="31">
         <f t="shared" si="3"/>
-        <v>2.2433586604530014</v>
-      </c>
-      <c r="M15" s="23">
-        <f>F15*TipoSueloEPE!$D$6/10000</f>
-        <v>168.77258276353993</v>
+        <v>2.243361689204995</v>
+      </c>
+      <c r="L15" s="23">
+        <f>E15*TipoSueloEPE!$D$6/10000</f>
+        <v>168.77250000000001</v>
+      </c>
+      <c r="M15" s="31">
+        <f>C15*AguaPotSanBas!$D$12/86400</f>
+        <v>248.53726851851852</v>
       </c>
       <c r="N15" s="31">
-        <f>D15*AguaPotSanBas!$D$12/86400</f>
-        <v>248.53726851851852</v>
+        <f>E15*AguaPotSanBas!$D$12/86400</f>
+        <v>182.31597222222223</v>
       </c>
       <c r="O15" s="31">
         <f>F15*AguaPotSanBas!$D$12/86400</f>
-        <v>182.31606162728079</v>
+        <v>66.221296296296302</v>
       </c>
       <c r="P15" s="31">
-        <f>G15*AguaPotSanBas!$D$12/86400</f>
-        <v>66.221206891237728</v>
+        <f>M15*AguaPotSanBas!$D$13</f>
+        <v>211.25667824074074</v>
       </c>
       <c r="Q15" s="31">
         <f>N15*AguaPotSanBas!$D$13</f>
-        <v>211.25667824074074</v>
+        <v>154.96857638888889</v>
       </c>
       <c r="R15" s="31">
         <f>O15*AguaPotSanBas!$D$13</f>
-        <v>154.96865238318867</v>
-      </c>
-      <c r="S15" s="31">
-        <f>P15*AguaPotSanBas!$D$13</f>
-        <v>56.288025857552064</v>
+        <v>56.288101851851856</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2034</v>
       </c>
       <c r="C16" s="1">
-        <v>2034</v>
-      </c>
-      <c r="D16" s="1">
         <v>167026</v>
       </c>
-      <c r="E16" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C16+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C16+PoblacionSISBEN!$C$10)</f>
+      <c r="D16" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B16+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B16+PoblacionSISBEN!$C$10)</f>
         <v>0.71600862863726533</v>
+      </c>
+      <c r="E16" s="23">
+        <f t="shared" si="1"/>
+        <v>119592</v>
       </c>
       <c r="F16" s="23">
         <f t="shared" si="0"/>
-        <v>119592.05720676787</v>
-      </c>
-      <c r="G16" s="23">
-        <f t="shared" si="1"/>
-        <v>47433.942793232127</v>
+        <v>47434</v>
+      </c>
+      <c r="G16" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H16</f>
+        <v>1391.9146202531665</v>
       </c>
       <c r="H16" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I16</f>
-        <v>1391.9146202531665</v>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B16+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B16+TipoSueloEPE!$D$18)</f>
+        <v>18090.105379746834</v>
       </c>
       <c r="I16" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C16+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C16+TipoSueloEPE!$D$18)</f>
-        <v>18090.105379746834</v>
+        <f>C16/ TipoSueloEPE!$D$5</f>
+        <v>8.5733409574571837</v>
       </c>
       <c r="J16" s="31">
-        <f>D16/ TipoSueloEPE!$D$5</f>
-        <v>8.5733409574571837</v>
+        <f t="shared" si="2"/>
+        <v>85.919063037248776</v>
       </c>
       <c r="K16" s="31">
-        <f t="shared" si="2"/>
-        <v>85.919104136585645</v>
-      </c>
-      <c r="L16" s="31">
         <f t="shared" si="3"/>
-        <v>2.6220932270708506</v>
-      </c>
-      <c r="M16" s="23">
-        <f>F16*TipoSueloEPE!$D$6/10000</f>
-        <v>179.38808581015181</v>
+        <v>2.6220963893944891</v>
+      </c>
+      <c r="L16" s="23">
+        <f>E16*TipoSueloEPE!$D$6/10000</f>
+        <v>179.38800000000001</v>
+      </c>
+      <c r="M16" s="31">
+        <f>C16*AguaPotSanBas!$D$12/86400</f>
+        <v>270.64398148148149</v>
       </c>
       <c r="N16" s="31">
-        <f>D16*AguaPotSanBas!$D$12/86400</f>
-        <v>270.64398148148149</v>
+        <f>E16*AguaPotSanBas!$D$12/86400</f>
+        <v>193.78333333333333</v>
       </c>
       <c r="O16" s="31">
         <f>F16*AguaPotSanBas!$D$12/86400</f>
-        <v>193.78342602948499</v>
+        <v>76.860648148148144</v>
       </c>
       <c r="P16" s="31">
-        <f>G16*AguaPotSanBas!$D$12/86400</f>
-        <v>76.860555451996504</v>
+        <f>M16*AguaPotSanBas!$D$13</f>
+        <v>230.04738425925925</v>
       </c>
       <c r="Q16" s="31">
         <f>N16*AguaPotSanBas!$D$13</f>
-        <v>230.04738425925925</v>
+        <v>164.71583333333334</v>
       </c>
       <c r="R16" s="31">
         <f>O16*AguaPotSanBas!$D$13</f>
-        <v>164.71591212506223</v>
-      </c>
-      <c r="S16" s="31">
-        <f>P16*AguaPotSanBas!$D$13</f>
-        <v>65.331472134197028</v>
+        <v>65.331550925925924</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2039</v>
       </c>
       <c r="C17" s="1">
-        <v>2039</v>
-      </c>
-      <c r="D17" s="1">
         <v>181278</v>
       </c>
-      <c r="E17" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C17+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C17+PoblacionSISBEN!$C$10)</f>
+      <c r="D17" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B17+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B17+PoblacionSISBEN!$C$10)</f>
         <v>0.69846102760309847</v>
+      </c>
+      <c r="E17" s="23">
+        <f t="shared" si="1"/>
+        <v>126616</v>
       </c>
       <c r="F17" s="23">
         <f t="shared" si="0"/>
-        <v>126615.61816183449</v>
-      </c>
-      <c r="G17" s="23">
-        <f t="shared" si="1"/>
-        <v>54662.381838165515</v>
+        <v>54662</v>
+      </c>
+      <c r="G17" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H17</f>
+        <v>1519.1124050632898</v>
       </c>
       <c r="H17" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I17</f>
-        <v>1519.1124050632898</v>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B17+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B17+TipoSueloEPE!$D$18)</f>
+        <v>17962.907594936711</v>
       </c>
       <c r="I17" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C17+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C17+TipoSueloEPE!$D$18)</f>
-        <v>17962.907594936711</v>
+        <f>C17/ TipoSueloEPE!$D$5</f>
+        <v>9.3048872755494543</v>
       </c>
       <c r="J17" s="31">
-        <f>D17/ TipoSueloEPE!$D$5</f>
-        <v>9.3048872755494543</v>
+        <f t="shared" si="2"/>
+        <v>83.34867095942441</v>
       </c>
       <c r="K17" s="31">
-        <f t="shared" si="2"/>
-        <v>83.348419603327102</v>
-      </c>
-      <c r="L17" s="31">
         <f t="shared" si="3"/>
-        <v>3.0430698120149247</v>
-      </c>
-      <c r="M17" s="23">
-        <f>F17*TipoSueloEPE!$D$6/10000</f>
-        <v>189.92342724275173</v>
+        <v>3.043048554979364</v>
+      </c>
+      <c r="L17" s="23">
+        <f>E17*TipoSueloEPE!$D$6/10000</f>
+        <v>189.92400000000001</v>
+      </c>
+      <c r="M17" s="31">
+        <f>C17*AguaPotSanBas!$D$12/86400</f>
+        <v>293.73750000000001</v>
       </c>
       <c r="N17" s="31">
-        <f>D17*AguaPotSanBas!$D$12/86400</f>
-        <v>293.73750000000001</v>
+        <f>E17*AguaPotSanBas!$D$12/86400</f>
+        <v>205.1648148148148</v>
       </c>
       <c r="O17" s="31">
         <f>F17*AguaPotSanBas!$D$12/86400</f>
-        <v>205.16419609556513</v>
+        <v>88.572685185185179</v>
       </c>
       <c r="P17" s="31">
-        <f>G17*AguaPotSanBas!$D$12/86400</f>
-        <v>88.573303904434866</v>
+        <f>M17*AguaPotSanBas!$D$13</f>
+        <v>249.676875</v>
       </c>
       <c r="Q17" s="31">
         <f>N17*AguaPotSanBas!$D$13</f>
-        <v>249.676875</v>
+        <v>174.39009259259257</v>
       </c>
       <c r="R17" s="31">
         <f>O17*AguaPotSanBas!$D$13</f>
-        <v>174.38956668123035</v>
-      </c>
-      <c r="S17" s="31">
-        <f>P17*AguaPotSanBas!$D$13</f>
-        <v>75.287308318769632</v>
+        <v>75.286782407407401</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2044</v>
       </c>
       <c r="C18" s="1">
-        <v>2044</v>
-      </c>
-      <c r="D18" s="1">
         <v>196136</v>
       </c>
-      <c r="E18" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C18+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C18+PoblacionSISBEN!$C$10)</f>
+      <c r="D18" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B18+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B18+PoblacionSISBEN!$C$10)</f>
         <v>0.68091342656893161</v>
+      </c>
+      <c r="E18" s="23">
+        <f t="shared" si="1"/>
+        <v>133552</v>
       </c>
       <c r="F18" s="23">
         <f t="shared" si="0"/>
-        <v>133551.63583352396</v>
-      </c>
-      <c r="G18" s="23">
-        <f t="shared" si="1"/>
-        <v>62584.364166476036</v>
+        <v>62584</v>
+      </c>
+      <c r="G18" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H18</f>
+        <v>1646.3101898734203</v>
       </c>
       <c r="H18" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I18</f>
-        <v>1646.3101898734203</v>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B18+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B18+TipoSueloEPE!$D$18)</f>
+        <v>17835.70981012658</v>
       </c>
       <c r="I18" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C18+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C18+TipoSueloEPE!$D$18)</f>
-        <v>17835.70981012658</v>
+        <f>C18/ TipoSueloEPE!$D$5</f>
+        <v>10.067539197680732</v>
       </c>
       <c r="J18" s="31">
-        <f>D18/ TipoSueloEPE!$D$5</f>
-        <v>10.067539197680732</v>
+        <f t="shared" si="2"/>
+        <v>81.122015050072918</v>
       </c>
       <c r="K18" s="31">
-        <f t="shared" si="2"/>
-        <v>81.121793848455937</v>
-      </c>
-      <c r="L18" s="31">
         <f t="shared" si="3"/>
-        <v>3.5089359959726703</v>
-      </c>
-      <c r="M18" s="23">
-        <f>F18*TipoSueloEPE!$D$6/10000</f>
-        <v>200.32745375028594</v>
+        <v>3.5089155781434997</v>
+      </c>
+      <c r="L18" s="23">
+        <f>E18*TipoSueloEPE!$D$6/10000</f>
+        <v>200.328</v>
+      </c>
+      <c r="M18" s="31">
+        <f>C18*AguaPotSanBas!$D$12/86400</f>
+        <v>317.81296296296296</v>
       </c>
       <c r="N18" s="31">
-        <f>D18*AguaPotSanBas!$D$12/86400</f>
-        <v>317.81296296296296</v>
+        <f>E18*AguaPotSanBas!$D$12/86400</f>
+        <v>216.40370370370371</v>
       </c>
       <c r="O18" s="31">
         <f>F18*AguaPotSanBas!$D$12/86400</f>
-        <v>216.40311361913604</v>
+        <v>101.40925925925926</v>
       </c>
       <c r="P18" s="31">
-        <f>G18*AguaPotSanBas!$D$12/86400</f>
-        <v>101.40984934382691</v>
+        <f>M18*AguaPotSanBas!$D$13</f>
+        <v>270.14101851851848</v>
       </c>
       <c r="Q18" s="31">
         <f>N18*AguaPotSanBas!$D$13</f>
-        <v>270.14101851851848</v>
+        <v>183.94314814814814</v>
       </c>
       <c r="R18" s="31">
         <f>O18*AguaPotSanBas!$D$13</f>
-        <v>183.94264657626562</v>
-      </c>
-      <c r="S18" s="31">
-        <f>P18*AguaPotSanBas!$D$13</f>
-        <v>86.198371942252862</v>
+        <v>86.197870370370367</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2049</v>
       </c>
       <c r="C19" s="1">
-        <v>2049</v>
-      </c>
-      <c r="D19" s="1">
         <v>211602</v>
       </c>
-      <c r="E19" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C19+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C19+PoblacionSISBEN!$C$10)</f>
+      <c r="D19" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B19+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B19+PoblacionSISBEN!$C$10)</f>
         <v>0.66336582553476475</v>
+      </c>
+      <c r="E19" s="23">
+        <f t="shared" si="1"/>
+        <v>140370</v>
       </c>
       <c r="F19" s="23">
         <f t="shared" si="0"/>
-        <v>140369.53541480729</v>
-      </c>
-      <c r="G19" s="23">
-        <f t="shared" si="1"/>
-        <v>71232.464585192705</v>
+        <v>71232</v>
+      </c>
+      <c r="G19" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H19</f>
+        <v>1773.5079746835436</v>
       </c>
       <c r="H19" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I19</f>
-        <v>1773.5079746835436</v>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B19+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B19+TipoSueloEPE!$D$18)</f>
+        <v>17708.512025316457</v>
       </c>
       <c r="I19" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C19+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C19+TipoSueloEPE!$D$18)</f>
-        <v>17708.512025316457</v>
+        <f>C19/ TipoSueloEPE!$D$5</f>
+        <v>10.861399382610221</v>
       </c>
       <c r="J19" s="31">
-        <f>D19/ TipoSueloEPE!$D$5</f>
-        <v>10.861399382610221</v>
+        <f t="shared" si="2"/>
+        <v>79.148220365373305</v>
       </c>
       <c r="K19" s="31">
-        <f t="shared" si="2"/>
-        <v>79.14795840704025</v>
-      </c>
-      <c r="L19" s="31">
         <f t="shared" si="3"/>
-        <v>4.0224985861803235</v>
-      </c>
-      <c r="M19" s="23">
-        <f>F19*TipoSueloEPE!$D$6/10000</f>
-        <v>210.55430312221091</v>
+        <v>4.0224723510459404</v>
+      </c>
+      <c r="L19" s="23">
+        <f>E19*TipoSueloEPE!$D$6/10000</f>
+        <v>210.55500000000001</v>
+      </c>
+      <c r="M19" s="31">
+        <f>C19*AguaPotSanBas!$D$12/86400</f>
+        <v>342.87361111111113</v>
       </c>
       <c r="N19" s="31">
-        <f>D19*AguaPotSanBas!$D$12/86400</f>
-        <v>342.87361111111113</v>
+        <f>E19*AguaPotSanBas!$D$12/86400</f>
+        <v>227.45138888888889</v>
       </c>
       <c r="O19" s="31">
         <f>F19*AguaPotSanBas!$D$12/86400</f>
-        <v>227.4506360888081</v>
+        <v>115.42222222222222</v>
       </c>
       <c r="P19" s="31">
-        <f>G19*AguaPotSanBas!$D$12/86400</f>
-        <v>115.42297502230299</v>
+        <f>M19*AguaPotSanBas!$D$13</f>
+        <v>291.44256944444447</v>
       </c>
       <c r="Q19" s="31">
         <f>N19*AguaPotSanBas!$D$13</f>
-        <v>291.44256944444447</v>
+        <v>193.33368055555556</v>
       </c>
       <c r="R19" s="31">
         <f>O19*AguaPotSanBas!$D$13</f>
-        <v>193.33304067548687</v>
-      </c>
-      <c r="S19" s="31">
-        <f>P19*AguaPotSanBas!$D$13</f>
-        <v>98.109528768957546</v>
+        <v>98.108888888888885</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2054</v>
       </c>
       <c r="C20" s="1">
-        <v>2054</v>
-      </c>
-      <c r="D20" s="1">
         <v>227676</v>
       </c>
-      <c r="E20" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C20+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C20+PoblacionSISBEN!$C$10)</f>
+      <c r="D20" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B20+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B20+PoblacionSISBEN!$C$10)</f>
         <v>0.64581822450059789</v>
+      </c>
+      <c r="E20" s="23">
+        <f t="shared" si="1"/>
+        <v>147037</v>
       </c>
       <c r="F20" s="23">
         <f t="shared" si="0"/>
-        <v>147037.31008139811</v>
-      </c>
-      <c r="G20" s="23">
-        <f t="shared" si="1"/>
-        <v>80638.689918601885</v>
+        <v>80639</v>
+      </c>
+      <c r="G20" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H20</f>
+        <v>1900.7057594936668</v>
       </c>
       <c r="H20" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I20</f>
-        <v>1900.7057594936668</v>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B20+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B20+TipoSueloEPE!$D$18)</f>
+        <v>17581.314240506334</v>
       </c>
       <c r="I20" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C20+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C20+TipoSueloEPE!$D$18)</f>
-        <v>17581.314240506334</v>
+        <f>C20/ TipoSueloEPE!$D$5</f>
+        <v>11.686467830337921</v>
       </c>
       <c r="J20" s="31">
-        <f>D20/ TipoSueloEPE!$D$5</f>
-        <v>11.686467830337921</v>
+        <f t="shared" si="2"/>
+        <v>77.359159494086825</v>
       </c>
       <c r="K20" s="31">
-        <f t="shared" si="2"/>
-        <v>77.359322634223886</v>
-      </c>
-      <c r="L20" s="31">
         <f t="shared" si="3"/>
-        <v>4.5866133108988514</v>
-      </c>
-      <c r="M20" s="23">
-        <f>F20*TipoSueloEPE!$D$6/10000</f>
-        <v>220.55596512209718</v>
+        <v>4.5866309478851361</v>
+      </c>
+      <c r="L20" s="23">
+        <f>E20*TipoSueloEPE!$D$6/10000</f>
+        <v>220.55549999999999</v>
+      </c>
+      <c r="M20" s="31">
+        <f>C20*AguaPotSanBas!$D$12/86400</f>
+        <v>368.91944444444442</v>
       </c>
       <c r="N20" s="31">
-        <f>D20*AguaPotSanBas!$D$12/86400</f>
-        <v>368.91944444444442</v>
+        <f>E20*AguaPotSanBas!$D$12/86400</f>
+        <v>238.25439814814814</v>
       </c>
       <c r="O20" s="31">
         <f>F20*AguaPotSanBas!$D$12/86400</f>
-        <v>238.25490059485804</v>
+        <v>130.66504629629631</v>
       </c>
       <c r="P20" s="31">
-        <f>G20*AguaPotSanBas!$D$12/86400</f>
-        <v>130.66454384958638</v>
+        <f>M20*AguaPotSanBas!$D$13</f>
+        <v>313.58152777777775</v>
       </c>
       <c r="Q20" s="31">
         <f>N20*AguaPotSanBas!$D$13</f>
-        <v>313.58152777777775</v>
+        <v>202.51623842592591</v>
       </c>
       <c r="R20" s="31">
         <f>O20*AguaPotSanBas!$D$13</f>
-        <v>202.51666550562933</v>
-      </c>
-      <c r="S20" s="31">
-        <f>P20*AguaPotSanBas!$D$13</f>
-        <v>111.06486227214842</v>
+        <v>111.06528935185186</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2059</v>
       </c>
       <c r="C21" s="1">
-        <v>2059</v>
-      </c>
-      <c r="D21" s="1">
         <v>244356</v>
       </c>
-      <c r="E21" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C21+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C21+PoblacionSISBEN!$C$10)</f>
+      <c r="D21" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B21+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B21+PoblacionSISBEN!$C$10)</f>
         <v>0.62827062346643103</v>
+      </c>
+      <c r="E21" s="23">
+        <f t="shared" si="1"/>
+        <v>153522</v>
       </c>
       <c r="F21" s="23">
         <f t="shared" si="0"/>
-        <v>153521.69646776322</v>
-      </c>
-      <c r="G21" s="23">
-        <f t="shared" si="1"/>
-        <v>90834.30353223678</v>
+        <v>90834</v>
+      </c>
+      <c r="G21" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H21</f>
+        <v>2027.9035443037974</v>
       </c>
       <c r="H21" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I21</f>
-        <v>2027.9035443037974</v>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B21+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B21+TipoSueloEPE!$D$18)</f>
+        <v>17454.116455696203</v>
       </c>
       <c r="I21" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C21+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C21+TipoSueloEPE!$D$18)</f>
-        <v>17454.116455696203</v>
+        <f>C21/ TipoSueloEPE!$D$5</f>
+        <v>12.542641882104627</v>
       </c>
       <c r="J21" s="31">
-        <f>D21/ TipoSueloEPE!$D$5</f>
-        <v>12.542641882104627</v>
+        <f t="shared" si="2"/>
+        <v>75.704784101408464</v>
       </c>
       <c r="K21" s="31">
-        <f t="shared" si="2"/>
-        <v>75.704634423561302</v>
-      </c>
-      <c r="L21" s="31">
         <f t="shared" si="3"/>
-        <v>5.2041765484263589</v>
-      </c>
-      <c r="M21" s="23">
-        <f>F21*TipoSueloEPE!$D$6/10000</f>
-        <v>230.28254470164484</v>
+        <v>5.2041591581312074</v>
+      </c>
+      <c r="L21" s="23">
+        <f>E21*TipoSueloEPE!$D$6/10000</f>
+        <v>230.28299999999999</v>
+      </c>
+      <c r="M21" s="31">
+        <f>C21*AguaPotSanBas!$D$12/86400</f>
+        <v>395.94722222222219</v>
       </c>
       <c r="N21" s="31">
-        <f>D21*AguaPotSanBas!$D$12/86400</f>
-        <v>395.94722222222219</v>
+        <f>E21*AguaPotSanBas!$D$12/86400</f>
+        <v>248.76249999999999</v>
       </c>
       <c r="O21" s="31">
         <f>F21*AguaPotSanBas!$D$12/86400</f>
-        <v>248.76200816535706</v>
+        <v>147.18472222222223</v>
       </c>
       <c r="P21" s="31">
-        <f>G21*AguaPotSanBas!$D$12/86400</f>
-        <v>147.18521405686514</v>
+        <f>M21*AguaPotSanBas!$D$13</f>
+        <v>336.55513888888885</v>
       </c>
       <c r="Q21" s="31">
         <f>N21*AguaPotSanBas!$D$13</f>
-        <v>336.55513888888885</v>
+        <v>211.44812499999998</v>
       </c>
       <c r="R21" s="31">
         <f>O21*AguaPotSanBas!$D$13</f>
-        <v>211.4477069405535</v>
-      </c>
-      <c r="S21" s="31">
-        <f>P21*AguaPotSanBas!$D$13</f>
-        <v>125.10743194833536</v>
+        <v>125.1070138888889</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2064</v>
       </c>
       <c r="C22" s="1">
-        <v>2064</v>
-      </c>
-      <c r="D22" s="1">
         <v>261645</v>
       </c>
-      <c r="E22" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C22+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C22+PoblacionSISBEN!$C$10)</f>
+      <c r="D22" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B22+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B22+PoblacionSISBEN!$C$10)</f>
         <v>0.61072302243226417</v>
+      </c>
+      <c r="E22" s="23">
+        <f t="shared" si="1"/>
+        <v>159793</v>
       </c>
       <c r="F22" s="23">
         <f t="shared" si="0"/>
-        <v>159792.62520428977</v>
-      </c>
-      <c r="G22" s="23">
-        <f t="shared" si="1"/>
-        <v>101852.37479571023</v>
+        <v>101852</v>
+      </c>
+      <c r="G22" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H22</f>
+        <v>2155.1013291139207</v>
       </c>
       <c r="H22" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I22</f>
-        <v>2155.1013291139207</v>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B22+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B22+TipoSueloEPE!$D$18)</f>
+        <v>17326.91867088608</v>
       </c>
       <c r="I22" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C22+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C22+TipoSueloEPE!$D$18)</f>
-        <v>17326.91867088608</v>
+        <f>C22/ TipoSueloEPE!$D$5</f>
+        <v>13.430075526049146</v>
       </c>
       <c r="J22" s="31">
-        <f>D22/ TipoSueloEPE!$D$5</f>
-        <v>13.430075526049146</v>
+        <f t="shared" si="2"/>
+        <v>74.146397592218833</v>
       </c>
       <c r="K22" s="31">
-        <f t="shared" si="2"/>
-        <v>74.146223681273128</v>
-      </c>
-      <c r="L22" s="31">
         <f t="shared" si="3"/>
-        <v>5.8782739580148107</v>
-      </c>
-      <c r="M22" s="23">
-        <f>F22*TipoSueloEPE!$D$6/10000</f>
-        <v>239.68893780643464</v>
+        <v>5.8782523271803067</v>
+      </c>
+      <c r="L22" s="23">
+        <f>E22*TipoSueloEPE!$D$6/10000</f>
+        <v>239.68950000000001</v>
+      </c>
+      <c r="M22" s="31">
+        <f>C22*AguaPotSanBas!$D$12/86400</f>
+        <v>423.96180555555554</v>
       </c>
       <c r="N22" s="31">
-        <f>D22*AguaPotSanBas!$D$12/86400</f>
-        <v>423.96180555555554</v>
+        <f>E22*AguaPotSanBas!$D$12/86400</f>
+        <v>258.92384259259262</v>
       </c>
       <c r="O22" s="31">
         <f>F22*AguaPotSanBas!$D$12/86400</f>
-        <v>258.92323528472878</v>
+        <v>165.03796296296295</v>
       </c>
       <c r="P22" s="31">
-        <f>G22*AguaPotSanBas!$D$12/86400</f>
-        <v>165.03857027082677</v>
+        <f>M22*AguaPotSanBas!$D$13</f>
+        <v>360.36753472222222</v>
       </c>
       <c r="Q22" s="31">
         <f>N22*AguaPotSanBas!$D$13</f>
-        <v>360.36753472222222</v>
+        <v>220.08526620370372</v>
       </c>
       <c r="R22" s="31">
         <f>O22*AguaPotSanBas!$D$13</f>
-        <v>220.08474999201945</v>
-      </c>
-      <c r="S22" s="31">
-        <f>P22*AguaPotSanBas!$D$13</f>
-        <v>140.28278473020274</v>
+        <v>140.28226851851849</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2069</v>
       </c>
       <c r="C23" s="1">
-        <v>2069</v>
-      </c>
-      <c r="D23" s="1">
         <v>279540</v>
       </c>
-      <c r="E23" s="22">
-        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C23+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!C23+PoblacionSISBEN!$C$10)</f>
+      <c r="D23" s="22">
+        <f>IF((PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B23+PoblacionSISBEN!$C$10)&gt;1,1,PoblacionSISBEN!$C$9*PoblacionAreaDensEPEQ!B23+PoblacionSISBEN!$C$10)</f>
         <v>0.59317542139809731</v>
+      </c>
+      <c r="E23" s="23">
+        <f t="shared" si="1"/>
+        <v>165816</v>
       </c>
       <c r="F23" s="23">
         <f t="shared" si="0"/>
-        <v>165816.25729762414</v>
-      </c>
-      <c r="G23" s="23">
-        <f t="shared" si="1"/>
-        <v>113723.74270237586</v>
+        <v>113724</v>
+      </c>
+      <c r="G23" s="31">
+        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!H23</f>
+        <v>2282.2991139240512</v>
       </c>
       <c r="H23" s="31">
-        <f>TipoSueloEPE!$D$5-PoblacionAreaDensEPEQ!I23</f>
-        <v>2282.2991139240512</v>
+        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B23+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!B23+TipoSueloEPE!$D$18)</f>
+        <v>17199.720886075949</v>
       </c>
       <c r="I23" s="31">
-        <f>IF(TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C23+TipoSueloEPE!$D$18&gt;TipoSueloEPE!$D$5,TipoSueloEPE!$D$5-1,TipoSueloEPE!$D$17*PoblacionAreaDensEPEQ!C23+TipoSueloEPE!$D$18)</f>
-        <v>17199.720886075949</v>
+        <f>C23/ TipoSueloEPE!$D$5</f>
+        <v>14.348614774032672</v>
       </c>
       <c r="J23" s="31">
-        <f>D23/ TipoSueloEPE!$D$5</f>
-        <v>14.348614774032672</v>
+        <f t="shared" si="2"/>
+        <v>72.653053663463808</v>
       </c>
       <c r="K23" s="31">
-        <f t="shared" si="2"/>
-        <v>72.653166399617703</v>
-      </c>
-      <c r="L23" s="31">
         <f t="shared" si="3"/>
-        <v>6.6119528017713955</v>
-      </c>
-      <c r="M23" s="23">
-        <f>F23*TipoSueloEPE!$D$6/10000</f>
-        <v>248.72438594643623</v>
+        <v>6.6119677611783443</v>
+      </c>
+      <c r="L23" s="23">
+        <f>E23*TipoSueloEPE!$D$6/10000</f>
+        <v>248.72399999999999</v>
+      </c>
+      <c r="M23" s="31">
+        <f>C23*AguaPotSanBas!$D$12/86400</f>
+        <v>452.95833333333331</v>
       </c>
       <c r="N23" s="31">
-        <f>D23*AguaPotSanBas!$D$12/86400</f>
-        <v>452.95833333333331</v>
+        <f>E23*AguaPotSanBas!$D$12/86400</f>
+        <v>268.68333333333334</v>
       </c>
       <c r="O23" s="31">
         <f>F23*AguaPotSanBas!$D$12/86400</f>
-        <v>268.68375025077984</v>
+        <v>184.27500000000001</v>
       </c>
       <c r="P23" s="31">
-        <f>G23*AguaPotSanBas!$D$12/86400</f>
-        <v>184.27458308255348</v>
+        <f>M23*AguaPotSanBas!$D$13</f>
+        <v>385.01458333333329</v>
       </c>
       <c r="Q23" s="31">
         <f>N23*AguaPotSanBas!$D$13</f>
-        <v>385.01458333333329</v>
+        <v>228.38083333333333</v>
       </c>
       <c r="R23" s="31">
         <f>O23*AguaPotSanBas!$D$13</f>
-        <v>228.38118771316286</v>
-      </c>
-      <c r="S23" s="31">
-        <f>P23*AguaPotSanBas!$D$13</f>
-        <v>156.63339562017046</v>
+        <v>156.63374999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94E9948-5D44-49EC-8CDF-A7CEA59F4AEF}">
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7108</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.36484923021329407</v>
+      </c>
+      <c r="G2" s="1">
+        <v>11.517592592592592</v>
+      </c>
+      <c r="H2" s="1">
+        <v>9.7899537037037039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1">
+        <v>11480</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.58926127783463933</v>
+      </c>
+      <c r="G3" s="1">
+        <v>18.601851851851851</v>
+      </c>
+      <c r="H3" s="1">
+        <v>15.811574074074073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12273</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.62996547585927942</v>
+      </c>
+      <c r="G4" s="1">
+        <v>19.886805555555554</v>
+      </c>
+      <c r="H4" s="1">
+        <v>16.90378472222222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20628</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.0588224424366672</v>
+      </c>
+      <c r="G5" s="1">
+        <v>33.424999999999997</v>
+      </c>
+      <c r="H5" s="1">
+        <v>28.411249999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="1">
+        <v>27775</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.4256735184544518</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45.005787037037038</v>
+      </c>
+      <c r="H6" s="1">
+        <v>38.254918981481481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="1">
+        <v>39836</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.0447571658380395</v>
+      </c>
+      <c r="G7" s="1">
+        <v>64.54907407407407</v>
+      </c>
+      <c r="H7" s="1">
+        <v>54.866712962962957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="1">
+        <v>60202</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.0901313108188986</v>
+      </c>
+      <c r="G8" s="1">
+        <v>97.549537037037041</v>
+      </c>
+      <c r="H8" s="1">
+        <v>82.917106481481483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="1">
+        <v>69695</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.5774011113837272</v>
+      </c>
+      <c r="G9" s="1">
+        <v>112.93171296296296</v>
+      </c>
+      <c r="H9" s="1">
+        <v>95.991956018518522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="1">
+        <v>78923</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.051068626353941</v>
+      </c>
+      <c r="G10" s="1">
+        <v>127.88449074074074</v>
+      </c>
+      <c r="H10" s="1">
+        <v>108.70181712962963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100038</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5.134888476656938</v>
+      </c>
+      <c r="G11" s="1">
+        <v>162.0986111111111</v>
+      </c>
+      <c r="H11" s="1">
+        <v>137.78381944444442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="1">
+        <v>128968</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6.6198474285520703</v>
+      </c>
+      <c r="G12" s="1">
+        <v>208.97592592592594</v>
+      </c>
+      <c r="H12" s="1">
+        <v>177.62953703703704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="1">
+        <v>127918</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6.5659515799696333</v>
+      </c>
+      <c r="G13" s="1">
+        <v>207.27453703703705</v>
+      </c>
+      <c r="H13" s="1">
+        <v>176.1833564814815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="1">
+        <v>140346</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.2038731096672723</v>
+      </c>
+      <c r="G14" s="1">
+        <v>227.41249999999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>193.300625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="1">
+        <v>153383</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.8730542315427252</v>
+      </c>
+      <c r="G15" s="1">
+        <v>248.53726851851852</v>
+      </c>
+      <c r="H15" s="1">
+        <v>211.25667824074074</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="1">
+        <v>167026</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8.5733409574571837</v>
+      </c>
+      <c r="G16" s="1">
+        <v>270.64398148148149</v>
+      </c>
+      <c r="H16" s="1">
+        <v>230.04738425925925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="1">
+        <v>181278</v>
+      </c>
+      <c r="E17" s="1">
+        <v>9.3048872755494543</v>
+      </c>
+      <c r="G17" s="1">
+        <v>293.73750000000001</v>
+      </c>
+      <c r="H17" s="1">
+        <v>249.676875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="1">
+        <v>196136</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10.067539197680732</v>
+      </c>
+      <c r="G18" s="1">
+        <v>317.81296296296296</v>
+      </c>
+      <c r="H18" s="1">
+        <v>270.14101851851848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="1">
+        <v>211602</v>
+      </c>
+      <c r="E19" s="1">
+        <v>10.861399382610221</v>
+      </c>
+      <c r="G19" s="1">
+        <v>342.87361111111113</v>
+      </c>
+      <c r="H19" s="1">
+        <v>291.44256944444447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="1">
+        <v>227676</v>
+      </c>
+      <c r="E20" s="1">
+        <v>11.686467830337921</v>
+      </c>
+      <c r="G20" s="1">
+        <v>368.91944444444442</v>
+      </c>
+      <c r="H20" s="1">
+        <v>313.58152777777775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="1">
+        <v>244356</v>
+      </c>
+      <c r="E21" s="1">
+        <v>12.542641882104627</v>
+      </c>
+      <c r="G21" s="1">
+        <v>395.94722222222219</v>
+      </c>
+      <c r="H21" s="1">
+        <v>336.55513888888885</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="1">
+        <v>261645</v>
+      </c>
+      <c r="E22" s="1">
+        <v>13.430075526049146</v>
+      </c>
+      <c r="G22" s="1">
+        <v>423.96180555555554</v>
+      </c>
+      <c r="H22" s="1">
+        <v>360.36753472222222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="1">
+        <v>279540</v>
+      </c>
+      <c r="E23" s="1">
+        <v>14.348614774032672</v>
+      </c>
+      <c r="G23" s="1">
+        <v>452.95833333333331</v>
+      </c>
+      <c r="H23" s="1">
+        <v>385.01458333333329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7108</v>
+      </c>
+      <c r="E24" s="1">
+        <v>367.72064906401482</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10.662000000000001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>11.517592592592592</v>
+      </c>
+      <c r="H24" s="1">
+        <v>9.7899537037037039</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="1">
+        <v>11480</v>
+      </c>
+      <c r="E25" s="1">
+        <v>367.72064906401482</v>
+      </c>
+      <c r="F25" s="1">
+        <v>17.22</v>
+      </c>
+      <c r="G25" s="1">
+        <v>18.601851851851851</v>
+      </c>
+      <c r="H25" s="1">
+        <v>15.811574074074073</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="1">
+        <v>12273</v>
+      </c>
+      <c r="E26" s="1">
+        <v>367.72064906401482</v>
+      </c>
+      <c r="F26" s="1">
+        <v>18.409500000000001</v>
+      </c>
+      <c r="G26" s="1">
+        <v>19.886805555555554</v>
+      </c>
+      <c r="H26" s="1">
+        <v>16.90378472222222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="1">
+        <v>20628</v>
+      </c>
+      <c r="E27" s="1">
+        <v>367.72064906401482</v>
+      </c>
+      <c r="F27" s="1">
+        <v>30.942</v>
+      </c>
+      <c r="G27" s="1">
+        <v>33.424999999999997</v>
+      </c>
+      <c r="H27" s="1">
+        <v>28.411249999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="23">
+        <v>26711</v>
+      </c>
+      <c r="E28" s="1">
+        <v>367.72064906401482</v>
+      </c>
+      <c r="F28" s="1">
+        <v>40.065786483803663</v>
+      </c>
+      <c r="G28" s="1">
+        <v>43.281712962962963</v>
+      </c>
+      <c r="H28" s="1">
+        <v>36.789456018518521</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="23">
+        <v>37051</v>
+      </c>
+      <c r="E29" s="1">
+        <v>367.72064906401482</v>
+      </c>
+      <c r="F29" s="1">
+        <v>55.576559692377444</v>
+      </c>
+      <c r="G29" s="1">
+        <v>60.03634259259259</v>
+      </c>
+      <c r="H29" s="1">
+        <v>51.030891203703703</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="23">
+        <v>53458</v>
+      </c>
+      <c r="E30" s="1">
+        <v>367.72064906401482</v>
+      </c>
+      <c r="F30" s="1">
+        <v>80.186817150476926</v>
+      </c>
+      <c r="G30" s="1">
+        <v>86.621759259259264</v>
+      </c>
+      <c r="H30" s="1">
+        <v>73.628495370370374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="23">
+        <v>59931</v>
+      </c>
+      <c r="E31" s="1">
+        <v>171.77385267199924</v>
+      </c>
+      <c r="F31" s="1">
+        <v>89.895986724449202</v>
+      </c>
+      <c r="G31" s="1">
+        <v>97.110416666666666</v>
+      </c>
+      <c r="H31" s="1">
+        <v>82.543854166666662</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="23">
+        <v>67312</v>
+      </c>
+      <c r="E32" s="1">
+        <v>168.37562089567578</v>
+      </c>
+      <c r="F32" s="1">
+        <v>100.96776249901697</v>
+      </c>
+      <c r="G32" s="1">
+        <v>109.07037037037037</v>
+      </c>
+      <c r="H32" s="1">
+        <v>92.709814814814806</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="23">
+        <v>81810</v>
+      </c>
+      <c r="E33" s="1">
+        <v>125.05902729845596</v>
+      </c>
+      <c r="F33" s="1">
+        <v>122.71432092404906</v>
+      </c>
+      <c r="G33" s="1">
+        <v>132.5625</v>
+      </c>
+      <c r="H33" s="1">
+        <v>112.67812499999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="23">
+        <v>99584</v>
+      </c>
+      <c r="E34" s="1">
+        <v>101.11270496214216</v>
+      </c>
+      <c r="F34" s="1">
+        <v>149.37608047597337</v>
+      </c>
+      <c r="G34" s="1">
+        <v>161.36296296296297</v>
+      </c>
+      <c r="H34" s="1">
+        <v>137.15851851851852</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="23">
+        <v>98324</v>
+      </c>
+      <c r="E35" s="1">
+        <v>97.319889396976592</v>
+      </c>
+      <c r="F35" s="1">
+        <v>147.48653076793087</v>
+      </c>
+      <c r="G35" s="1">
+        <v>159.32129629629631</v>
+      </c>
+      <c r="H35" s="1">
+        <v>135.42310185185187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="23">
+        <v>105414</v>
+      </c>
+      <c r="E36" s="1">
+        <v>92.670463994036567</v>
+      </c>
+      <c r="F36" s="1">
+        <v>158.121627336312</v>
+      </c>
+      <c r="G36" s="1">
+        <v>170.80972222222223</v>
+      </c>
+      <c r="H36" s="1">
+        <v>145.18826388888888</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="23">
+        <v>112515</v>
+      </c>
+      <c r="E37" s="1">
+        <v>88.964621979020393</v>
+      </c>
+      <c r="F37" s="1">
+        <v>168.77258276353993</v>
+      </c>
+      <c r="G37" s="1">
+        <v>182.31597222222223</v>
+      </c>
+      <c r="H37" s="1">
+        <v>154.96857638888889</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="23">
+        <v>119592</v>
+      </c>
+      <c r="E38" s="1">
+        <v>85.919104136585645</v>
+      </c>
+      <c r="F38" s="1">
+        <v>179.38808581015181</v>
+      </c>
+      <c r="G38" s="1">
+        <v>193.78333333333333</v>
+      </c>
+      <c r="H38" s="1">
+        <v>164.71583333333334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="23">
+        <v>126616</v>
+      </c>
+      <c r="E39" s="1">
+        <v>83.348419603327102</v>
+      </c>
+      <c r="F39" s="1">
+        <v>189.92342724275173</v>
+      </c>
+      <c r="G39" s="1">
+        <v>205.1648148148148</v>
+      </c>
+      <c r="H39" s="1">
+        <v>174.39009259259257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="23">
+        <v>133552</v>
+      </c>
+      <c r="E40" s="1">
+        <v>81.121793848455937</v>
+      </c>
+      <c r="F40" s="1">
+        <v>200.32745375028594</v>
+      </c>
+      <c r="G40" s="1">
+        <v>216.40370370370371</v>
+      </c>
+      <c r="H40" s="1">
+        <v>183.94314814814814</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="23">
+        <v>140370</v>
+      </c>
+      <c r="E41" s="1">
+        <v>79.14795840704025</v>
+      </c>
+      <c r="F41" s="1">
+        <v>210.55430312221091</v>
+      </c>
+      <c r="G41" s="1">
+        <v>227.45138888888889</v>
+      </c>
+      <c r="H41" s="1">
+        <v>193.33368055555556</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="23">
+        <v>147037</v>
+      </c>
+      <c r="E42" s="1">
+        <v>77.359322634223886</v>
+      </c>
+      <c r="F42" s="1">
+        <v>220.55596512209718</v>
+      </c>
+      <c r="G42" s="1">
+        <v>238.25439814814814</v>
+      </c>
+      <c r="H42" s="1">
+        <v>202.51623842592591</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="23">
+        <v>153522</v>
+      </c>
+      <c r="E43" s="1">
+        <v>75.704634423561302</v>
+      </c>
+      <c r="F43" s="1">
+        <v>230.28254470164484</v>
+      </c>
+      <c r="G43" s="1">
+        <v>248.76249999999999</v>
+      </c>
+      <c r="H43" s="1">
+        <v>211.44812499999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="23">
+        <v>159793</v>
+      </c>
+      <c r="E44" s="1">
+        <v>74.146223681273128</v>
+      </c>
+      <c r="F44" s="1">
+        <v>239.68893780643464</v>
+      </c>
+      <c r="G44" s="1">
+        <v>258.92384259259262</v>
+      </c>
+      <c r="H44" s="1">
+        <v>220.08526620370372</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="23">
+        <v>165816</v>
+      </c>
+      <c r="E45" s="1">
+        <v>72.653166399617703</v>
+      </c>
+      <c r="F45" s="1">
+        <v>248.72438594643623</v>
+      </c>
+      <c r="G45" s="1">
+        <v>268.68333333333334</v>
+      </c>
+      <c r="H45" s="1">
+        <v>228.38083333333333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1064.4756774642228</v>
+      </c>
+      <c r="E50" s="1">
+        <v>5.464168084957681E-2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1.7240740740740741</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1.465462962962963</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2784.9602050817048</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.14295761746980931</v>
+      </c>
+      <c r="G51" s="1">
+        <v>4.5127314814814818</v>
+      </c>
+      <c r="H51" s="1">
+        <v>3.8358217592592596</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="1">
+        <v>6744.1218996820535</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.34877417272968836</v>
+      </c>
+      <c r="G52" s="1">
+        <v>10.927777777777777</v>
+      </c>
+      <c r="H52" s="1">
+        <v>9.2886111111111109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="1">
+        <v>9764.3421837005299</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.51033697073568718</v>
+      </c>
+      <c r="G53" s="1">
+        <v>15.821296296296296</v>
+      </c>
+      <c r="H53" s="1">
+        <v>13.448101851851851</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="1">
+        <v>11611.158333988686</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.60847958125114521</v>
+      </c>
+      <c r="G54" s="1">
+        <v>18.814120370370372</v>
+      </c>
+      <c r="H54" s="1">
+        <v>15.992002314814815</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="1">
+        <v>18228.452717300635</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.96816419645642193</v>
+      </c>
+      <c r="G55" s="1">
+        <v>29.536111111111111</v>
+      </c>
+      <c r="H55" s="1">
+        <v>25.105694444444445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="1">
+        <v>29383.946349351099</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1.5885671549218519</v>
+      </c>
+      <c r="G56" s="1">
+        <v>47.61296296296296</v>
+      </c>
+      <c r="H56" s="1">
+        <v>40.471018518518513</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="1">
+        <v>29593.64615471274</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1.6021074499205195</v>
+      </c>
+      <c r="G57" s="1">
+        <v>47.953240740740739</v>
+      </c>
+      <c r="H57" s="1">
+        <v>40.760254629629628</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="1">
+        <v>34931.581775792001</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1.9041990769989954</v>
+      </c>
+      <c r="G58" s="1">
+        <v>56.602777777777774</v>
+      </c>
+      <c r="H58" s="1">
+        <v>48.112361111111106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="1">
+        <v>40867.944824306716</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2.2433586604530014</v>
+      </c>
+      <c r="G59" s="1">
+        <v>66.221296296296302</v>
+      </c>
+      <c r="H59" s="1">
+        <v>56.288101851851856</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="1">
+        <v>47433.942793232127</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2.6220932270708506</v>
+      </c>
+      <c r="G60" s="1">
+        <v>76.860648148148144</v>
+      </c>
+      <c r="H60" s="1">
+        <v>65.331550925925924</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="1">
+        <v>54662.381838165515</v>
+      </c>
+      <c r="E61" s="1">
+        <v>3.0430698120149247</v>
+      </c>
+      <c r="G61" s="1">
+        <v>88.572685185185179</v>
+      </c>
+      <c r="H61" s="1">
+        <v>75.286782407407401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="1">
+        <v>62584.364166476036</v>
+      </c>
+      <c r="E62" s="1">
+        <v>3.5089359959726703</v>
+      </c>
+      <c r="G62" s="1">
+        <v>101.40925925925926</v>
+      </c>
+      <c r="H62" s="1">
+        <v>86.197870370370367</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="1">
+        <v>71232.464585192705</v>
+      </c>
+      <c r="E63" s="1">
+        <v>4.0224985861803235</v>
+      </c>
+      <c r="G63" s="1">
+        <v>115.42222222222222</v>
+      </c>
+      <c r="H63" s="1">
+        <v>98.108888888888885</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="1">
+        <v>80638.689918601885</v>
+      </c>
+      <c r="E64" s="1">
+        <v>4.5866133108988514</v>
+      </c>
+      <c r="G64" s="1">
+        <v>130.66504629629631</v>
+      </c>
+      <c r="H64" s="1">
+        <v>111.06528935185186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="1">
+        <v>90834.30353223678</v>
+      </c>
+      <c r="E65" s="1">
+        <v>5.2041765484263589</v>
+      </c>
+      <c r="G65" s="1">
+        <v>147.18472222222223</v>
+      </c>
+      <c r="H65" s="1">
+        <v>125.1070138888889</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="1">
+        <v>101852.37479571023</v>
+      </c>
+      <c r="E66" s="1">
+        <v>5.8782739580148107</v>
+      </c>
+      <c r="G66" s="1">
+        <v>165.03796296296295</v>
+      </c>
+      <c r="H66" s="1">
+        <v>140.28226851851849</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="1">
+        <v>113723.74270237586</v>
+      </c>
+      <c r="E67" s="1">
+        <v>6.6119528017713955</v>
+      </c>
+      <c r="G67" s="1">
+        <v>184.27500000000001</v>
+      </c>
+      <c r="H67" s="1">
+        <v>156.63374999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
+++ b/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\PopulationGIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C678240-8518-48AB-94A4-6E374E108664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB00AD7-6031-4237-ACB3-74347E717F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="769" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="667" yWindow="225" windowWidth="14431" windowHeight="13290" tabRatio="769" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PoblacionSISBEN" sheetId="10" r:id="rId1"/>
@@ -17636,9 +17636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94E9948-5D44-49EC-8CDF-A7CEA59F4AEF}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>

--- a/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
+++ b/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\PopulationGIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB00AD7-6031-4237-ACB3-74347E717F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60DF9AE-9036-4F68-8DCF-55E91FA8A932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="667" yWindow="225" windowWidth="14431" windowHeight="13290" tabRatio="769" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17636,9 +17636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94E9948-5D44-49EC-8CDF-A7CEA59F4AEF}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>

--- a/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
+++ b/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\PopulationGIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.SIGE\activity\PopulationGIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60DF9AE-9036-4F68-8DCF-55E91FA8A932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A56F4E2-CB9C-45F3-8F49-4D2AFEE60F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="667" yWindow="225" windowWidth="14431" windowHeight="13290" tabRatio="769" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="769" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PoblacionSISBEN" sheetId="10" r:id="rId1"/>
@@ -326,7 +326,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -348,7 +348,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="117">
   <si>
     <t>Fuente</t>
   </si>
@@ -498,9 +498,6 @@
   </si>
   <si>
     <t>Análisis de densidad, espacio público efectivo y demanda de servicios públicos</t>
-  </si>
-  <si>
-    <t>Análisis de demanda de agua potable y caudal servido</t>
   </si>
   <si>
     <t>Nivel de complejidad</t>
@@ -702,13 +699,19 @@
   <si>
     <t>QAcu</t>
   </si>
+  <si>
+    <t>* Tenga en cuenta que la Resolución 0330 de 2017, por medio del cual se actualizó el reglamento de agua potable y saneamiento básico - RAS, ajustó los rangos de elevación de la zona estudio y los valores correspondientes a las dotaciones netas y coeficientes de retorno. Posteriormente y mediante la Resolución 799 de 2021, se realizaron ajustes complementarios a estas normas.</t>
+  </si>
+  <si>
+    <t>Análisis de demanda de agua potable y caudal servido (*Resolución 1096 del 17 de Noviembre de 2000 - RAS)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1188,46 +1191,22 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1241,18 +1220,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1289,9 +1256,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1300,12 +1264,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1316,26 +1274,89 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1343,28 +1364,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3376,7 +3379,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -3481,7 +3484,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -3669,7 +3672,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4069,7 +4072,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -5241,7 +5244,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -7956,7 +7959,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -8879,7 +8882,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -14629,7 +14632,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="12231221" cy="6286500"/>
+    <xdr:ext cx="12225338" cy="6281738"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -15257,72 +15260,72 @@
       <c r="I13" s="13"/>
     </row>
     <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="63"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B15" s="37"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="63"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B16" s="38"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="63"/>
     </row>
     <row r="17" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B18" s="37"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B19" s="39"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15369,26 +15372,26 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="47">
+      <c r="C5" s="71"/>
+      <c r="D5" s="39">
         <v>19482.02</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="40" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="49">
+      <c r="C6" s="73"/>
+      <c r="D6" s="41">
         <v>15</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="42" t="s">
         <v>44</v>
       </c>
     </row>
@@ -15482,10 +15485,10 @@
       <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -15493,11 +15496,11 @@
       <c r="B17" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="42" cm="1">
+      <c r="C17" s="34" cm="1">
         <f t="array" ref="C17">INDEX(LINEST(D10:D12,C10:C12^{1},TRUE,TRUE),1,1)</f>
         <v>21.09677215189873</v>
       </c>
-      <c r="D17" s="43" cm="1">
+      <c r="D17" s="35" cm="1">
         <f t="array" ref="D17">INDEX(LINEST(E10:E12,C10:C12^{1},TRUE,TRUE),1,1)</f>
         <v>-25.439556962025225</v>
       </c>
@@ -15506,11 +15509,11 @@
       <c r="B18" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="44" cm="1">
+      <c r="C18" s="36" cm="1">
         <f t="array" ref="C18">INDEX(LINEST(D10:D12,C10:C12^{1},TRUE,TRUE),1,2)</f>
         <v>-41577.418037974669</v>
       </c>
-      <c r="D18" s="45" cm="1">
+      <c r="D18" s="37" cm="1">
         <f t="array" ref="D18">INDEX(LINEST(E10:E12,C10:C12^{1},TRUE,TRUE),1,2)</f>
         <v>69834.164240506143</v>
       </c>
@@ -15550,17 +15553,17 @@
         <f>C22+D22</f>
         <v>19482.02</v>
       </c>
-      <c r="F22" s="46"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="F24" s="46"/>
+      <c r="F24" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15574,10 +15577,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D51D26C-E6F7-461B-8618-6301F37C70DF}">
-  <dimension ref="B2:F37"/>
+  <dimension ref="B2:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -15594,7 +15597,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
@@ -15603,359 +15606,402 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B5" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="55">
+      <c r="B5" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="90"/>
+      <c r="D5" s="43">
         <v>128968</v>
       </c>
-      <c r="E5" s="58" t="s">
-        <v>71</v>
+      <c r="E5" s="46" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="62"/>
+      <c r="B6" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="88"/>
+      <c r="D6" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="61">
+      <c r="B7" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="88"/>
+      <c r="D7" s="49">
         <v>2600</v>
       </c>
-      <c r="E7" s="62" t="s">
-        <v>72</v>
+      <c r="E7" s="50" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B8" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="73" t="str">
+      <c r="B8" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="88"/>
+      <c r="D8" s="58" t="str">
         <f>IF(D7&lt;=1000,D30,C30)</f>
         <v>Clima templado o frío</v>
       </c>
-      <c r="E8" s="62"/>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B9" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="73" t="str">
+      <c r="B9" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="88"/>
+      <c r="D9" s="58" t="str">
         <f>IF(D5&lt;=D17,C17,IF(D5&lt;=D18,C18,IF(D5&lt;=D19,C19,C20)))</f>
         <v>Alto</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="50">
         <f>INDEX($B$17:$B$20,MATCH(D9,$C$17:$C$20,0))</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B10" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="73" t="str">
+      <c r="B10" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="88"/>
+      <c r="D10" s="58" t="str">
         <f>IF(AND(D6=E17,D5&lt;=D17),C17,IF(AND(D6=E18,D5&lt;=D18),C18,IF(D6=E19,C19,IF(D6=E20,C20,C17))))</f>
         <v>Bajo</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="50">
         <f>INDEX($B$17:$B$20,MATCH(D10,$C$17:$C$20,0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B11" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="74" t="str">
+      <c r="B11" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="88"/>
+      <c r="D11" s="59" t="str">
         <f>VLOOKUP(E11,B17:C20,2)</f>
         <v>Alto</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="50">
         <f>MAX(E9:E10)</f>
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="74">
+      <c r="B12" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="88"/>
+      <c r="D12" s="59">
         <f>VLOOKUP(D11,B31:E34,4, FALSE)</f>
         <v>140</v>
       </c>
-      <c r="E12" s="62" t="s">
-        <v>80</v>
+      <c r="E12" s="50" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="75">
+      <c r="B13" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="86"/>
+      <c r="D13" s="60">
         <f>VLOOKUP(D11,B31:F34,5, FALSE)</f>
         <v>0.85</v>
       </c>
-      <c r="E13" s="59" t="s">
-        <v>79</v>
+      <c r="E13" s="47" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="33" x14ac:dyDescent="0.45">
-      <c r="B16" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="69" t="s">
-        <v>60</v>
+      <c r="B16" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="60">
+      <c r="B17" s="48">
         <v>1</v>
       </c>
-      <c r="C17" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="70">
+      <c r="C17" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="57">
         <v>2500</v>
       </c>
-      <c r="E17" s="56" t="s">
-        <v>56</v>
+      <c r="E17" s="44" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B18" s="60">
+      <c r="B18" s="48">
         <v>2</v>
       </c>
-      <c r="C18" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="70">
+      <c r="C18" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="57">
         <v>12500</v>
       </c>
-      <c r="E18" s="56" t="s">
-        <v>56</v>
+      <c r="E18" s="44" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="60">
+      <c r="B19" s="48">
         <v>3</v>
       </c>
-      <c r="C19" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="70">
+      <c r="C19" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="57">
         <v>60000</v>
       </c>
-      <c r="E19" s="56" t="s">
-        <v>57</v>
+      <c r="E19" s="44" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="63">
+      <c r="B20" s="51">
         <v>4</v>
       </c>
-      <c r="C20" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="82">
+      <c r="C20" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="61">
         <v>99999999</v>
       </c>
-      <c r="E20" s="57" t="s">
-        <v>58</v>
+      <c r="E20" s="45" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="78"/>
+      <c r="B21" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="79"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" s="76"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="79"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B23" s="76"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="78"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="79"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B24" s="76"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="78"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B25" s="76"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="78"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="82"/>
     </row>
     <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="87" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
+      <c r="B28" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
     </row>
     <row r="30" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
-      <c r="B30" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="69" t="s">
-        <v>77</v>
+      <c r="B30" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="56" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B31" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="70">
+      <c r="B31" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="57">
         <v>90</v>
       </c>
-      <c r="D31" s="70">
+      <c r="D31" s="57">
         <v>100</v>
       </c>
-      <c r="E31" s="70">
+      <c r="E31" s="57">
         <f>IF($D$8=$C$30,C31,D31)</f>
         <v>90</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="44">
         <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B32" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="70">
+      <c r="B32" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="57">
         <v>115</v>
       </c>
-      <c r="D32" s="70">
+      <c r="D32" s="57">
         <v>125</v>
       </c>
-      <c r="E32" s="70">
+      <c r="E32" s="57">
         <f>IF($D$8=$C$30,C32,D32)</f>
         <v>115</v>
       </c>
-      <c r="F32" s="56">
+      <c r="F32" s="44">
         <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B33" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="70">
+      <c r="B33" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="57">
         <v>125</v>
       </c>
-      <c r="D33" s="70">
+      <c r="D33" s="57">
         <v>135</v>
       </c>
-      <c r="E33" s="70">
+      <c r="E33" s="57">
         <f>IF($D$8=$C$30,C33,D33)</f>
         <v>125</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F33" s="44">
         <v>0.85</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B34" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="82">
+      <c r="B34" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="61">
         <v>140</v>
       </c>
-      <c r="D34" s="82">
+      <c r="D34" s="61">
         <v>150</v>
       </c>
-      <c r="E34" s="82">
+      <c r="E34" s="61">
         <f>IF($D$8=$C$30,C34,D34)</f>
         <v>140</v>
       </c>
-      <c r="F34" s="57">
+      <c r="F34" s="45">
         <v>0.85</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="90"/>
+      <c r="B35" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="76"/>
     </row>
     <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="76"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="78"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="79"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B37" s="79"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="81"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="82"/>
+    </row>
+    <row r="39" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="B39:F43"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B35:F37"/>
     <mergeCell ref="B28:F29"/>
     <mergeCell ref="B13:C13"/>
@@ -15963,11 +16009,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B16:C16"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
@@ -16046,22 +16087,22 @@
         <v>45</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
@@ -16099,11 +16140,11 @@
         <v>0.36484923021329407</v>
       </c>
       <c r="J2" s="31">
-        <f>E2/G2</f>
+        <f t="shared" ref="J2:K4" si="1">E2/G2</f>
         <v>7108</v>
       </c>
       <c r="K2" s="31">
-        <f>F2/H2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L2" s="23">
@@ -16150,7 +16191,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="23">
-        <f t="shared" ref="E3:E23" si="1">ROUND(C3*D3,0)</f>
+        <f t="shared" ref="E3:E23" si="2">ROUND(C3*D3,0)</f>
         <v>11480</v>
       </c>
       <c r="F3" s="23">
@@ -16170,11 +16211,11 @@
         <v>0.58926127783463933</v>
       </c>
       <c r="J3" s="31">
-        <f>E3/G3</f>
+        <f t="shared" si="1"/>
         <v>11480</v>
       </c>
       <c r="K3" s="31">
-        <f>F3/H3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L3" s="23">
@@ -16221,7 +16262,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12273</v>
       </c>
       <c r="F4" s="23">
@@ -16241,11 +16282,11 @@
         <v>0.62996547585927942</v>
       </c>
       <c r="J4" s="31">
-        <f>E4/G4</f>
+        <f t="shared" si="1"/>
         <v>12273</v>
       </c>
       <c r="K4" s="31">
-        <f>F4/H4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L4" s="23">
@@ -16292,7 +16333,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20628</v>
       </c>
       <c r="F5" s="23">
@@ -16312,7 +16353,7 @@
         <v>1.0588224424366672</v>
       </c>
       <c r="J5" s="31">
-        <f t="shared" ref="J5:J23" si="2">E5/G5</f>
+        <f t="shared" ref="J5:J23" si="3">E5/G5</f>
         <v>20628</v>
       </c>
       <c r="K5" s="31">
@@ -16363,7 +16404,7 @@
         <v>0.96167504311559959</v>
       </c>
       <c r="E6" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26711</v>
       </c>
       <c r="F6" s="23">
@@ -16383,7 +16424,7 @@
         <v>1.4256735184544518</v>
       </c>
       <c r="J6" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26711</v>
       </c>
       <c r="K6" s="31">
@@ -16434,7 +16475,7 @@
         <v>0.93008936125409925</v>
       </c>
       <c r="E7" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37051</v>
       </c>
       <c r="F7" s="23">
@@ -16454,7 +16495,7 @@
         <v>2.0447571658380395</v>
       </c>
       <c r="J7" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37051</v>
       </c>
       <c r="K7" s="31">
@@ -16505,7 +16546,7 @@
         <v>0.88797511877209967</v>
       </c>
       <c r="E8" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53458</v>
       </c>
       <c r="F8" s="23">
@@ -16525,11 +16566,11 @@
         <v>3.0901313108188986</v>
       </c>
       <c r="J8" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>367.72148757522774</v>
       </c>
       <c r="K8" s="31">
-        <f t="shared" ref="K8:K23" si="3">F8/H8</f>
+        <f t="shared" ref="K8:K23" si="4">F8/H8</f>
         <v>0.34876786865313153</v>
       </c>
       <c r="L8" s="23">
@@ -16576,7 +16617,7 @@
         <v>0.85989895711743269</v>
       </c>
       <c r="E9" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59931</v>
       </c>
       <c r="F9" s="23">
@@ -16596,11 +16637,11 @@
         <v>3.5774011113837272</v>
       </c>
       <c r="J9" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>171.77483344235455</v>
       </c>
       <c r="K9" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5103190863774909</v>
       </c>
       <c r="L9" s="23">
@@ -16647,7 +16688,7 @@
         <v>0.85287991670376595</v>
       </c>
       <c r="E10" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67312</v>
       </c>
       <c r="F10" s="23">
@@ -16667,11 +16708,11 @@
         <v>4.051068626353941</v>
       </c>
       <c r="J10" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>168.37601695650241</v>
       </c>
       <c r="K10" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.60847128380171234</v>
       </c>
       <c r="L10" s="23">
@@ -16718,7 +16759,7 @@
         <v>0.81778471463543223</v>
       </c>
       <c r="E11" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81810</v>
       </c>
       <c r="F11" s="23">
@@ -16738,11 +16779,11 @@
         <v>5.134888476656938</v>
       </c>
       <c r="J11" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125.05971934953239</v>
       </c>
       <c r="K11" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96814015137215781</v>
       </c>
       <c r="L11" s="23">
@@ -16789,7 +16830,7 @@
         <v>0.7721609519465984</v>
       </c>
       <c r="E12" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99584</v>
       </c>
       <c r="F12" s="23">
@@ -16809,11 +16850,11 @@
         <v>6.6198474285520703</v>
       </c>
       <c r="J12" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>101.11265048793635</v>
       </c>
       <c r="K12" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5885700554055946</v>
       </c>
       <c r="L12" s="23">
@@ -16860,7 +16901,7 @@
         <v>0.76865143173976502</v>
       </c>
       <c r="E13" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98324</v>
       </c>
       <c r="F13" s="23">
@@ -16880,11 +16921,11 @@
         <v>6.5659515799696333</v>
       </c>
       <c r="J13" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>97.319539166511078</v>
       </c>
       <c r="K13" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6021266059977355</v>
       </c>
       <c r="L13" s="23">
@@ -16931,7 +16972,7 @@
         <v>0.75110383070559905</v>
       </c>
       <c r="E14" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105414</v>
       </c>
       <c r="F14" s="23">
@@ -16951,11 +16992,11 @@
         <v>7.2038731096672723</v>
       </c>
       <c r="J14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92.670096330560725</v>
       </c>
       <c r="K14" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9042218753410789</v>
       </c>
       <c r="L14" s="23">
@@ -17002,7 +17043,7 @@
         <v>0.73355622967143219</v>
       </c>
       <c r="E15" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112515</v>
       </c>
       <c r="F15" s="23">
@@ -17022,11 +17063,11 @@
         <v>7.8730542315427252</v>
       </c>
       <c r="J15" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88.96457835210586</v>
       </c>
       <c r="K15" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.243361689204995</v>
       </c>
       <c r="L15" s="23">
@@ -17073,7 +17114,7 @@
         <v>0.71600862863726533</v>
       </c>
       <c r="E16" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119592</v>
       </c>
       <c r="F16" s="23">
@@ -17093,11 +17134,11 @@
         <v>8.5733409574571837</v>
       </c>
       <c r="J16" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85.919063037248776</v>
       </c>
       <c r="K16" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6220963893944891</v>
       </c>
       <c r="L16" s="23">
@@ -17144,7 +17185,7 @@
         <v>0.69846102760309847</v>
       </c>
       <c r="E17" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>126616</v>
       </c>
       <c r="F17" s="23">
@@ -17164,11 +17205,11 @@
         <v>9.3048872755494543</v>
       </c>
       <c r="J17" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83.34867095942441</v>
       </c>
       <c r="K17" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.043048554979364</v>
       </c>
       <c r="L17" s="23">
@@ -17215,7 +17256,7 @@
         <v>0.68091342656893161</v>
       </c>
       <c r="E18" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>133552</v>
       </c>
       <c r="F18" s="23">
@@ -17235,11 +17276,11 @@
         <v>10.067539197680732</v>
       </c>
       <c r="J18" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81.122015050072918</v>
       </c>
       <c r="K18" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5089155781434997</v>
       </c>
       <c r="L18" s="23">
@@ -17286,7 +17327,7 @@
         <v>0.66336582553476475</v>
       </c>
       <c r="E19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140370</v>
       </c>
       <c r="F19" s="23">
@@ -17306,11 +17347,11 @@
         <v>10.861399382610221</v>
       </c>
       <c r="J19" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>79.148220365373305</v>
       </c>
       <c r="K19" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0224723510459404</v>
       </c>
       <c r="L19" s="23">
@@ -17357,7 +17398,7 @@
         <v>0.64581822450059789</v>
       </c>
       <c r="E20" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>147037</v>
       </c>
       <c r="F20" s="23">
@@ -17377,11 +17418,11 @@
         <v>11.686467830337921</v>
       </c>
       <c r="J20" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77.359159494086825</v>
       </c>
       <c r="K20" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5866309478851361</v>
       </c>
       <c r="L20" s="23">
@@ -17428,7 +17469,7 @@
         <v>0.62827062346643103</v>
       </c>
       <c r="E21" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>153522</v>
       </c>
       <c r="F21" s="23">
@@ -17448,11 +17489,11 @@
         <v>12.542641882104627</v>
       </c>
       <c r="J21" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75.704784101408464</v>
       </c>
       <c r="K21" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2041591581312074</v>
       </c>
       <c r="L21" s="23">
@@ -17499,7 +17540,7 @@
         <v>0.61072302243226417</v>
       </c>
       <c r="E22" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>159793</v>
       </c>
       <c r="F22" s="23">
@@ -17519,11 +17560,11 @@
         <v>13.430075526049146</v>
       </c>
       <c r="J22" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>74.146397592218833</v>
       </c>
       <c r="K22" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8782523271803067</v>
       </c>
       <c r="L22" s="23">
@@ -17570,7 +17611,7 @@
         <v>0.59317542139809731</v>
       </c>
       <c r="E23" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>165816</v>
       </c>
       <c r="F23" s="23">
@@ -17590,11 +17631,11 @@
         <v>14.348614774032672</v>
       </c>
       <c r="J23" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>72.653053663463808</v>
       </c>
       <c r="K23" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6119677611783443</v>
       </c>
       <c r="L23" s="23">
@@ -17636,7 +17677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94E9948-5D44-49EC-8CDF-A7CEA59F4AEF}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:A67"/>
     </sheetView>
@@ -17654,25 +17695,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -17680,10 +17721,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1">
         <v>7108</v>
@@ -17703,10 +17744,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1">
         <v>11480</v>
@@ -17726,10 +17767,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1">
         <v>12273</v>
@@ -17749,10 +17790,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1">
         <v>20628</v>
@@ -17772,10 +17813,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1">
         <v>27775</v>
@@ -17795,10 +17836,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="1">
         <v>39836</v>
@@ -17818,10 +17859,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1">
         <v>60202</v>
@@ -17841,10 +17882,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="1">
         <v>69695</v>
@@ -17864,10 +17905,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="1">
         <v>78923</v>
@@ -17887,10 +17928,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="1">
         <v>100038</v>
@@ -17910,10 +17951,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1">
         <v>128968</v>
@@ -17933,10 +17974,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="1">
         <v>127918</v>
@@ -17956,10 +17997,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="1">
         <v>140346</v>
@@ -17979,10 +18020,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1">
         <v>153383</v>
@@ -18002,10 +18043,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="1">
         <v>167026</v>
@@ -18025,10 +18066,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="1">
         <v>181278</v>
@@ -18048,10 +18089,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1">
         <v>196136</v>
@@ -18071,10 +18112,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" s="1">
         <v>211602</v>
@@ -18094,10 +18135,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="1">
         <v>227676</v>
@@ -18117,10 +18158,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="1">
         <v>244356</v>
@@ -18140,10 +18181,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="1">
         <v>261645</v>
@@ -18163,10 +18204,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="1">
         <v>279540</v>
@@ -18189,7 +18230,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="1">
         <v>7108</v>
@@ -18215,7 +18256,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="1">
         <v>11480</v>
@@ -18241,7 +18282,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="1">
         <v>12273</v>
@@ -18267,7 +18308,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="1">
         <v>20628</v>
@@ -18293,7 +18334,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="23">
         <v>26711</v>
@@ -18319,7 +18360,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="23">
         <v>37051</v>
@@ -18345,7 +18386,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="23">
         <v>53458</v>
@@ -18371,7 +18412,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="23">
         <v>59931</v>
@@ -18397,7 +18438,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="23">
         <v>67312</v>
@@ -18423,7 +18464,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="23">
         <v>81810</v>
@@ -18449,7 +18490,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="23">
         <v>99584</v>
@@ -18475,7 +18516,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="23">
         <v>98324</v>
@@ -18501,7 +18542,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="23">
         <v>105414</v>
@@ -18527,7 +18568,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D37" s="23">
         <v>112515</v>
@@ -18553,7 +18594,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D38" s="23">
         <v>119592</v>
@@ -18579,7 +18620,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D39" s="23">
         <v>126616</v>
@@ -18605,7 +18646,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D40" s="23">
         <v>133552</v>
@@ -18631,7 +18672,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D41" s="23">
         <v>140370</v>
@@ -18657,7 +18698,7 @@
         <v>16</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="23">
         <v>147037</v>
@@ -18683,7 +18724,7 @@
         <v>16</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D43" s="23">
         <v>153522</v>
@@ -18709,7 +18750,7 @@
         <v>16</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D44" s="23">
         <v>159793</v>
@@ -18735,7 +18776,7 @@
         <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D45" s="23">
         <v>165816</v>
@@ -18761,7 +18802,7 @@
         <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -18784,7 +18825,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -18807,7 +18848,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -18830,7 +18871,7 @@
         <v>17</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -18853,7 +18894,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D50" s="1">
         <v>1064.4756774642228</v>
@@ -18876,7 +18917,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D51" s="1">
         <v>2784.9602050817048</v>
@@ -18899,7 +18940,7 @@
         <v>17</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D52" s="1">
         <v>6744.1218996820535</v>
@@ -18922,7 +18963,7 @@
         <v>17</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D53" s="1">
         <v>9764.3421837005299</v>
@@ -18945,7 +18986,7 @@
         <v>17</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D54" s="1">
         <v>11611.158333988686</v>
@@ -18968,7 +19009,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D55" s="1">
         <v>18228.452717300635</v>
@@ -18991,7 +19032,7 @@
         <v>17</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D56" s="1">
         <v>29383.946349351099</v>
@@ -19014,7 +19055,7 @@
         <v>17</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D57" s="1">
         <v>29593.64615471274</v>
@@ -19037,7 +19078,7 @@
         <v>17</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D58" s="1">
         <v>34931.581775792001</v>
@@ -19060,7 +19101,7 @@
         <v>17</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D59" s="1">
         <v>40867.944824306716</v>
@@ -19083,7 +19124,7 @@
         <v>17</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D60" s="1">
         <v>47433.942793232127</v>
@@ -19106,7 +19147,7 @@
         <v>17</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D61" s="1">
         <v>54662.381838165515</v>
@@ -19129,7 +19170,7 @@
         <v>17</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D62" s="1">
         <v>62584.364166476036</v>
@@ -19152,7 +19193,7 @@
         <v>17</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D63" s="1">
         <v>71232.464585192705</v>
@@ -19175,7 +19216,7 @@
         <v>17</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D64" s="1">
         <v>80638.689918601885</v>
@@ -19198,7 +19239,7 @@
         <v>17</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D65" s="1">
         <v>90834.30353223678</v>
@@ -19221,7 +19262,7 @@
         <v>17</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D66" s="1">
         <v>101852.37479571023</v>
@@ -19244,7 +19285,7 @@
         <v>17</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D67" s="1">
         <v>113723.74270237586</v>

--- a/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
+++ b/activity/PopulationGIS/PoblacionDANE_GIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.SIGE\activity\PopulationGIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A56F4E2-CB9C-45F3-8F49-4D2AFEE60F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F4C58D-E2DD-4189-AA41-D12BD1BCE148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="769" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -700,10 +700,10 @@
     <t>QAcu</t>
   </si>
   <si>
-    <t>* Tenga en cuenta que la Resolución 0330 de 2017, por medio del cual se actualizó el reglamento de agua potable y saneamiento básico - RAS, ajustó los rangos de elevación de la zona estudio y los valores correspondientes a las dotaciones netas y coeficientes de retorno. Posteriormente y mediante la Resolución 799 de 2021, se realizaron ajustes complementarios a estas normas.</t>
+    <t>Análisis de demanda de agua potable y caudal servido (*Resolución 1096 del 17 de Noviembre de 2000 - RAS)</t>
   </si>
   <si>
-    <t>Análisis de demanda de agua potable y caudal servido (*Resolución 1096 del 17 de Noviembre de 2000 - RAS)</t>
+    <t>*Tenga en cuenta que la Resolución 0330 de 2017, por medio del cual se actualizó el reglamento de agua potable y saneamiento básico - RAS, ajustó los rangos de elevación de la zona estudio a partir de los cuales se definen los valores correspondientes a las dotaciones netas y coeficientes de retorno. Posteriormente y mediante la Resolución 799 de 2021, se realizaron ajustes complementarios a estas normas.</t>
   </si>
 </sst>
 </file>
@@ -1313,6 +1313,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1340,9 +1355,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1350,18 +1362,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15580,7 +15580,7 @@
   <dimension ref="B2:F43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B39" sqref="B39:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -15597,7 +15597,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
@@ -15606,10 +15606,10 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="90"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="43">
         <v>128968</v>
       </c>
@@ -15618,20 +15618,20 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="88"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="49" t="s">
         <v>55</v>
       </c>
       <c r="E6" s="50"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="88"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="49">
         <v>2600</v>
       </c>
@@ -15640,10 +15640,10 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="88"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="58" t="str">
         <f>IF(D7&lt;=1000,D30,C30)</f>
         <v>Clima templado o frío</v>
@@ -15651,10 +15651,10 @@
       <c r="E8" s="50"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="88"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="58" t="str">
         <f>IF(D5&lt;=D17,C17,IF(D5&lt;=D18,C18,IF(D5&lt;=D19,C19,C20)))</f>
         <v>Alto</v>
@@ -15665,10 +15665,10 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="88"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="58" t="str">
         <f>IF(AND(D6=E17,D5&lt;=D17),C17,IF(AND(D6=E18,D5&lt;=D18),C18,IF(D6=E19,C19,IF(D6=E20,C20,C17))))</f>
         <v>Bajo</v>
@@ -15679,10 +15679,10 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="88"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="59" t="str">
         <f>VLOOKUP(E11,B17:C20,2)</f>
         <v>Alto</v>
@@ -15693,10 +15693,10 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="88"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="59">
         <f>VLOOKUP(D11,B31:E34,4, FALSE)</f>
         <v>140</v>
@@ -15706,10 +15706,10 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="86"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="60">
         <f>VLOOKUP(D11,B31:F34,5, FALSE)</f>
         <v>0.85</v>
@@ -15792,58 +15792,58 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="79"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="84"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" s="77"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="84"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="84"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="84"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B26" s="80"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="82"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="87"/>
     </row>
     <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
     </row>
     <row r="30" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B30" s="54" t="s">
@@ -15935,72 +15935,67 @@
       </c>
     </row>
     <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="76"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="81"/>
     </row>
     <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="79"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="84"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B37" s="80"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="82"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="87"/>
     </row>
     <row r="39" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
+      <c r="B39" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B39:F43"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B35:F37"/>
     <mergeCell ref="B28:F29"/>
@@ -16010,6 +16005,11 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B39:F43"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{C41A9AF3-437A-43C2-81E5-D5F8976E3D1D}">
